--- a/data/balCOPEL.xlsx
+++ b/data/balCOPEL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\PG_2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\projects\PG_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF0529BF-3CC8-4602-AA9F-8097177F41BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FF7EA1F-7CE6-44BB-B6C2-56A3AC9DFB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Bal. Patrim." sheetId="1" r:id="rId1"/>
@@ -161,6 +161,15 @@
     <t>Outros Resultados Abrangentes</t>
   </si>
   <si>
+    <t>30/09/2021</t>
+  </si>
+  <si>
+    <t>30/06/2021</t>
+  </si>
+  <si>
+    <t>31/03/2021</t>
+  </si>
+  <si>
     <t>31/12/2020</t>
   </si>
   <si>
@@ -276,15 +285,6 @@
   </si>
   <si>
     <t>30/06/2011</t>
-  </si>
-  <si>
-    <t>31/03/2011</t>
-  </si>
-  <si>
-    <t>31/12/2010</t>
-  </si>
-  <si>
-    <t>30/09/2010</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -836,7 +836,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -985,130 +987,130 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
+        <v>49833902.079999998</v>
+      </c>
+      <c r="C3" s="4">
+        <v>47376633.855999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>47204143.104000002</v>
+      </c>
+      <c r="E3" s="4">
         <v>46784663.552000001</v>
       </c>
-      <c r="C3" s="4">
+      <c r="F3" s="4">
         <v>45029675.008000001</v>
       </c>
-      <c r="D3" s="4">
+      <c r="G3" s="4">
         <v>44341956.608000003</v>
       </c>
-      <c r="E3" s="4">
+      <c r="H3" s="4">
         <v>38300102.656000003</v>
       </c>
-      <c r="F3" s="4">
+      <c r="I3" s="4">
         <v>38312550.399999999</v>
       </c>
-      <c r="G3" s="4">
+      <c r="J3" s="4">
         <v>36725190.656000003</v>
       </c>
-      <c r="H3" s="4">
+      <c r="K3" s="4">
         <v>36218703.872000001</v>
       </c>
-      <c r="I3" s="4">
+      <c r="L3" s="4">
         <v>36263288.832000002</v>
       </c>
-      <c r="J3" s="4">
+      <c r="M3" s="4">
         <v>35930099.711999997</v>
       </c>
-      <c r="K3" s="4">
+      <c r="N3" s="4">
         <v>34951376.895999998</v>
       </c>
-      <c r="L3" s="4">
+      <c r="O3" s="4">
         <v>34480001.023999996</v>
       </c>
-      <c r="M3" s="4">
+      <c r="P3" s="4">
         <v>33718427.648000002</v>
       </c>
-      <c r="N3" s="4">
+      <c r="Q3" s="4">
         <v>33162375.168000001</v>
       </c>
-      <c r="O3" s="4">
+      <c r="R3" s="4">
         <v>33556828.159999996</v>
       </c>
-      <c r="P3" s="4">
+      <c r="S3" s="4">
         <v>31899248.640000001</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="T3" s="4">
         <v>30935027.712000001</v>
       </c>
-      <c r="R3" s="4">
+      <c r="U3" s="4">
         <v>30434207.743999999</v>
       </c>
-      <c r="S3" s="4">
+      <c r="V3" s="4">
         <v>30497583.103999998</v>
       </c>
-      <c r="T3" s="4">
+      <c r="W3" s="4">
         <v>29770219.52</v>
       </c>
-      <c r="U3" s="4">
+      <c r="X3" s="4">
         <v>29183942.655999999</v>
       </c>
-      <c r="V3" s="4">
+      <c r="Y3" s="4">
         <v>28947656.704</v>
       </c>
-      <c r="W3" s="4">
+      <c r="Z3" s="4">
         <v>28414324.736000001</v>
       </c>
-      <c r="X3" s="4">
+      <c r="AA3" s="4">
         <v>27946199.039999999</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="AB3" s="4">
         <v>27398451.199999999</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="AC3" s="4">
         <v>25618141.184</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AD3" s="4">
         <v>25494683.647999998</v>
       </c>
-      <c r="AB3" s="4">
+      <c r="AE3" s="4">
         <v>25065977.855999999</v>
       </c>
-      <c r="AC3" s="4">
+      <c r="AF3" s="4">
         <v>24434204.671999998</v>
       </c>
-      <c r="AD3" s="4">
+      <c r="AG3" s="4">
         <v>23111444.48</v>
       </c>
-      <c r="AE3" s="4">
+      <c r="AH3" s="4">
         <v>22166116.352000002</v>
       </c>
-      <c r="AF3" s="4">
+      <c r="AI3" s="4">
         <v>21842991.103999998</v>
       </c>
-      <c r="AG3" s="4">
+      <c r="AJ3" s="4">
         <v>21438746.624000002</v>
       </c>
-      <c r="AH3" s="4">
+      <c r="AK3" s="4">
         <v>21211553.791999999</v>
       </c>
-      <c r="AI3" s="4">
+      <c r="AL3" s="4">
         <v>19908823.039999999</v>
       </c>
-      <c r="AJ3" s="4">
+      <c r="AM3" s="4">
         <v>19538923.52</v>
       </c>
-      <c r="AK3" s="4">
+      <c r="AN3" s="4">
         <v>19350024.192000002</v>
       </c>
-      <c r="AL3" s="4">
+      <c r="AO3" s="4">
         <v>19121664</v>
       </c>
-      <c r="AM3" s="4">
+      <c r="AP3" s="4">
         <v>18900643.84</v>
       </c>
-      <c r="AN3" s="4">
+      <c r="AQ3" s="4">
         <v>18601979.903999999</v>
-      </c>
-      <c r="AO3" s="4">
-        <v>18206240.767999999</v>
-      </c>
-      <c r="AP3" s="4">
-        <v>17859432.447999999</v>
-      </c>
-      <c r="AQ3" s="4">
-        <v>17252446.208000001</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.2">
@@ -1116,130 +1118,130 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
+        <v>12014431.232000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10153097.216</v>
+      </c>
+      <c r="D4" s="1">
+        <v>11433289.728</v>
+      </c>
+      <c r="E4" s="1">
         <v>11407430.655999999</v>
       </c>
-      <c r="C4" s="1">
+      <c r="F4" s="1">
         <v>10097721.344000001</v>
       </c>
-      <c r="D4" s="1">
+      <c r="G4" s="1">
         <v>8684469.2479999997</v>
       </c>
-      <c r="E4" s="1">
+      <c r="H4" s="1">
         <v>7903235.0719999997</v>
       </c>
-      <c r="F4" s="1">
+      <c r="I4" s="1">
         <v>7909195.7759999996</v>
       </c>
-      <c r="G4" s="1">
+      <c r="J4" s="1">
         <v>6748404.2240000004</v>
       </c>
-      <c r="H4" s="1">
+      <c r="K4" s="1">
         <v>6612372.9919999996</v>
       </c>
-      <c r="I4" s="1">
+      <c r="L4" s="1">
         <v>6800453.1200000001</v>
       </c>
-      <c r="J4" s="1">
+      <c r="M4" s="1">
         <v>6677846.0159999998</v>
       </c>
-      <c r="K4" s="1">
+      <c r="N4" s="1">
         <v>5626758.1440000003</v>
       </c>
-      <c r="L4" s="1">
+      <c r="O4" s="1">
         <v>6072795.1359999999</v>
       </c>
-      <c r="M4" s="1">
+      <c r="P4" s="1">
         <v>6008435.2000000002</v>
       </c>
-      <c r="N4" s="1">
+      <c r="Q4" s="1">
         <v>5701834.2400000002</v>
       </c>
-      <c r="O4" s="1">
+      <c r="R4" s="1">
         <v>6023634.9440000001</v>
       </c>
-      <c r="P4" s="1">
+      <c r="S4" s="1">
         <v>5132470.784</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="T4" s="1">
         <v>4458093.0559999999</v>
       </c>
-      <c r="R4" s="1">
+      <c r="U4" s="1">
         <v>4402990.08</v>
       </c>
-      <c r="S4" s="1">
+      <c r="V4" s="1">
         <v>4881892.8640000001</v>
       </c>
-      <c r="T4" s="1">
+      <c r="W4" s="1">
         <v>4512403.9680000003</v>
       </c>
-      <c r="U4" s="1">
+      <c r="X4" s="1">
         <v>5951157.7599999998</v>
       </c>
-      <c r="V4" s="1">
+      <c r="Y4" s="1">
         <v>6933396.9919999996</v>
       </c>
-      <c r="W4" s="1">
+      <c r="Z4" s="1">
         <v>6720225.7920000004</v>
       </c>
-      <c r="X4" s="1">
+      <c r="AA4" s="1">
         <v>6869864.96</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="AB4" s="1">
         <v>6437134.8480000002</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AC4" s="1">
         <v>5218176</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AD4" s="1">
         <v>5409290.7520000003</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AE4" s="1">
         <v>5704522.7520000003</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AF4" s="1">
         <v>5591745.0240000002</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AG4" s="1">
         <v>4680284.1600000001</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AH4" s="1">
         <v>4634676.2240000004</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AI4" s="1">
         <v>4884296.1919999998</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AJ4" s="1">
         <v>4846388.2240000004</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AK4" s="1">
         <v>4699254.784</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AL4" s="1">
         <v>3538245.12</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AM4" s="1">
         <v>3412108.0320000001</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AN4" s="1">
         <v>3582426.1120000002</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AO4" s="1">
         <v>3702012.9279999998</v>
       </c>
-      <c r="AM4" s="1">
+      <c r="AP4" s="1">
         <v>4176943.1039999998</v>
       </c>
-      <c r="AN4" s="1">
+      <c r="AQ4" s="1">
         <v>4257507.0719999997</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>4161094.912</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>4157789.952</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>3811514.1120000002</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.2">
@@ -1247,130 +1249,130 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
+        <v>4853273.0880000005</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1437628.0319999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2924125.952</v>
+      </c>
+      <c r="E5" s="1">
         <v>3222768.128</v>
       </c>
-      <c r="C5" s="1">
+      <c r="F5" s="1">
         <v>3599421.952</v>
       </c>
-      <c r="D5" s="1">
+      <c r="G5" s="1">
         <v>2902007.04</v>
       </c>
-      <c r="E5" s="1">
+      <c r="H5" s="1">
         <v>3014957.0559999999</v>
       </c>
-      <c r="F5" s="1">
+      <c r="I5" s="1">
         <v>2941726.9759999998</v>
       </c>
-      <c r="G5" s="1">
+      <c r="J5" s="1">
         <v>2026390.0160000001</v>
       </c>
-      <c r="H5" s="1">
+      <c r="K5" s="1">
         <v>1906712.064</v>
       </c>
-      <c r="I5" s="1">
+      <c r="L5" s="1">
         <v>2053970.048</v>
       </c>
-      <c r="J5" s="1">
+      <c r="M5" s="1">
         <v>1948408.96</v>
       </c>
-      <c r="K5" s="1">
+      <c r="N5" s="1">
         <v>857862.01599999995</v>
       </c>
-      <c r="L5" s="1">
+      <c r="O5" s="1">
         <v>1704147.9680000001</v>
       </c>
-      <c r="M5" s="1">
+      <c r="P5" s="1">
         <v>1697463.04</v>
       </c>
-      <c r="N5" s="1">
+      <c r="Q5" s="1">
         <v>1040075.008</v>
       </c>
-      <c r="O5" s="1">
+      <c r="R5" s="1">
         <v>1305400.064</v>
       </c>
-      <c r="P5" s="1">
+      <c r="S5" s="1">
         <v>1423948.0319999999</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="T5" s="1">
         <v>945590.97600000002</v>
       </c>
-      <c r="R5" s="1">
+      <c r="U5" s="1">
         <v>982073.02399999998</v>
       </c>
-      <c r="S5" s="1">
+      <c r="V5" s="1">
         <v>1417705.9839999999</v>
       </c>
-      <c r="T5" s="1">
+      <c r="W5" s="1">
         <v>828316.99199999997</v>
       </c>
-      <c r="U5" s="1">
+      <c r="X5" s="1">
         <v>1160439.04</v>
       </c>
-      <c r="V5" s="1">
+      <c r="Y5" s="1">
         <v>1480727.04</v>
       </c>
-      <c r="W5" s="1">
+      <c r="Z5" s="1">
         <v>831568</v>
       </c>
-      <c r="X5" s="1">
+      <c r="AA5" s="1">
         <v>867804.99199999997</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="AB5" s="1">
         <v>1132472.96</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AC5" s="1">
         <v>740131.00800000003</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AD5" s="1">
         <v>1790121.9839999999</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AE5" s="1">
         <v>2063537.024</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AF5" s="1">
         <v>1384691.9680000001</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AG5" s="1">
         <v>1741632</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AH5" s="1">
         <v>1531815.936</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AI5" s="1">
         <v>1570382.976</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AJ5" s="1">
         <v>1206096</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AK5" s="1">
         <v>1483137.024</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AL5" s="1">
         <v>749520</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AM5" s="1">
         <v>673764.99199999997</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AN5" s="1">
         <v>820998.01599999995</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AO5" s="1">
         <v>1049124.9920000001</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AP5" s="1">
         <v>1490455.04</v>
       </c>
-      <c r="AN5" s="1">
+      <c r="AQ5" s="1">
         <v>1676317.952</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>1791920</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>1794416</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>1522167.04</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.2">
@@ -1378,130 +1380,130 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
+        <v>1727</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1725</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1729</v>
+      </c>
+      <c r="E6" s="1">
         <v>1662</v>
       </c>
-      <c r="C6" s="1">
+      <c r="F6" s="1">
         <v>1596</v>
       </c>
-      <c r="D6" s="1">
+      <c r="G6" s="1">
         <v>1609</v>
       </c>
-      <c r="E6" s="1">
+      <c r="H6" s="1">
         <v>1586</v>
       </c>
-      <c r="F6" s="1">
+      <c r="I6" s="1">
         <v>3259</v>
       </c>
-      <c r="G6" s="1">
+      <c r="J6" s="1">
         <v>1528</v>
       </c>
-      <c r="H6" s="1">
+      <c r="K6" s="1">
         <v>45113</v>
       </c>
-      <c r="I6" s="1">
+      <c r="L6" s="1">
         <v>155272</v>
       </c>
-      <c r="J6" s="1">
+      <c r="M6" s="1">
         <v>125065</v>
       </c>
-      <c r="K6" s="1">
+      <c r="N6" s="1">
         <v>75175</v>
       </c>
-      <c r="L6" s="1">
+      <c r="O6" s="1">
         <v>43581</v>
       </c>
-      <c r="M6" s="1">
+      <c r="P6" s="1">
         <v>41200</v>
       </c>
-      <c r="N6" s="1">
+      <c r="Q6" s="1">
         <v>60713</v>
       </c>
-      <c r="O6" s="1">
+      <c r="R6" s="1">
         <v>150236.992</v>
       </c>
-      <c r="P6" s="1">
+      <c r="S6" s="1">
         <v>58972</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="T6" s="1">
         <v>89340</v>
       </c>
-      <c r="R6" s="1">
+      <c r="U6" s="1">
         <v>303692</v>
       </c>
-      <c r="S6" s="1">
+      <c r="V6" s="1">
         <v>338896</v>
       </c>
-      <c r="T6" s="1">
+      <c r="W6" s="1">
         <v>392806.016</v>
       </c>
-      <c r="U6" s="1">
+      <c r="X6" s="1">
         <v>336054.016</v>
       </c>
-      <c r="V6" s="1">
+      <c r="Y6" s="1">
         <v>408273.984</v>
       </c>
-      <c r="W6" s="1">
+      <c r="Z6" s="1">
         <v>386358.016</v>
       </c>
-      <c r="X6" s="1">
+      <c r="AA6" s="1">
         <v>456753.984</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AB6" s="1">
         <v>288716</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AC6" s="1">
         <v>472612</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AD6" s="1">
         <v>567196.99199999997</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AE6" s="1">
         <v>450681.984</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AF6" s="1">
         <v>220034</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AG6" s="1">
         <v>391198.016</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AH6" s="1">
         <v>511236.99200000003</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AI6" s="1">
         <v>510761.984</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AJ6" s="1">
         <v>534468</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AK6" s="1">
         <v>672313.02399999998</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AL6" s="1">
         <v>469076.99200000003</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AM6" s="1">
         <v>458358.016</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AN6" s="1">
         <v>502544</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AO6" s="1">
         <v>584686.97600000002</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AP6" s="1">
         <v>527166.01599999995</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AQ6" s="1">
         <v>533588</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>524516.99199999997</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>598172.99199999997</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.2">
@@ -1509,130 +1511,130 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
+        <v>5497335.8080000002</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5133595.1359999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5216882.176</v>
+      </c>
+      <c r="E7" s="1">
         <v>5100943.8720000004</v>
       </c>
-      <c r="C7" s="1">
+      <c r="F7" s="1">
         <v>4021300.9920000001</v>
       </c>
-      <c r="D7" s="1">
+      <c r="G7" s="1">
         <v>4411021.824</v>
       </c>
-      <c r="E7" s="1">
+      <c r="H7" s="1">
         <v>4323402.24</v>
       </c>
-      <c r="F7" s="1">
+      <c r="I7" s="1">
         <v>4358216.1919999998</v>
       </c>
-      <c r="G7" s="1">
+      <c r="J7" s="1">
         <v>4239376.8959999997</v>
       </c>
-      <c r="H7" s="1">
+      <c r="K7" s="1">
         <v>4197199.1040000003</v>
       </c>
-      <c r="I7" s="1">
+      <c r="L7" s="1">
         <v>4149025.0240000002</v>
       </c>
-      <c r="J7" s="1">
+      <c r="M7" s="1">
         <v>4134268.9279999998</v>
       </c>
-      <c r="K7" s="1">
+      <c r="N7" s="1">
         <v>4258946.0480000004</v>
       </c>
-      <c r="L7" s="1">
+      <c r="O7" s="1">
         <v>3848372.9920000001</v>
       </c>
-      <c r="M7" s="1">
+      <c r="P7" s="1">
         <v>3645750.0159999998</v>
       </c>
-      <c r="N7" s="1">
+      <c r="Q7" s="1">
         <v>3750703.1039999998</v>
       </c>
-      <c r="O7" s="1">
+      <c r="R7" s="1">
         <v>3449965.0559999999</v>
       </c>
-      <c r="P7" s="1">
+      <c r="S7" s="1">
         <v>3152699.9040000001</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="T7" s="1">
         <v>3007965.952</v>
       </c>
-      <c r="R7" s="1">
+      <c r="U7" s="1">
         <v>2690608.8960000002</v>
       </c>
-      <c r="S7" s="1">
+      <c r="V7" s="1">
         <v>2723730.9440000001</v>
       </c>
-      <c r="T7" s="1">
+      <c r="W7" s="1">
         <v>2964094.9759999998</v>
       </c>
-      <c r="U7" s="1">
+      <c r="X7" s="1">
         <v>4114440.96</v>
       </c>
-      <c r="V7" s="1">
+      <c r="Y7" s="1">
         <v>4599127.04</v>
       </c>
-      <c r="W7" s="1">
+      <c r="Z7" s="1">
         <v>5112033.7920000004</v>
       </c>
-      <c r="X7" s="1">
+      <c r="AA7" s="1">
         <v>5172043.7759999996</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="AB7" s="1">
         <v>4642034.176</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AC7" s="1">
         <v>3633318.912</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AD7" s="1">
         <v>2742150.912</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AE7" s="1">
         <v>2848749.0559999999</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AF7" s="1">
         <v>3620564.9920000001</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AG7" s="1">
         <v>2185022.9759999998</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AH7" s="1">
         <v>2149329.9199999999</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AI7" s="1">
         <v>2402723.0720000002</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AJ7" s="1">
         <v>2698361.088</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AK7" s="1">
         <v>2171343.1039999998</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AL7" s="1">
         <v>1886780.0319999999</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AM7" s="1">
         <v>1866505.9839999999</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AN7" s="1">
         <v>1869506.9439999999</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AO7" s="1">
         <v>1694072.96</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AP7" s="1">
         <v>1848030.976</v>
       </c>
-      <c r="AN7" s="1">
+      <c r="AQ7" s="1">
         <v>1735858.9439999999</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>1548568.064</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>1443063.04</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>2161734.912</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.2">
@@ -1640,130 +1642,130 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
+        <v>182324</v>
+      </c>
+      <c r="C8" s="1">
+        <v>187604</v>
+      </c>
+      <c r="D8" s="1">
+        <v>159094</v>
+      </c>
+      <c r="E8" s="1">
         <v>162791.008</v>
       </c>
-      <c r="C8" s="1">
+      <c r="F8" s="1">
         <v>145271.008</v>
       </c>
-      <c r="D8" s="1">
+      <c r="G8" s="1">
         <v>150868.992</v>
       </c>
-      <c r="E8" s="1">
+      <c r="H8" s="1">
         <v>139891.008</v>
       </c>
-      <c r="F8" s="1">
+      <c r="I8" s="1">
         <v>130442</v>
       </c>
-      <c r="G8" s="1">
+      <c r="J8" s="1">
         <v>119066</v>
       </c>
-      <c r="H8" s="1">
+      <c r="K8" s="1">
         <v>119416</v>
       </c>
-      <c r="I8" s="1">
+      <c r="L8" s="1">
         <v>113058</v>
       </c>
-      <c r="J8" s="1">
+      <c r="M8" s="1">
         <v>116285</v>
       </c>
-      <c r="K8" s="1">
+      <c r="N8" s="1">
         <v>116842</v>
       </c>
-      <c r="L8" s="1">
+      <c r="O8" s="1">
         <v>111321</v>
       </c>
-      <c r="M8" s="1">
+      <c r="P8" s="1">
         <v>104317</v>
       </c>
-      <c r="N8" s="1">
+      <c r="Q8" s="1">
         <v>110559</v>
       </c>
-      <c r="O8" s="1">
+      <c r="R8" s="1">
         <v>116701</v>
       </c>
-      <c r="P8" s="1">
+      <c r="S8" s="1">
         <v>120886</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="T8" s="1">
         <v>126880</v>
       </c>
-      <c r="R8" s="1">
+      <c r="U8" s="1">
         <v>130637</v>
       </c>
-      <c r="S8" s="1">
+      <c r="V8" s="1">
         <v>138964</v>
       </c>
-      <c r="T8" s="1">
+      <c r="W8" s="1">
         <v>142384</v>
       </c>
-      <c r="U8" s="1">
+      <c r="X8" s="1">
         <v>141251.008</v>
       </c>
-      <c r="V8" s="1">
+      <c r="Y8" s="1">
         <v>131018</v>
       </c>
-      <c r="W8" s="1">
+      <c r="Z8" s="1">
         <v>135951.008</v>
       </c>
-      <c r="X8" s="1">
+      <c r="AA8" s="1">
         <v>134712</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="AB8" s="1">
         <v>137835.008</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AC8" s="1">
         <v>150622</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AD8" s="1">
         <v>142060.992</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AE8" s="1">
         <v>140515.008</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AF8" s="1">
         <v>132997</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AG8" s="1">
         <v>139278</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AH8" s="1">
         <v>134292.992</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AI8" s="1">
         <v>135144.992</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AJ8" s="1">
         <v>135224.992</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AK8" s="1">
         <v>124809</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AL8" s="1">
         <v>118952</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AM8" s="1">
         <v>113380</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AN8" s="1">
         <v>109146</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AO8" s="1">
         <v>103802</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AP8" s="1">
         <v>124510</v>
       </c>
-      <c r="AN8" s="1">
+      <c r="AQ8" s="1">
         <v>133438</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>125784</v>
-      </c>
-      <c r="AP8" s="1">
-        <v>121424</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>111404</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.2">
@@ -1902,130 +1904,130 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
+        <v>1439118.976</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1806156.0319999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1837885.952</v>
+      </c>
+      <c r="E10" s="1">
         <v>1651732.9920000001</v>
       </c>
-      <c r="C10" s="1">
+      <c r="F10" s="1">
         <v>1117198.976</v>
       </c>
-      <c r="D10" s="1">
+      <c r="G10" s="1">
         <v>1194208</v>
       </c>
-      <c r="E10" s="1">
+      <c r="H10" s="1">
         <v>396648.99200000003</v>
       </c>
-      <c r="F10" s="1">
+      <c r="I10" s="1">
         <v>441988.99200000003</v>
       </c>
-      <c r="G10" s="1">
+      <c r="J10" s="1">
         <v>321408</v>
       </c>
-      <c r="H10" s="1">
+      <c r="K10" s="1">
         <v>310143.00799999997</v>
       </c>
-      <c r="I10" s="1">
+      <c r="L10" s="1">
         <v>291151.00799999997</v>
       </c>
-      <c r="J10" s="1">
+      <c r="M10" s="1">
         <v>312999.00799999997</v>
       </c>
-      <c r="K10" s="1">
+      <c r="N10" s="1">
         <v>284713.984</v>
       </c>
-      <c r="L10" s="1">
+      <c r="O10" s="1">
         <v>329919.00799999997</v>
       </c>
-      <c r="M10" s="1">
+      <c r="P10" s="1">
         <v>481176</v>
       </c>
-      <c r="N10" s="1">
+      <c r="Q10" s="1">
         <v>699916.99199999997</v>
       </c>
-      <c r="O10" s="1">
+      <c r="R10" s="1">
         <v>967137.98400000005</v>
       </c>
-      <c r="P10" s="1">
+      <c r="S10" s="1">
         <v>340432.99200000003</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="T10" s="1">
         <v>250872</v>
       </c>
-      <c r="R10" s="1">
+      <c r="U10" s="1">
         <v>256883.008</v>
       </c>
-      <c r="S10" s="1">
+      <c r="V10" s="1">
         <v>221470</v>
       </c>
-      <c r="T10" s="1">
+      <c r="W10" s="1">
         <v>144384</v>
       </c>
-      <c r="U10" s="1">
+      <c r="X10" s="1">
         <v>155383.008</v>
       </c>
-      <c r="V10" s="1">
+      <c r="Y10" s="1">
         <v>264968.99200000003</v>
       </c>
-      <c r="W10" s="1">
+      <c r="Z10" s="1">
         <v>231931.008</v>
       </c>
-      <c r="X10" s="1">
+      <c r="AA10" s="1">
         <v>221834</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="AB10" s="1">
         <v>202532.992</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="AC10" s="1">
         <v>201359.008</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AD10" s="1">
         <v>146296</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AE10" s="1">
         <v>183388</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AF10" s="1">
         <v>214592</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AG10" s="1">
         <v>203171.008</v>
       </c>
-      <c r="AE10" s="1">
+      <c r="AH10" s="1">
         <v>284856.99200000003</v>
       </c>
-      <c r="AF10" s="1">
+      <c r="AI10" s="1">
         <v>245336.992</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AJ10" s="1">
         <v>248795.008</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AK10" s="1">
         <v>242648.992</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AL10" s="1">
         <v>295700.99200000003</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AM10" s="1">
         <v>286998.016</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AN10" s="1">
         <v>265644.99200000003</v>
       </c>
-      <c r="AL10" s="1">
+      <c r="AO10" s="1">
         <v>265738</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AP10" s="1">
         <v>170836.992</v>
       </c>
-      <c r="AN10" s="1">
+      <c r="AQ10" s="1">
         <v>167100</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>157916.992</v>
-      </c>
-      <c r="AP10" s="1">
-        <v>195748.992</v>
-      </c>
-      <c r="AQ10" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.2">
@@ -2033,130 +2035,130 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
+        <v>40652</v>
+      </c>
+      <c r="C11" s="1">
+        <v>35270</v>
+      </c>
+      <c r="D11" s="1">
+        <v>32274</v>
+      </c>
+      <c r="E11" s="1">
         <v>36987</v>
       </c>
-      <c r="C11" s="1">
+      <c r="F11" s="1">
         <v>31089</v>
       </c>
-      <c r="D11" s="1">
+      <c r="G11" s="1">
         <v>24754</v>
       </c>
-      <c r="E11" s="1">
+      <c r="H11" s="1">
         <v>26750</v>
       </c>
-      <c r="F11" s="1">
+      <c r="I11" s="1">
         <v>33563</v>
       </c>
-      <c r="G11" s="1">
+      <c r="J11" s="1">
         <v>40635</v>
       </c>
-      <c r="H11" s="1">
+      <c r="K11" s="1">
         <v>33790</v>
       </c>
-      <c r="I11" s="1">
+      <c r="L11" s="1">
         <v>37977</v>
       </c>
-      <c r="J11" s="1">
+      <c r="M11" s="1">
         <v>40819</v>
       </c>
-      <c r="K11" s="1">
+      <c r="N11" s="1">
         <v>33219</v>
       </c>
-      <c r="L11" s="1">
+      <c r="O11" s="1">
         <v>35453</v>
       </c>
-      <c r="M11" s="1">
+      <c r="P11" s="1">
         <v>38529</v>
       </c>
-      <c r="N11" s="1">
+      <c r="Q11" s="1">
         <v>39867</v>
       </c>
-      <c r="O11" s="1">
+      <c r="R11" s="1">
         <v>34194</v>
       </c>
-      <c r="P11" s="1">
+      <c r="S11" s="1">
         <v>35532</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="T11" s="1">
         <v>37444</v>
       </c>
-      <c r="R11" s="1">
+      <c r="U11" s="1">
         <v>39096</v>
       </c>
-      <c r="S11" s="1">
+      <c r="V11" s="1">
         <v>41126</v>
       </c>
-      <c r="T11" s="1">
+      <c r="W11" s="1">
         <v>40418</v>
       </c>
-      <c r="U11" s="1">
+      <c r="X11" s="1">
         <v>43590</v>
       </c>
-      <c r="V11" s="1">
+      <c r="Y11" s="1">
         <v>49282</v>
       </c>
-      <c r="W11" s="1">
+      <c r="Z11" s="1">
         <v>22384</v>
       </c>
-      <c r="X11" s="1">
+      <c r="AA11" s="1">
         <v>16716</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="AB11" s="1">
         <v>33544</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AC11" s="1">
         <v>20133</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AD11" s="1">
         <v>21464</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AE11" s="1">
         <v>17652</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AF11" s="1">
         <v>18865</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AG11" s="1">
         <v>19982</v>
       </c>
-      <c r="AE11" s="1">
+      <c r="AH11" s="1">
         <v>23143</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AI11" s="1">
         <v>19946</v>
       </c>
-      <c r="AG11" s="1">
+      <c r="AJ11" s="1">
         <v>23443</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AK11" s="1">
         <v>5004</v>
       </c>
-      <c r="AI11" s="1">
+      <c r="AL11" s="1">
         <v>18215</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AM11" s="1">
         <v>13101</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AN11" s="1">
         <v>14586</v>
       </c>
-      <c r="AL11" s="1">
+      <c r="AO11" s="1">
         <v>4588</v>
       </c>
-      <c r="AM11" s="1">
+      <c r="AP11" s="1">
         <v>15944</v>
       </c>
-      <c r="AN11" s="1">
+      <c r="AQ11" s="1">
         <v>11204</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>12389</v>
-      </c>
-      <c r="AP11" s="1">
-        <v>4965</v>
-      </c>
-      <c r="AQ11" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.2">
@@ -2164,20 +2166,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1551118.976</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1261298.9439999999</v>
+      </c>
+      <c r="E12" s="1">
         <v>1230546.048</v>
       </c>
-      <c r="C12" s="1">
+      <c r="F12" s="1">
         <v>1181842.9439999999</v>
       </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="AQ12" s="1">
-        <v>16208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.2">
@@ -2295,130 +2297,130 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
+        <v>16747744.255999999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>17962196.991999999</v>
+      </c>
+      <c r="D13" s="1">
+        <v>16647407.616</v>
+      </c>
+      <c r="E13" s="1">
         <v>16222799.872</v>
       </c>
-      <c r="C13" s="1">
+      <c r="F13" s="1">
         <v>16357000.192</v>
       </c>
-      <c r="D13" s="1">
+      <c r="G13" s="1">
         <v>16372023.296</v>
       </c>
-      <c r="E13" s="1">
+      <c r="H13" s="1">
         <v>11048317.952</v>
       </c>
-      <c r="F13" s="1">
+      <c r="I13" s="1">
         <v>10955460.607999999</v>
       </c>
-      <c r="G13" s="1">
+      <c r="J13" s="1">
         <v>10532349.952</v>
       </c>
-      <c r="H13" s="1">
+      <c r="K13" s="1">
         <v>10265640.960000001</v>
       </c>
-      <c r="I13" s="1">
+      <c r="L13" s="1">
         <v>10198296.575999999</v>
       </c>
-      <c r="J13" s="1">
+      <c r="M13" s="1">
         <v>10014260.223999999</v>
       </c>
-      <c r="K13" s="1">
+      <c r="N13" s="1">
         <v>9506553.8560000006</v>
       </c>
-      <c r="L13" s="1">
+      <c r="O13" s="1">
         <v>8867434.4959999993</v>
       </c>
-      <c r="M13" s="1">
+      <c r="P13" s="1">
         <v>8489430.0160000008</v>
       </c>
-      <c r="N13" s="1">
+      <c r="Q13" s="1">
         <v>8607626.2400000002</v>
       </c>
-      <c r="O13" s="1">
+      <c r="R13" s="1">
         <v>8801559.5519999992</v>
       </c>
-      <c r="P13" s="1">
+      <c r="S13" s="1">
         <v>8457277.9519999996</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="T13" s="1">
         <v>8579432.9600000009</v>
       </c>
-      <c r="R13" s="1">
+      <c r="U13" s="1">
         <v>8302154.2400000002</v>
       </c>
-      <c r="S13" s="1">
+      <c r="V13" s="1">
         <v>7276306.9440000001</v>
       </c>
-      <c r="T13" s="1">
+      <c r="W13" s="1">
         <v>7437577.216</v>
       </c>
-      <c r="U13" s="1">
+      <c r="X13" s="1">
         <v>5897858.0480000004</v>
       </c>
-      <c r="V13" s="1">
+      <c r="Y13" s="1">
         <v>4951792.1279999996</v>
       </c>
-      <c r="W13" s="1">
+      <c r="Z13" s="1">
         <v>9460135.9360000007</v>
       </c>
-      <c r="X13" s="1">
+      <c r="AA13" s="1">
         <v>8615904.2559999991</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="AB13" s="1">
         <v>8575921.1520000007</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AC13" s="1">
         <v>8261472.2560000001</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AD13" s="1">
         <v>7887034.8799999999</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AE13" s="1">
         <v>7692498.9440000001</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AF13" s="1">
         <v>7380483.0719999997</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AG13" s="1">
         <v>7224241.1519999998</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AH13" s="1">
         <v>6539100.1600000001</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AI13" s="1">
         <v>6432616.96</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AJ13" s="1">
         <v>6287984.1279999996</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AK13" s="1">
         <v>6302903.8080000002</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AL13" s="1">
         <v>6349341.1840000004</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AM13" s="1">
         <v>6304609.7920000004</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AN13" s="1">
         <v>6148894.2079999996</v>
       </c>
-      <c r="AL13" s="1">
+      <c r="AO13" s="1">
         <v>5939511.8080000002</v>
       </c>
-      <c r="AM13" s="1">
+      <c r="AP13" s="1">
         <v>5455751.1679999996</v>
       </c>
-      <c r="AN13" s="1">
+      <c r="AQ13" s="1">
         <v>5246286.8480000002</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>5093108.2240000004</v>
-      </c>
-      <c r="AP13" s="1">
-        <v>4805293.0559999999</v>
-      </c>
-      <c r="AQ13" s="1">
-        <v>4586947.0719999997</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.2">
@@ -2426,130 +2428,130 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
+        <v>333852.99200000003</v>
+      </c>
+      <c r="C14" s="1">
+        <v>306734.016</v>
+      </c>
+      <c r="D14" s="1">
+        <v>323180.99200000003</v>
+      </c>
+      <c r="E14" s="1">
         <v>321449.984</v>
       </c>
-      <c r="C14" s="1">
+      <c r="F14" s="1">
         <v>319934.016</v>
       </c>
-      <c r="D14" s="1">
+      <c r="G14" s="1">
         <v>312404.99200000003</v>
       </c>
-      <c r="E14" s="1">
+      <c r="H14" s="1">
         <v>313614.016</v>
       </c>
-      <c r="F14" s="1">
+      <c r="I14" s="1">
         <v>306703.00799999997</v>
       </c>
-      <c r="G14" s="1">
+      <c r="J14" s="1">
         <v>284152</v>
       </c>
-      <c r="H14" s="1">
+      <c r="K14" s="1">
         <v>273369.984</v>
       </c>
-      <c r="I14" s="1">
+      <c r="L14" s="1">
         <v>240123.008</v>
       </c>
-      <c r="J14" s="1">
+      <c r="M14" s="1">
         <v>238944.992</v>
       </c>
-      <c r="K14" s="1">
+      <c r="N14" s="1">
         <v>239454</v>
       </c>
-      <c r="L14" s="1">
+      <c r="O14" s="1">
         <v>251392</v>
       </c>
-      <c r="M14" s="1">
+      <c r="P14" s="1">
         <v>313307.00799999997</v>
       </c>
-      <c r="N14" s="1">
+      <c r="Q14" s="1">
         <v>312713.984</v>
       </c>
-      <c r="O14" s="1">
+      <c r="R14" s="1">
         <v>727513.02399999998</v>
       </c>
-      <c r="P14" s="1">
+      <c r="S14" s="1">
         <v>769046.01599999995</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="T14" s="1">
         <v>761884.03200000001</v>
       </c>
-      <c r="R14" s="1">
+      <c r="U14" s="1">
         <v>676467.00800000003</v>
       </c>
-      <c r="S14" s="1">
+      <c r="V14" s="1">
         <v>266342</v>
       </c>
-      <c r="T14" s="1">
+      <c r="W14" s="1">
         <v>254958</v>
       </c>
-      <c r="U14" s="1">
+      <c r="X14" s="1">
         <v>252839.008</v>
       </c>
-      <c r="V14" s="1">
+      <c r="Y14" s="1">
         <v>177254</v>
       </c>
-      <c r="W14" s="1">
+      <c r="Z14" s="1">
         <v>184459.008</v>
       </c>
-      <c r="X14" s="1">
+      <c r="AA14" s="1">
         <v>162344.992</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="AB14" s="1">
         <v>124087</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AC14" s="1">
         <v>189166</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AD14" s="1">
         <v>183394</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AE14" s="1">
         <v>161983.008</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AF14" s="1">
         <v>144888.992</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AG14" s="1">
         <v>154766</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AH14" s="1">
         <v>151252</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AI14" s="1">
         <v>192150</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AJ14" s="1">
         <v>192486</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AK14" s="1">
         <v>159580.992</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="AL14" s="1">
         <v>160796</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AM14" s="1">
         <v>155343.008</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AN14" s="1">
         <v>103203</v>
       </c>
-      <c r="AL14" s="1">
+      <c r="AO14" s="1">
         <v>88953</v>
       </c>
-      <c r="AM14" s="1">
+      <c r="AP14" s="1">
         <v>42660</v>
       </c>
-      <c r="AN14" s="1">
+      <c r="AQ14" s="1">
         <v>25679</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>25688</v>
-      </c>
-      <c r="AP14" s="1">
-        <v>26280</v>
-      </c>
-      <c r="AQ14" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
@@ -2638,49 +2640,49 @@
         <v>0</v>
       </c>
       <c r="AC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1">
         <v>11426</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AG15" s="1">
         <v>11141</v>
       </c>
-      <c r="AE15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="1">
-        <v>0</v>
-      </c>
       <c r="AH15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="1">
         <v>12180</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AL15" s="1">
         <v>11966</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AM15" s="1">
         <v>11730</v>
       </c>
-      <c r="AK15" s="1">
+      <c r="AN15" s="1">
         <v>11478</v>
       </c>
-      <c r="AL15" s="1">
+      <c r="AO15" s="1">
         <v>11189</v>
       </c>
-      <c r="AM15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="1">
+      <c r="AP15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="1">
         <v>1933</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>7340</v>
-      </c>
-      <c r="AP15" s="1">
-        <v>7151</v>
-      </c>
-      <c r="AQ15" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
@@ -2688,130 +2690,130 @@
         <v>6</v>
       </c>
       <c r="B16" s="1">
+        <v>138551.008</v>
+      </c>
+      <c r="C16" s="1">
+        <v>128043</v>
+      </c>
+      <c r="D16" s="1">
+        <v>147904.992</v>
+      </c>
+      <c r="E16" s="1">
         <v>133521</v>
       </c>
-      <c r="C16" s="1">
+      <c r="F16" s="1">
         <v>145044</v>
       </c>
-      <c r="D16" s="1">
+      <c r="G16" s="1">
         <v>139754</v>
       </c>
-      <c r="E16" s="1">
+      <c r="H16" s="1">
         <v>127156</v>
       </c>
-      <c r="F16" s="1">
+      <c r="I16" s="1">
         <v>98433</v>
       </c>
-      <c r="G16" s="1">
+      <c r="J16" s="1">
         <v>100229</v>
       </c>
-      <c r="H16" s="1">
+      <c r="K16" s="1">
         <v>92305</v>
       </c>
-      <c r="I16" s="1">
+      <c r="L16" s="1">
         <v>90093</v>
       </c>
-      <c r="J16" s="1">
+      <c r="M16" s="1">
         <v>89555</v>
       </c>
-      <c r="K16" s="1">
+      <c r="N16" s="1">
         <v>90775</v>
       </c>
-      <c r="L16" s="1">
+      <c r="O16" s="1">
         <v>87046</v>
       </c>
-      <c r="M16" s="1">
+      <c r="P16" s="1">
         <v>209532</v>
       </c>
-      <c r="N16" s="1">
+      <c r="Q16" s="1">
         <v>261082</v>
       </c>
-      <c r="O16" s="1">
+      <c r="R16" s="1">
         <v>270449.984</v>
       </c>
-      <c r="P16" s="1">
+      <c r="S16" s="1">
         <v>274791.00799999997</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="T16" s="1">
         <v>278412.99200000003</v>
       </c>
-      <c r="R16" s="1">
+      <c r="U16" s="1">
         <v>270785.984</v>
       </c>
-      <c r="S16" s="1">
+      <c r="V16" s="1">
         <v>103321</v>
       </c>
-      <c r="T16" s="1">
+      <c r="W16" s="1">
         <v>75049</v>
       </c>
-      <c r="U16" s="1">
+      <c r="X16" s="1">
         <v>75595</v>
       </c>
-      <c r="V16" s="1">
+      <c r="Y16" s="1">
         <v>75062</v>
       </c>
-      <c r="W16" s="1">
+      <c r="Z16" s="1">
         <v>85159</v>
       </c>
-      <c r="X16" s="1">
+      <c r="AA16" s="1">
         <v>78421</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="AB16" s="1">
         <v>75457</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="AC16" s="1">
         <v>75696</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AD16" s="1">
         <v>74422</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AE16" s="1">
         <v>71239</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AF16" s="1">
         <v>145356</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AG16" s="1">
         <v>132686</v>
       </c>
-      <c r="AE16" s="1">
+      <c r="AH16" s="1">
         <v>44635</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AI16" s="1">
         <v>34858</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AJ16" s="1">
         <v>18610</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AK16" s="1">
         <v>26171</v>
       </c>
-      <c r="AI16" s="1">
+      <c r="AL16" s="1">
         <v>31739</v>
       </c>
-      <c r="AJ16" s="1">
+      <c r="AM16" s="1">
         <v>35069</v>
       </c>
-      <c r="AK16" s="1">
+      <c r="AN16" s="1">
         <v>34466</v>
       </c>
-      <c r="AL16" s="1">
+      <c r="AO16" s="1">
         <v>32452</v>
       </c>
-      <c r="AM16" s="1">
+      <c r="AP16" s="1">
         <v>39190</v>
       </c>
-      <c r="AN16" s="1">
+      <c r="AQ16" s="1">
         <v>43816</v>
-      </c>
-      <c r="AO16" s="1">
-        <v>42619</v>
-      </c>
-      <c r="AP16" s="1">
-        <v>43729</v>
-      </c>
-      <c r="AQ16" s="1">
-        <v>4586947.0719999997</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.2">
@@ -2819,46 +2821,46 @@
         <v>7</v>
       </c>
       <c r="B17" s="1">
+        <v>63237</v>
+      </c>
+      <c r="C17" s="1">
+        <v>58766</v>
+      </c>
+      <c r="D17" s="1">
+        <v>49732</v>
+      </c>
+      <c r="E17" s="1">
         <v>51438</v>
       </c>
-      <c r="C17" s="1">
+      <c r="F17" s="1">
         <v>50259</v>
       </c>
-      <c r="D17" s="1">
+      <c r="G17" s="1">
         <v>51202</v>
       </c>
-      <c r="E17" s="1">
+      <c r="H17" s="1">
         <v>55416</v>
       </c>
-      <c r="F17" s="1">
+      <c r="I17" s="1">
         <v>62399</v>
       </c>
-      <c r="G17" s="1">
+      <c r="J17" s="1">
         <v>67026</v>
       </c>
-      <c r="H17" s="1">
+      <c r="K17" s="1">
         <v>142060.992</v>
       </c>
-      <c r="I17" s="1">
+      <c r="L17" s="1">
         <v>181848.992</v>
       </c>
-      <c r="J17" s="1">
+      <c r="M17" s="1">
         <v>162915.008</v>
       </c>
-      <c r="K17" s="1">
+      <c r="N17" s="1">
         <v>186658</v>
       </c>
-      <c r="L17" s="1">
+      <c r="O17" s="1">
         <v>203234</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>0</v>
@@ -3114,97 +3116,97 @@
         <v>0</v>
       </c>
       <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
         <v>951838.97600000002</v>
       </c>
-      <c r="N19" s="1">
+      <c r="Q19" s="1">
         <v>915491.96799999999</v>
       </c>
-      <c r="O19" s="1">
+      <c r="R19" s="1">
         <v>994009.98400000005</v>
       </c>
-      <c r="P19" s="1">
+      <c r="S19" s="1">
         <v>821705.98400000005</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="T19" s="1">
         <v>809521.02399999998</v>
       </c>
-      <c r="R19" s="1">
+      <c r="U19" s="1">
         <v>803476.99199999997</v>
       </c>
-      <c r="S19" s="1">
+      <c r="V19" s="1">
         <v>723124.99199999997</v>
       </c>
-      <c r="T19" s="1">
+      <c r="W19" s="1">
         <v>847484.03200000001</v>
       </c>
-      <c r="U19" s="1">
+      <c r="X19" s="1">
         <v>835251.96799999999</v>
       </c>
-      <c r="V19" s="1">
+      <c r="Y19" s="1">
         <v>537561.98400000005</v>
       </c>
-      <c r="W19" s="1">
+      <c r="Z19" s="1">
         <v>667852.99199999997</v>
       </c>
-      <c r="X19" s="1">
+      <c r="AA19" s="1">
         <v>588457.98400000005</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="AB19" s="1">
         <v>577113.02399999998</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="AC19" s="1">
         <v>526046.01599999995</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AD19" s="1">
         <v>889713.02399999998</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AE19" s="1">
         <v>887086.97600000002</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AF19" s="1">
         <v>766016</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AG19" s="1">
         <v>753412.99199999997</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AH19" s="1">
         <v>733065.02399999998</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AI19" s="1">
         <v>717531.00800000003</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AJ19" s="1">
         <v>705820.03200000001</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AK19" s="1">
         <v>647804.03200000001</v>
       </c>
-      <c r="AI19" s="1">
+      <c r="AL19" s="1">
         <v>567422.01599999995</v>
       </c>
-      <c r="AJ19" s="1">
+      <c r="AM19" s="1">
         <v>800651.00800000003</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AN19" s="1">
         <v>770073.98400000005</v>
       </c>
-      <c r="AL19" s="1">
+      <c r="AO19" s="1">
         <v>745180.03200000001</v>
       </c>
-      <c r="AM19" s="1">
+      <c r="AP19" s="1">
         <v>672502.97600000002</v>
       </c>
-      <c r="AN19" s="1">
+      <c r="AQ19" s="1">
         <v>633376</v>
-      </c>
-      <c r="AO19" s="1">
-        <v>605264</v>
-      </c>
-      <c r="AP19" s="1">
-        <v>507710.016</v>
-      </c>
-      <c r="AQ19" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.2">
@@ -3212,121 +3214,121 @@
         <v>10</v>
       </c>
       <c r="B20" s="1">
+        <v>1001758.976</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1128801.024</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1235619.9680000001</v>
+      </c>
+      <c r="E20" s="1">
         <v>1191104</v>
       </c>
-      <c r="C20" s="1">
+      <c r="F20" s="1">
         <v>951360</v>
       </c>
-      <c r="D20" s="1">
+      <c r="G20" s="1">
         <v>1014028.032</v>
       </c>
-      <c r="E20" s="1">
+      <c r="H20" s="1">
         <v>1033396.992</v>
       </c>
-      <c r="F20" s="1">
+      <c r="I20" s="1">
         <v>1011865.9840000001</v>
       </c>
-      <c r="G20" s="1">
+      <c r="J20" s="1">
         <v>920051.00800000003</v>
       </c>
-      <c r="H20" s="1">
+      <c r="K20" s="1">
         <v>1008577.024</v>
       </c>
-      <c r="I20" s="1">
+      <c r="L20" s="1">
         <v>1045267.968</v>
       </c>
-      <c r="J20" s="1">
+      <c r="M20" s="1">
         <v>1007060.992</v>
       </c>
-      <c r="K20" s="1">
+      <c r="N20" s="1">
         <v>1044564.992</v>
       </c>
-      <c r="L20" s="1">
+      <c r="O20" s="1">
         <v>986286.01599999995</v>
       </c>
-      <c r="M20" s="1">
+      <c r="P20" s="1">
         <v>8819</v>
       </c>
-      <c r="N20" s="1">
+      <c r="Q20" s="1">
         <v>12684</v>
       </c>
-      <c r="O20" s="1">
+      <c r="R20" s="1">
         <v>16570</v>
       </c>
-      <c r="P20" s="1">
+      <c r="S20" s="1">
         <v>20434</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="T20" s="1">
         <v>24299</v>
       </c>
-      <c r="R20" s="1">
+      <c r="U20" s="1">
         <v>25583</v>
       </c>
-      <c r="S20" s="1">
+      <c r="V20" s="1">
         <v>29467</v>
       </c>
-      <c r="T20" s="1">
+      <c r="W20" s="1">
         <v>22101</v>
       </c>
-      <c r="U20" s="1">
+      <c r="X20" s="1">
         <v>21628</v>
       </c>
-      <c r="V20" s="1">
+      <c r="Y20" s="1">
         <v>25493</v>
-      </c>
-      <c r="W20" s="1">
-        <v>175</v>
-      </c>
-      <c r="X20" s="1">
-        <v>175</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>175</v>
       </c>
       <c r="Z20" s="1">
         <v>175</v>
       </c>
       <c r="AA20" s="1">
+        <v>175</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>175</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>175</v>
+      </c>
+      <c r="AD20" s="1">
         <v>197</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AE20" s="1">
         <v>197</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AF20" s="1">
         <v>399</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AG20" s="1">
         <v>399</v>
       </c>
-      <c r="AE20" s="1">
+      <c r="AH20" s="1">
         <v>418</v>
       </c>
-      <c r="AF20" s="1">
+      <c r="AI20" s="1">
         <v>708</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AJ20" s="1">
         <v>212</v>
       </c>
-      <c r="AH20" s="1">
+      <c r="AK20" s="1">
         <v>8832</v>
       </c>
-      <c r="AI20" s="1">
+      <c r="AL20" s="1">
         <v>10737</v>
       </c>
-      <c r="AJ20" s="1">
+      <c r="AM20" s="1">
         <v>12619</v>
       </c>
-      <c r="AK20" s="1">
+      <c r="AN20" s="1">
         <v>14478</v>
-      </c>
-      <c r="AL20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="1">
-        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>0</v>
@@ -3343,95 +3345,95 @@
         <v>16</v>
       </c>
       <c r="B21" s="1">
+        <v>1644</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1644</v>
+      </c>
+      <c r="D21" s="1">
         <v>44</v>
       </c>
-      <c r="C21" s="1">
+      <c r="E21" s="1">
+        <v>44</v>
+      </c>
+      <c r="F21" s="1">
         <v>66</v>
       </c>
-      <c r="D21" s="1">
+      <c r="G21" s="1">
         <v>132</v>
       </c>
-      <c r="E21" s="1">
+      <c r="H21" s="1">
         <v>132</v>
       </c>
-      <c r="F21" s="1">
+      <c r="I21" s="1">
         <v>132</v>
       </c>
-      <c r="G21" s="1">
+      <c r="J21" s="1">
         <v>154</v>
       </c>
-      <c r="H21" s="1">
+      <c r="K21" s="1">
         <v>154</v>
       </c>
-      <c r="I21" s="1">
+      <c r="L21" s="1">
         <v>1786</v>
       </c>
-      <c r="J21" s="1">
+      <c r="M21" s="1">
         <v>3290</v>
       </c>
-      <c r="K21" s="1">
+      <c r="N21" s="1">
         <v>4945</v>
       </c>
-      <c r="L21" s="1">
+      <c r="O21" s="1">
         <v>6830</v>
       </c>
-      <c r="M21" s="1">
+      <c r="P21" s="1">
         <v>14266</v>
       </c>
-      <c r="N21" s="1">
+      <c r="Q21" s="1">
         <v>130156</v>
       </c>
-      <c r="O21" s="1">
+      <c r="R21" s="1">
         <v>142648</v>
       </c>
-      <c r="P21" s="1">
+      <c r="S21" s="1">
         <v>142648</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="T21" s="1">
         <v>155140.992</v>
       </c>
-      <c r="R21" s="1">
+      <c r="U21" s="1">
         <v>155140.992</v>
       </c>
-      <c r="S21" s="1">
+      <c r="V21" s="1">
         <v>167566</v>
       </c>
-      <c r="T21" s="1">
+      <c r="W21" s="1">
         <v>167566</v>
       </c>
-      <c r="U21" s="1">
+      <c r="X21" s="1">
         <v>167566</v>
       </c>
-      <c r="V21" s="1">
+      <c r="Y21" s="1">
         <v>192803.008</v>
       </c>
-      <c r="W21" s="1">
+      <c r="Z21" s="1">
         <v>177528.992</v>
       </c>
-      <c r="X21" s="1">
+      <c r="AA21" s="1">
         <v>184320</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="AB21" s="1">
         <v>160287.008</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="AC21" s="1">
         <v>137136.992</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AD21" s="1">
         <v>128867</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AE21" s="1">
         <v>115696</v>
       </c>
-      <c r="AC21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="1">
-        <v>0</v>
-      </c>
       <c r="AF21" s="1">
         <v>0</v>
       </c>
@@ -3460,10 +3462,10 @@
         <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>1575</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>1575</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="1">
         <v>0</v>
@@ -3501,103 +3503,103 @@
         <v>0</v>
       </c>
       <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
         <v>14266</v>
       </c>
-      <c r="L22" s="1">
+      <c r="O22" s="1">
         <v>14266</v>
       </c>
-      <c r="M22" s="1">
+      <c r="P22" s="1">
         <v>6991667.2000000002</v>
       </c>
-      <c r="N22" s="1">
+      <c r="Q22" s="1">
         <v>6975498.2400000002</v>
       </c>
-      <c r="O22" s="1">
+      <c r="R22" s="1">
         <v>6650369.0240000002</v>
       </c>
-      <c r="P22" s="1">
+      <c r="S22" s="1">
         <v>6428653.0559999999</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="T22" s="1">
         <v>6550175.2319999998</v>
       </c>
-      <c r="R22" s="1">
+      <c r="U22" s="1">
         <v>6370699.7759999996</v>
       </c>
-      <c r="S22" s="1">
+      <c r="V22" s="1">
         <v>5986485.7599999998</v>
       </c>
-      <c r="T22" s="1">
+      <c r="W22" s="1">
         <v>6070418.9440000001</v>
       </c>
-      <c r="U22" s="1">
+      <c r="X22" s="1">
         <v>4544977.92</v>
       </c>
-      <c r="V22" s="1">
+      <c r="Y22" s="1">
         <v>3943618.048</v>
       </c>
-      <c r="W22" s="1">
+      <c r="Z22" s="1">
         <v>8344961.0240000002</v>
       </c>
-      <c r="X22" s="1">
+      <c r="AA22" s="1">
         <v>7602185.216</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="AB22" s="1">
         <v>7638801.9199999999</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="AC22" s="1">
         <v>7333252.0959999999</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AD22" s="1">
         <v>6610442.2400000002</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AE22" s="1">
         <v>6456296.96</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AF22" s="1">
         <v>6312396.7999999998</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AG22" s="1">
         <v>6171835.9040000001</v>
       </c>
-      <c r="AE22" s="1">
+      <c r="AH22" s="1">
         <v>5609730.0480000004</v>
       </c>
-      <c r="AF22" s="1">
+      <c r="AI22" s="1">
         <v>5487370.2400000002</v>
       </c>
-      <c r="AG22" s="1">
+      <c r="AJ22" s="1">
         <v>5370855.9359999998</v>
       </c>
-      <c r="AH22" s="1">
+      <c r="AK22" s="1">
         <v>5448335.8720000004</v>
       </c>
-      <c r="AI22" s="1">
+      <c r="AL22" s="1">
         <v>5566681.0880000005</v>
       </c>
-      <c r="AJ22" s="1">
+      <c r="AM22" s="1">
         <v>5289198.08</v>
       </c>
-      <c r="AK22" s="1">
+      <c r="AN22" s="1">
         <v>5215195.1359999999</v>
       </c>
-      <c r="AL22" s="1">
+      <c r="AO22" s="1">
         <v>5061737.9840000002</v>
       </c>
-      <c r="AM22" s="1">
+      <c r="AP22" s="1">
         <v>4701398.0159999998</v>
       </c>
-      <c r="AN22" s="1">
+      <c r="AQ22" s="1">
         <v>4541483.0080000004</v>
-      </c>
-      <c r="AO22" s="1">
-        <v>4410621.9519999996</v>
-      </c>
-      <c r="AP22" s="1">
-        <v>4218848</v>
-      </c>
-      <c r="AQ22" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.2">
@@ -3605,130 +3607,130 @@
         <v>18</v>
       </c>
       <c r="B23" s="1">
+        <v>3005384.96</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2848708.0959999999</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2814119.9360000002</v>
+      </c>
+      <c r="E23" s="1">
         <v>2729517.0559999999</v>
       </c>
-      <c r="C23" s="1">
+      <c r="F23" s="1">
         <v>2637242.1120000002</v>
       </c>
-      <c r="D23" s="1">
+      <c r="G23" s="1">
         <v>2583362.048</v>
       </c>
-      <c r="E23" s="1">
+      <c r="H23" s="1">
         <v>2562825.9840000002</v>
       </c>
-      <c r="F23" s="1">
+      <c r="I23" s="1">
         <v>2523179.0079999999</v>
       </c>
-      <c r="G23" s="1">
+      <c r="J23" s="1">
         <v>2424465.92</v>
       </c>
-      <c r="H23" s="1">
+      <c r="K23" s="1">
         <v>2375794.9440000001</v>
       </c>
-      <c r="I23" s="1">
+      <c r="L23" s="1">
         <v>2396208.128</v>
       </c>
-      <c r="J23" s="1">
+      <c r="M23" s="1">
         <v>2368233.9840000002</v>
       </c>
-      <c r="K23" s="1">
+      <c r="N23" s="1">
         <v>2497181.952</v>
       </c>
-      <c r="L23" s="1">
+      <c r="O23" s="1">
         <v>2630130.9440000001</v>
       </c>
-      <c r="M23" s="1">
+      <c r="P23" s="1">
         <v>2597637.8879999998</v>
       </c>
-      <c r="N23" s="1">
+      <c r="Q23" s="1">
         <v>2570642.9440000001</v>
       </c>
-      <c r="O23" s="1">
+      <c r="R23" s="1">
         <v>2507706.88</v>
       </c>
-      <c r="P23" s="1">
+      <c r="S23" s="1">
         <v>2513702.912</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="T23" s="1">
         <v>2405293.0559999999</v>
       </c>
-      <c r="R23" s="1">
+      <c r="U23" s="1">
         <v>2334949.8879999998</v>
       </c>
-      <c r="S23" s="1">
+      <c r="V23" s="1">
         <v>2750671.872</v>
       </c>
-      <c r="T23" s="1">
+      <c r="W23" s="1">
         <v>2592484.0959999999</v>
       </c>
-      <c r="U23" s="1">
+      <c r="X23" s="1">
         <v>2320878.08</v>
       </c>
-      <c r="V23" s="1">
+      <c r="Y23" s="1">
         <v>2224709.8879999998</v>
       </c>
-      <c r="W23" s="1">
+      <c r="Z23" s="1">
         <v>2050406.0160000001</v>
       </c>
-      <c r="X23" s="1">
+      <c r="AA23" s="1">
         <v>1856924.0319999999</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="AB23" s="1">
         <v>1725899.0079999999</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="AC23" s="1">
         <v>1660150.0160000001</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AD23" s="1">
         <v>1632078.976</v>
       </c>
-      <c r="AB23" s="1">
+      <c r="AE23" s="1">
         <v>1393943.04</v>
       </c>
-      <c r="AC23" s="1">
+      <c r="AF23" s="1">
         <v>1242897.024</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AG23" s="1">
         <v>1187927.04</v>
       </c>
-      <c r="AE23" s="1">
+      <c r="AH23" s="1">
         <v>936235.00800000003</v>
       </c>
-      <c r="AF23" s="1">
+      <c r="AI23" s="1">
         <v>814555.00800000003</v>
       </c>
-      <c r="AG23" s="1">
+      <c r="AJ23" s="1">
         <v>675652.99199999997</v>
       </c>
-      <c r="AH23" s="1">
+      <c r="AK23" s="1">
         <v>543036.03200000001</v>
       </c>
-      <c r="AI23" s="1">
+      <c r="AL23" s="1">
         <v>590217.02399999998</v>
       </c>
-      <c r="AJ23" s="1">
+      <c r="AM23" s="1">
         <v>578513.98400000005</v>
       </c>
-      <c r="AK23" s="1">
+      <c r="AN23" s="1">
         <v>571737.02399999998</v>
       </c>
-      <c r="AL23" s="1">
+      <c r="AO23" s="1">
         <v>549158.01599999995</v>
       </c>
-      <c r="AM23" s="1">
+      <c r="AP23" s="1">
         <v>512176.99200000003</v>
       </c>
-      <c r="AN23" s="1">
+      <c r="AQ23" s="1">
         <v>501713.984</v>
-      </c>
-      <c r="AO23" s="1">
-        <v>494884.99200000003</v>
-      </c>
-      <c r="AP23" s="1">
-        <v>483449.984</v>
-      </c>
-      <c r="AQ23" s="1">
-        <v>455172.99200000003</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.2">
@@ -3736,130 +3738,130 @@
         <v>19</v>
       </c>
       <c r="B24" s="1">
+        <v>9314246.6559999995</v>
+      </c>
+      <c r="C24" s="1">
+        <v>9407485.9519999996</v>
+      </c>
+      <c r="D24" s="1">
+        <v>9395355.648</v>
+      </c>
+      <c r="E24" s="1">
         <v>9495459.8399999999</v>
       </c>
-      <c r="C24" s="1">
+      <c r="F24" s="1">
         <v>9433804.8000000007</v>
       </c>
-      <c r="D24" s="1">
+      <c r="G24" s="1">
         <v>10272119.808</v>
       </c>
-      <c r="E24" s="1">
+      <c r="H24" s="1">
         <v>10433998.847999999</v>
       </c>
-      <c r="F24" s="1">
+      <c r="I24" s="1">
         <v>10592103.424000001</v>
       </c>
-      <c r="G24" s="1">
+      <c r="J24" s="1">
         <v>10765375.488</v>
       </c>
-      <c r="H24" s="1">
+      <c r="K24" s="1">
         <v>10774987.776000001</v>
       </c>
-      <c r="I24" s="1">
+      <c r="L24" s="1">
         <v>10785774.592</v>
       </c>
-      <c r="J24" s="1">
+      <c r="M24" s="1">
         <v>10840663.039999999</v>
       </c>
-      <c r="K24" s="1">
+      <c r="N24" s="1">
         <v>10736927.744000001</v>
       </c>
-      <c r="L24" s="1">
+      <c r="O24" s="1">
         <v>10435519.488</v>
       </c>
-      <c r="M24" s="1">
+      <c r="P24" s="1">
         <v>10158539.776000001</v>
       </c>
-      <c r="N24" s="1">
+      <c r="Q24" s="1">
         <v>9829449.7280000001</v>
       </c>
-      <c r="O24" s="1">
+      <c r="R24" s="1">
         <v>9661798.4000000004</v>
       </c>
-      <c r="P24" s="1">
+      <c r="S24" s="1">
         <v>9272609.7919999994</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="T24" s="1">
         <v>9003701.2479999997</v>
       </c>
-      <c r="R24" s="1">
+      <c r="U24" s="1">
         <v>8934302.7200000007</v>
       </c>
-      <c r="S24" s="1">
+      <c r="V24" s="1">
         <v>9169506.3039999995</v>
       </c>
-      <c r="T24" s="1">
+      <c r="W24" s="1">
         <v>8941072.3839999996</v>
       </c>
-      <c r="U24" s="1">
+      <c r="X24" s="1">
         <v>8803555.3279999997</v>
       </c>
-      <c r="V24" s="1">
+      <c r="Y24" s="1">
         <v>8692681.7280000001</v>
       </c>
-      <c r="W24" s="1">
+      <c r="Z24" s="1">
         <v>8699628.5439999998</v>
       </c>
-      <c r="X24" s="1">
+      <c r="AA24" s="1">
         <v>8657387.5199999996</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="AB24" s="1">
         <v>8632726.5280000009</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="AC24" s="1">
         <v>8304187.9040000001</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AD24" s="1">
         <v>8379565.0559999999</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AE24" s="1">
         <v>8158830.0800000001</v>
       </c>
-      <c r="AC24" s="1">
+      <c r="AF24" s="1">
         <v>8089560.0640000002</v>
       </c>
-      <c r="AD24" s="1">
+      <c r="AG24" s="1">
         <v>7983631.8720000004</v>
       </c>
-      <c r="AE24" s="1">
+      <c r="AH24" s="1">
         <v>7931436.0319999997</v>
       </c>
-      <c r="AF24" s="1">
+      <c r="AI24" s="1">
         <v>7845292.0319999997</v>
       </c>
-      <c r="AG24" s="1">
+      <c r="AJ24" s="1">
         <v>7802017.7920000004</v>
       </c>
-      <c r="AH24" s="1">
+      <c r="AK24" s="1">
         <v>7871848.96</v>
       </c>
-      <c r="AI24" s="1">
+      <c r="AL24" s="1">
         <v>7621396.9919999996</v>
       </c>
-      <c r="AJ24" s="1">
+      <c r="AM24" s="1">
         <v>7480411.1359999999</v>
       </c>
-      <c r="AK24" s="1">
+      <c r="AN24" s="1">
         <v>7342692.8640000001</v>
       </c>
-      <c r="AL24" s="1">
+      <c r="AO24" s="1">
         <v>7209122.8159999996</v>
       </c>
-      <c r="AM24" s="1">
+      <c r="AP24" s="1">
         <v>6963739.1359999999</v>
       </c>
-      <c r="AN24" s="1">
+      <c r="AQ24" s="1">
         <v>6856266.7520000003</v>
-      </c>
-      <c r="AO24" s="1">
-        <v>6724893.1840000004</v>
-      </c>
-      <c r="AP24" s="1">
-        <v>6663945.216</v>
-      </c>
-      <c r="AQ24" s="1">
-        <v>6614821.8880000003</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.2">
@@ -3867,130 +3869,130 @@
         <v>20</v>
       </c>
       <c r="B25" s="1">
+        <v>8752099.3279999997</v>
+      </c>
+      <c r="C25" s="1">
+        <v>7005146.1119999997</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6913972.2240000004</v>
+      </c>
+      <c r="E25" s="1">
         <v>6929456.1279999996</v>
       </c>
-      <c r="C25" s="1">
+      <c r="F25" s="1">
         <v>6503906.8159999996</v>
       </c>
-      <c r="D25" s="1">
+      <c r="G25" s="1">
         <v>6429981.1840000004</v>
       </c>
-      <c r="E25" s="1">
+      <c r="H25" s="1">
         <v>6351724.0319999997</v>
       </c>
-      <c r="F25" s="1">
+      <c r="I25" s="1">
         <v>6332611.0719999997</v>
       </c>
-      <c r="G25" s="1">
+      <c r="J25" s="1">
         <v>6254599.1679999996</v>
       </c>
-      <c r="H25" s="1">
+      <c r="K25" s="1">
         <v>6189906.9440000001</v>
       </c>
-      <c r="I25" s="1">
+      <c r="L25" s="1">
         <v>6082555.9040000001</v>
       </c>
-      <c r="J25" s="1">
+      <c r="M25" s="1">
         <v>6029096.96</v>
       </c>
-      <c r="K25" s="1">
+      <c r="N25" s="1">
         <v>6583954.9440000001</v>
       </c>
-      <c r="L25" s="1">
+      <c r="O25" s="1">
         <v>6474120.1919999998</v>
       </c>
-      <c r="M25" s="1">
+      <c r="P25" s="1">
         <v>6464384</v>
       </c>
-      <c r="N25" s="1">
+      <c r="Q25" s="1">
         <v>6452824.0640000002</v>
       </c>
-      <c r="O25" s="1">
+      <c r="R25" s="1">
         <v>6562126.8480000002</v>
       </c>
-      <c r="P25" s="1">
+      <c r="S25" s="1">
         <v>6523186.176</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="T25" s="1">
         <v>6488506.8799999999</v>
       </c>
-      <c r="R25" s="1">
+      <c r="U25" s="1">
         <v>6459811.8399999999</v>
       </c>
-      <c r="S25" s="1">
+      <c r="V25" s="1">
         <v>6419205.1200000001</v>
       </c>
-      <c r="T25" s="1">
+      <c r="W25" s="1">
         <v>6286683.1359999999</v>
       </c>
-      <c r="U25" s="1">
+      <c r="X25" s="1">
         <v>6210492.9280000003</v>
       </c>
-      <c r="V25" s="1">
+      <c r="Y25" s="1">
         <v>6145076.2240000004</v>
       </c>
-      <c r="W25" s="1">
+      <c r="Z25" s="1">
         <v>1483927.04</v>
       </c>
-      <c r="X25" s="1">
+      <c r="AA25" s="1">
         <v>1946119.936</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="AB25" s="1">
         <v>2026770.9439999999</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="AC25" s="1">
         <v>2174156.0320000001</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AD25" s="1">
         <v>2186713.088</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AE25" s="1">
         <v>2116183.04</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AF25" s="1">
         <v>2129518.9759999998</v>
       </c>
-      <c r="AD25" s="1">
+      <c r="AG25" s="1">
         <v>2035361.024</v>
       </c>
-      <c r="AE25" s="1">
+      <c r="AH25" s="1">
         <v>2124668.0320000001</v>
       </c>
-      <c r="AF25" s="1">
+      <c r="AI25" s="1">
         <v>1866232.96</v>
       </c>
-      <c r="AG25" s="1">
+      <c r="AJ25" s="1">
         <v>1826702.976</v>
       </c>
-      <c r="AH25" s="1">
+      <c r="AK25" s="1">
         <v>1794509.952</v>
       </c>
-      <c r="AI25" s="1">
+      <c r="AL25" s="1">
         <v>1809624.96</v>
       </c>
-      <c r="AJ25" s="1">
+      <c r="AM25" s="1">
         <v>1763282.048</v>
       </c>
-      <c r="AK25" s="1">
+      <c r="AN25" s="1">
         <v>1704274.048</v>
       </c>
-      <c r="AL25" s="1">
+      <c r="AO25" s="1">
         <v>1721857.024</v>
       </c>
-      <c r="AM25" s="1">
+      <c r="AP25" s="1">
         <v>1792034.048</v>
       </c>
-      <c r="AN25" s="1">
+      <c r="AQ25" s="1">
         <v>1740205.0560000001</v>
-      </c>
-      <c r="AO25" s="1">
-        <v>1732259.9680000001</v>
-      </c>
-      <c r="AP25" s="1">
-        <v>1748953.9839999999</v>
-      </c>
-      <c r="AQ25" s="1">
-        <v>1783990.0160000001</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.2">
@@ -4129,130 +4131,130 @@
         <v>22</v>
       </c>
       <c r="B27" s="4">
+        <v>49833902.079999998</v>
+      </c>
+      <c r="C27" s="4">
+        <v>47376633.855999999</v>
+      </c>
+      <c r="D27" s="4">
+        <v>47204143.104000002</v>
+      </c>
+      <c r="E27" s="4">
         <v>46784663.552000001</v>
       </c>
-      <c r="C27" s="4">
+      <c r="F27" s="4">
         <v>45029675.008000001</v>
       </c>
-      <c r="D27" s="4">
+      <c r="G27" s="4">
         <v>44341956.608000003</v>
       </c>
-      <c r="E27" s="4">
+      <c r="H27" s="4">
         <v>38300102.656000003</v>
       </c>
-      <c r="F27" s="4">
+      <c r="I27" s="4">
         <v>38312550.399999999</v>
       </c>
-      <c r="G27" s="4">
+      <c r="J27" s="4">
         <v>36725190.656000003</v>
       </c>
-      <c r="H27" s="4">
+      <c r="K27" s="4">
         <v>36218703.872000001</v>
       </c>
-      <c r="I27" s="4">
+      <c r="L27" s="4">
         <v>36263288.832000002</v>
       </c>
-      <c r="J27" s="4">
+      <c r="M27" s="4">
         <v>35930099.711999997</v>
       </c>
-      <c r="K27" s="4">
+      <c r="N27" s="4">
         <v>34951376.895999998</v>
       </c>
-      <c r="L27" s="4">
+      <c r="O27" s="4">
         <v>34480001.023999996</v>
       </c>
-      <c r="M27" s="4">
+      <c r="P27" s="4">
         <v>33718427.648000002</v>
       </c>
-      <c r="N27" s="4">
+      <c r="Q27" s="4">
         <v>33162375.168000001</v>
       </c>
-      <c r="O27" s="4">
+      <c r="R27" s="4">
         <v>33556828.159999996</v>
       </c>
-      <c r="P27" s="4">
+      <c r="S27" s="4">
         <v>31899248.640000001</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="T27" s="4">
         <v>30935027.712000001</v>
       </c>
-      <c r="R27" s="4">
+      <c r="U27" s="4">
         <v>30434207.743999999</v>
       </c>
-      <c r="S27" s="4">
+      <c r="V27" s="4">
         <v>30497583.103999998</v>
       </c>
-      <c r="T27" s="4">
+      <c r="W27" s="4">
         <v>29770219.52</v>
       </c>
-      <c r="U27" s="4">
+      <c r="X27" s="4">
         <v>29183942.655999999</v>
       </c>
-      <c r="V27" s="4">
+      <c r="Y27" s="4">
         <v>28947656.704</v>
       </c>
-      <c r="W27" s="4">
+      <c r="Z27" s="4">
         <v>28414324.736000001</v>
       </c>
-      <c r="X27" s="4">
+      <c r="AA27" s="4">
         <v>27946199.039999999</v>
       </c>
-      <c r="Y27" s="4">
+      <c r="AB27" s="4">
         <v>27398451.199999999</v>
       </c>
-      <c r="Z27" s="4">
+      <c r="AC27" s="4">
         <v>25618141.184</v>
       </c>
-      <c r="AA27" s="4">
+      <c r="AD27" s="4">
         <v>25494683.647999998</v>
       </c>
-      <c r="AB27" s="4">
+      <c r="AE27" s="4">
         <v>25065977.855999999</v>
       </c>
-      <c r="AC27" s="4">
+      <c r="AF27" s="4">
         <v>24434204.671999998</v>
       </c>
-      <c r="AD27" s="4">
+      <c r="AG27" s="4">
         <v>23111444.48</v>
       </c>
-      <c r="AE27" s="4">
+      <c r="AH27" s="4">
         <v>22166116.352000002</v>
       </c>
-      <c r="AF27" s="4">
+      <c r="AI27" s="4">
         <v>21842991.103999998</v>
       </c>
-      <c r="AG27" s="4">
+      <c r="AJ27" s="4">
         <v>21438746.624000002</v>
       </c>
-      <c r="AH27" s="4">
+      <c r="AK27" s="4">
         <v>21211553.791999999</v>
       </c>
-      <c r="AI27" s="4">
+      <c r="AL27" s="4">
         <v>19908823.039999999</v>
       </c>
-      <c r="AJ27" s="4">
+      <c r="AM27" s="4">
         <v>19538923.52</v>
       </c>
-      <c r="AK27" s="4">
+      <c r="AN27" s="4">
         <v>19350024.192000002</v>
       </c>
-      <c r="AL27" s="4">
+      <c r="AO27" s="4">
         <v>19121664</v>
       </c>
-      <c r="AM27" s="4">
+      <c r="AP27" s="4">
         <v>18900643.84</v>
       </c>
-      <c r="AN27" s="4">
+      <c r="AQ27" s="4">
         <v>18601979.903999999</v>
-      </c>
-      <c r="AO27" s="4">
-        <v>18206240.767999999</v>
-      </c>
-      <c r="AP27" s="4">
-        <v>17859432.447999999</v>
-      </c>
-      <c r="AQ27" s="4">
-        <v>17252446.208000001</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.2">
@@ -4260,130 +4262,130 @@
         <v>23</v>
       </c>
       <c r="B28" s="1">
+        <v>9823631.3599999994</v>
+      </c>
+      <c r="C28" s="1">
+        <v>9848595.4560000002</v>
+      </c>
+      <c r="D28" s="1">
+        <v>10203834.368000001</v>
+      </c>
+      <c r="E28" s="1">
         <v>9654391.8080000002</v>
       </c>
-      <c r="C28" s="1">
+      <c r="F28" s="1">
         <v>7224949.2479999997</v>
       </c>
-      <c r="D28" s="1">
+      <c r="G28" s="1">
         <v>6057534.9759999998</v>
       </c>
-      <c r="E28" s="1">
+      <c r="H28" s="1">
         <v>5167613.9519999996</v>
       </c>
-      <c r="F28" s="1">
+      <c r="I28" s="1">
         <v>5345620.9919999996</v>
       </c>
-      <c r="G28" s="1">
+      <c r="J28" s="1">
         <v>4868678.1440000003</v>
       </c>
-      <c r="H28" s="1">
+      <c r="K28" s="1">
         <v>5720457.216</v>
       </c>
-      <c r="I28" s="1">
+      <c r="L28" s="1">
         <v>6886528</v>
       </c>
-      <c r="J28" s="1">
+      <c r="M28" s="1">
         <v>6695114.2400000002</v>
       </c>
-      <c r="K28" s="1">
+      <c r="N28" s="1">
         <v>7288335.8720000004</v>
       </c>
-      <c r="L28" s="1">
+      <c r="O28" s="1">
         <v>7724505.0880000005</v>
       </c>
-      <c r="M28" s="1">
+      <c r="P28" s="1">
         <v>5911285.7599999998</v>
       </c>
-      <c r="N28" s="1">
+      <c r="Q28" s="1">
         <v>6109914.1119999997</v>
       </c>
-      <c r="O28" s="1">
+      <c r="R28" s="1">
         <v>7666235.9040000001</v>
       </c>
-      <c r="P28" s="1">
+      <c r="S28" s="1">
         <v>6535088.1279999996</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="T28" s="1">
         <v>5807153.1519999998</v>
       </c>
-      <c r="R28" s="1">
+      <c r="U28" s="1">
         <v>5656035.8399999999</v>
       </c>
-      <c r="S28" s="1">
+      <c r="V28" s="1">
         <v>4632125.9519999996</v>
       </c>
-      <c r="T28" s="1">
+      <c r="W28" s="1">
         <v>4455956.9919999996</v>
       </c>
-      <c r="U28" s="1">
+      <c r="X28" s="1">
         <v>4848541.1840000004</v>
       </c>
-      <c r="V28" s="1">
+      <c r="Y28" s="1">
         <v>4789117.9519999996</v>
       </c>
-      <c r="W28" s="1">
+      <c r="Z28" s="1">
         <v>4046369.0240000002</v>
       </c>
-      <c r="X28" s="1">
+      <c r="AA28" s="1">
         <v>4184006.912</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="AB28" s="1">
         <v>5129417.216</v>
       </c>
-      <c r="Z28" s="1">
+      <c r="AC28" s="1">
         <v>4055393.0240000002</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AD28" s="1">
         <v>3837284.0959999999</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AE28" s="1">
         <v>3373761.0240000002</v>
       </c>
-      <c r="AC28" s="1">
+      <c r="AF28" s="1">
         <v>3803814.912</v>
       </c>
-      <c r="AD28" s="1">
+      <c r="AG28" s="1">
         <v>3347885.0559999999</v>
       </c>
-      <c r="AE28" s="1">
+      <c r="AH28" s="1">
         <v>3194842.1120000002</v>
       </c>
-      <c r="AF28" s="1">
+      <c r="AI28" s="1">
         <v>3120206.08</v>
       </c>
-      <c r="AG28" s="1">
+      <c r="AJ28" s="1">
         <v>2957104.8960000002</v>
       </c>
-      <c r="AH28" s="1">
+      <c r="AK28" s="1">
         <v>2847817.9840000002</v>
       </c>
-      <c r="AI28" s="1">
+      <c r="AL28" s="1">
         <v>2281889.0240000002</v>
       </c>
-      <c r="AJ28" s="1">
+      <c r="AM28" s="1">
         <v>1905624.96</v>
       </c>
-      <c r="AK28" s="1">
+      <c r="AN28" s="1">
         <v>1857566.976</v>
       </c>
-      <c r="AL28" s="1">
+      <c r="AO28" s="1">
         <v>2058820.9920000001</v>
       </c>
-      <c r="AM28" s="1">
+      <c r="AP28" s="1">
         <v>2015197.0560000001</v>
       </c>
-      <c r="AN28" s="1">
+      <c r="AQ28" s="1">
         <v>2481891.0720000002</v>
-      </c>
-      <c r="AO28" s="1">
-        <v>2497463.04</v>
-      </c>
-      <c r="AP28" s="1">
-        <v>2536801.0240000002</v>
-      </c>
-      <c r="AQ28" s="1">
-        <v>2145780.9920000001</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.2">
@@ -4391,130 +4393,130 @@
         <v>24</v>
       </c>
       <c r="B29" s="1">
+        <v>468552</v>
+      </c>
+      <c r="C29" s="1">
+        <v>772528</v>
+      </c>
+      <c r="D29" s="1">
+        <v>743377.98400000005</v>
+      </c>
+      <c r="E29" s="1">
         <v>684046.01599999995</v>
       </c>
-      <c r="C29" s="1">
+      <c r="F29" s="1">
         <v>434696</v>
       </c>
-      <c r="D29" s="1">
+      <c r="G29" s="1">
         <v>382024.99200000003</v>
       </c>
-      <c r="E29" s="1">
+      <c r="H29" s="1">
         <v>353230.016</v>
       </c>
-      <c r="F29" s="1">
+      <c r="I29" s="1">
         <v>337044</v>
       </c>
-      <c r="G29" s="1">
+      <c r="J29" s="1">
         <v>301175.00799999997</v>
       </c>
-      <c r="H29" s="1">
+      <c r="K29" s="1">
         <v>343576.99200000003</v>
       </c>
-      <c r="I29" s="1">
+      <c r="L29" s="1">
         <v>288907.00799999997</v>
       </c>
-      <c r="J29" s="1">
+      <c r="M29" s="1">
         <v>284179.00799999997</v>
       </c>
-      <c r="K29" s="1">
+      <c r="N29" s="1">
         <v>393516.99200000003</v>
       </c>
-      <c r="L29" s="1">
+      <c r="O29" s="1">
         <v>429235.00799999997</v>
       </c>
-      <c r="M29" s="1">
+      <c r="P29" s="1">
         <v>387992.99200000003</v>
       </c>
-      <c r="N29" s="1">
+      <c r="Q29" s="1">
         <v>313967.00799999997</v>
       </c>
-      <c r="O29" s="1">
+      <c r="R29" s="1">
         <v>320064.99200000003</v>
       </c>
-      <c r="P29" s="1">
+      <c r="S29" s="1">
         <v>292911.00799999997</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="T29" s="1">
         <v>298164.99200000003</v>
       </c>
-      <c r="R29" s="1">
+      <c r="U29" s="1">
         <v>287796.99200000003</v>
       </c>
-      <c r="S29" s="1">
+      <c r="V29" s="1">
         <v>261331.008</v>
       </c>
-      <c r="T29" s="1">
+      <c r="W29" s="1">
         <v>222667.008</v>
       </c>
-      <c r="U29" s="1">
+      <c r="X29" s="1">
         <v>258919.008</v>
       </c>
-      <c r="V29" s="1">
+      <c r="Y29" s="1">
         <v>258400.992</v>
       </c>
-      <c r="W29" s="1">
+      <c r="Z29" s="1">
         <v>227844</v>
       </c>
-      <c r="X29" s="1">
+      <c r="AA29" s="1">
         <v>195799.008</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="AB29" s="1">
         <v>253680</v>
       </c>
-      <c r="Z29" s="1">
+      <c r="AC29" s="1">
         <v>252618</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AD29" s="1">
         <v>213987.008</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AE29" s="1">
         <v>185584.992</v>
       </c>
-      <c r="AC29" s="1">
+      <c r="AF29" s="1">
         <v>233739.008</v>
       </c>
-      <c r="AD29" s="1">
+      <c r="AG29" s="1">
         <v>239684.992</v>
       </c>
-      <c r="AE29" s="1">
+      <c r="AH29" s="1">
         <v>324174.016</v>
       </c>
-      <c r="AF29" s="1">
+      <c r="AI29" s="1">
         <v>337136</v>
       </c>
-      <c r="AG29" s="1">
+      <c r="AJ29" s="1">
         <v>328724.99200000003</v>
       </c>
-      <c r="AH29" s="1">
+      <c r="AK29" s="1">
         <v>384150.016</v>
       </c>
-      <c r="AI29" s="1">
+      <c r="AL29" s="1">
         <v>268558.016</v>
       </c>
-      <c r="AJ29" s="1">
+      <c r="AM29" s="1">
         <v>212636</v>
       </c>
-      <c r="AK29" s="1">
+      <c r="AN29" s="1">
         <v>225660.992</v>
       </c>
-      <c r="AL29" s="1">
+      <c r="AO29" s="1">
         <v>224095.008</v>
       </c>
-      <c r="AM29" s="1">
+      <c r="AP29" s="1">
         <v>278427.00799999997</v>
       </c>
-      <c r="AN29" s="1">
+      <c r="AQ29" s="1">
         <v>196634</v>
-      </c>
-      <c r="AO29" s="1">
-        <v>188739.008</v>
-      </c>
-      <c r="AP29" s="1">
-        <v>175584</v>
-      </c>
-      <c r="AQ29" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.2">
@@ -4522,130 +4524,130 @@
         <v>25</v>
       </c>
       <c r="B30" s="1">
+        <v>2844672</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2206102.0159999998</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2036920.064</v>
+      </c>
+      <c r="E30" s="1">
         <v>2291307.0079999999</v>
       </c>
-      <c r="C30" s="1">
+      <c r="F30" s="1">
         <v>1451646.976</v>
       </c>
-      <c r="D30" s="1">
+      <c r="G30" s="1">
         <v>1471401.9839999999</v>
       </c>
-      <c r="E30" s="1">
+      <c r="H30" s="1">
         <v>1533067.0079999999</v>
       </c>
-      <c r="F30" s="1">
+      <c r="I30" s="1">
         <v>1685280</v>
       </c>
-      <c r="G30" s="1">
+      <c r="J30" s="1">
         <v>1664924.0319999999</v>
       </c>
-      <c r="H30" s="1">
+      <c r="K30" s="1">
         <v>1452606.976</v>
       </c>
-      <c r="I30" s="1">
+      <c r="L30" s="1">
         <v>1529944.064</v>
       </c>
-      <c r="J30" s="1">
+      <c r="M30" s="1">
         <v>1419243.0079999999</v>
       </c>
-      <c r="K30" s="1">
+      <c r="N30" s="1">
         <v>2143297.0240000002</v>
       </c>
-      <c r="L30" s="1">
+      <c r="O30" s="1">
         <v>1672888.064</v>
       </c>
-      <c r="M30" s="1">
+      <c r="P30" s="1">
         <v>1389283.9680000001</v>
       </c>
-      <c r="N30" s="1">
+      <c r="Q30" s="1">
         <v>1683576.96</v>
       </c>
-      <c r="O30" s="1">
+      <c r="R30" s="1">
         <v>2175030.0159999998</v>
       </c>
-      <c r="P30" s="1">
+      <c r="S30" s="1">
         <v>1527821.0560000001</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="T30" s="1">
         <v>1143602.9439999999</v>
       </c>
-      <c r="R30" s="1">
+      <c r="U30" s="1">
         <v>1255639.04</v>
       </c>
-      <c r="S30" s="1">
+      <c r="V30" s="1">
         <v>1206386.048</v>
       </c>
-      <c r="T30" s="1">
+      <c r="W30" s="1">
         <v>1229617.024</v>
       </c>
-      <c r="U30" s="1">
+      <c r="X30" s="1">
         <v>1536068.9920000001</v>
       </c>
-      <c r="V30" s="1">
+      <c r="Y30" s="1">
         <v>1613126.0160000001</v>
       </c>
-      <c r="W30" s="1">
+      <c r="Z30" s="1">
         <v>1811768.96</v>
       </c>
-      <c r="X30" s="1">
+      <c r="AA30" s="1">
         <v>1787998.976</v>
       </c>
-      <c r="Y30" s="1">
+      <c r="AB30" s="1">
         <v>1913651.9680000001</v>
       </c>
-      <c r="Z30" s="1">
+      <c r="AC30" s="1">
         <v>1587204.9920000001</v>
       </c>
-      <c r="AA30" s="1">
+      <c r="AD30" s="1">
         <v>1335890.048</v>
       </c>
-      <c r="AB30" s="1">
+      <c r="AE30" s="1">
         <v>1235214.976</v>
       </c>
-      <c r="AC30" s="1">
+      <c r="AF30" s="1">
         <v>1916135.936</v>
       </c>
-      <c r="AD30" s="1">
+      <c r="AG30" s="1">
         <v>1092238.976</v>
       </c>
-      <c r="AE30" s="1">
+      <c r="AH30" s="1">
         <v>958614.97600000002</v>
       </c>
-      <c r="AF30" s="1">
+      <c r="AI30" s="1">
         <v>1169122.9439999999</v>
       </c>
-      <c r="AG30" s="1">
+      <c r="AJ30" s="1">
         <v>1219198.976</v>
       </c>
-      <c r="AH30" s="1">
+      <c r="AK30" s="1">
         <v>1136359.04</v>
       </c>
-      <c r="AI30" s="1">
+      <c r="AL30" s="1">
         <v>883926.97600000002</v>
       </c>
-      <c r="AJ30" s="1">
+      <c r="AM30" s="1">
         <v>769417.02399999998</v>
       </c>
-      <c r="AK30" s="1">
+      <c r="AN30" s="1">
         <v>701476.99199999997</v>
       </c>
-      <c r="AL30" s="1">
+      <c r="AO30" s="1">
         <v>747452.99199999997</v>
       </c>
-      <c r="AM30" s="1">
+      <c r="AP30" s="1">
         <v>684614.01599999995</v>
       </c>
-      <c r="AN30" s="1">
+      <c r="AQ30" s="1">
         <v>638825.02399999998</v>
-      </c>
-      <c r="AO30" s="1">
-        <v>641724.03200000001</v>
-      </c>
-      <c r="AP30" s="1">
-        <v>612568</v>
-      </c>
-      <c r="AQ30" s="1">
-        <v>559393.02399999998</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.2">
@@ -4653,130 +4655,130 @@
         <v>26</v>
       </c>
       <c r="B31" s="1">
+        <v>1088779.0079999999</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1169560.064</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1248360.96</v>
+      </c>
+      <c r="E31" s="1">
         <v>1172439.04</v>
       </c>
-      <c r="C31" s="1">
+      <c r="F31" s="1">
         <v>1301545.9839999999</v>
       </c>
-      <c r="D31" s="1">
+      <c r="G31" s="1">
         <v>1351537.024</v>
       </c>
-      <c r="E31" s="1">
+      <c r="H31" s="1">
         <v>447724</v>
       </c>
-      <c r="F31" s="1">
+      <c r="I31" s="1">
         <v>561200</v>
       </c>
-      <c r="G31" s="1">
+      <c r="J31" s="1">
         <v>495924</v>
       </c>
-      <c r="H31" s="1">
+      <c r="K31" s="1">
         <v>534735.00800000003</v>
       </c>
-      <c r="I31" s="1">
+      <c r="L31" s="1">
         <v>482199.00799999997</v>
       </c>
-      <c r="J31" s="1">
+      <c r="M31" s="1">
         <v>649382.01599999995</v>
       </c>
-      <c r="K31" s="1">
+      <c r="N31" s="1">
         <v>676038.01599999995</v>
       </c>
-      <c r="L31" s="1">
+      <c r="O31" s="1">
         <v>577358.01599999995</v>
       </c>
-      <c r="M31" s="1">
+      <c r="P31" s="1">
         <v>420800</v>
       </c>
-      <c r="N31" s="1">
+      <c r="Q31" s="1">
         <v>431796.99200000003</v>
       </c>
-      <c r="O31" s="1">
+      <c r="R31" s="1">
         <v>621036.99199999997</v>
       </c>
-      <c r="P31" s="1">
+      <c r="S31" s="1">
         <v>454998.016</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="T31" s="1">
         <v>364092</v>
       </c>
-      <c r="R31" s="1">
+      <c r="U31" s="1">
         <v>336448</v>
       </c>
-      <c r="S31" s="1">
+      <c r="V31" s="1">
         <v>309078.016</v>
       </c>
-      <c r="T31" s="1">
+      <c r="W31" s="1">
         <v>377750.016</v>
       </c>
-      <c r="U31" s="1">
+      <c r="X31" s="1">
         <v>454396</v>
       </c>
-      <c r="V31" s="1">
+      <c r="Y31" s="1">
         <v>652864</v>
       </c>
-      <c r="W31" s="1">
+      <c r="Z31" s="1">
         <v>570592</v>
       </c>
-      <c r="X31" s="1">
+      <c r="AA31" s="1">
         <v>519671.00799999997</v>
       </c>
-      <c r="Y31" s="1">
+      <c r="AB31" s="1">
         <v>415102.016</v>
       </c>
-      <c r="Z31" s="1">
+      <c r="AC31" s="1">
         <v>447209.984</v>
       </c>
-      <c r="AA31" s="1">
+      <c r="AD31" s="1">
         <v>632243.96799999999</v>
       </c>
-      <c r="AB31" s="1">
+      <c r="AE31" s="1">
         <v>584635.00800000003</v>
       </c>
-      <c r="AC31" s="1">
+      <c r="AF31" s="1">
         <v>437724.99200000003</v>
       </c>
-      <c r="AD31" s="1">
+      <c r="AG31" s="1">
         <v>598350.97600000002</v>
       </c>
-      <c r="AE31" s="1">
+      <c r="AH31" s="1">
         <v>559353.98400000005</v>
       </c>
-      <c r="AF31" s="1">
+      <c r="AI31" s="1">
         <v>482528.99200000003</v>
       </c>
-      <c r="AG31" s="1">
+      <c r="AJ31" s="1">
         <v>385228</v>
       </c>
-      <c r="AH31" s="1">
+      <c r="AK31" s="1">
         <v>461084.99200000003</v>
       </c>
-      <c r="AI31" s="1">
+      <c r="AL31" s="1">
         <v>444835.00799999997</v>
       </c>
-      <c r="AJ31" s="1">
+      <c r="AM31" s="1">
         <v>370371.00799999997</v>
       </c>
-      <c r="AK31" s="1">
+      <c r="AN31" s="1">
         <v>332155.00799999997</v>
       </c>
-      <c r="AL31" s="1">
+      <c r="AO31" s="1">
         <v>440247.00799999997</v>
       </c>
-      <c r="AM31" s="1">
+      <c r="AP31" s="1">
         <v>468942.016</v>
       </c>
-      <c r="AN31" s="1">
+      <c r="AQ31" s="1">
         <v>505811.00799999997</v>
-      </c>
-      <c r="AO31" s="1">
-        <v>478198.016</v>
-      </c>
-      <c r="AP31" s="1">
-        <v>532120</v>
-      </c>
-      <c r="AQ31" s="1">
-        <v>413284</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.2">
@@ -4784,130 +4786,130 @@
         <v>27</v>
       </c>
       <c r="B32" s="1">
+        <v>2644325.8879999998</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2288859.9040000001</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1769527.04</v>
+      </c>
+      <c r="E32" s="1">
         <v>2599088.128</v>
       </c>
-      <c r="C32" s="1">
+      <c r="F32" s="1">
         <v>2050365.952</v>
       </c>
-      <c r="D32" s="1">
+      <c r="G32" s="1">
         <v>1240146.9439999999</v>
       </c>
-      <c r="E32" s="1">
+      <c r="H32" s="1">
         <v>1480612.9920000001</v>
       </c>
-      <c r="F32" s="1">
+      <c r="I32" s="1">
         <v>1419821.952</v>
       </c>
-      <c r="G32" s="1">
+      <c r="J32" s="1">
         <v>1661705.9839999999</v>
       </c>
-      <c r="H32" s="1">
+      <c r="K32" s="1">
         <v>2724104.96</v>
       </c>
-      <c r="I32" s="1">
+      <c r="L32" s="1">
         <v>3556216.0639999998</v>
       </c>
-      <c r="J32" s="1">
+      <c r="M32" s="1">
         <v>3297927.9360000002</v>
       </c>
-      <c r="K32" s="1">
+      <c r="N32" s="1">
         <v>3305894.912</v>
       </c>
-      <c r="L32" s="1">
+      <c r="O32" s="1">
         <v>3963877.12</v>
       </c>
-      <c r="M32" s="1">
+      <c r="P32" s="1">
         <v>2571575.04</v>
       </c>
-      <c r="N32" s="1">
+      <c r="Q32" s="1">
         <v>2416728.0639999998</v>
       </c>
-      <c r="O32" s="1">
+      <c r="R32" s="1">
         <v>3277406.9759999998</v>
       </c>
-      <c r="P32" s="1">
+      <c r="S32" s="1">
         <v>2947898.88</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="T32" s="1">
         <v>2747698.9440000001</v>
       </c>
-      <c r="R32" s="1">
+      <c r="U32" s="1">
         <v>2601939.9679999999</v>
       </c>
-      <c r="S32" s="1">
+      <c r="V32" s="1">
         <v>1978388.9920000001</v>
       </c>
-      <c r="T32" s="1">
+      <c r="W32" s="1">
         <v>1644759.04</v>
       </c>
-      <c r="U32" s="1">
+      <c r="X32" s="1">
         <v>1405090.048</v>
       </c>
-      <c r="V32" s="1">
+      <c r="Y32" s="1">
         <v>1232562.9439999999</v>
       </c>
-      <c r="W32" s="1">
+      <c r="Z32" s="1">
         <v>629521.02399999998</v>
       </c>
-      <c r="X32" s="1">
+      <c r="AA32" s="1">
         <v>941508.99199999997</v>
       </c>
-      <c r="Y32" s="1">
+      <c r="AB32" s="1">
         <v>1836221.952</v>
       </c>
-      <c r="Z32" s="1">
+      <c r="AC32" s="1">
         <v>1299117.0560000001</v>
       </c>
-      <c r="AA32" s="1">
+      <c r="AD32" s="1">
         <v>1255554.9439999999</v>
       </c>
-      <c r="AB32" s="1">
+      <c r="AE32" s="1">
         <v>965857.02399999998</v>
       </c>
-      <c r="AC32" s="1">
+      <c r="AF32" s="1">
         <v>777958.97600000002</v>
       </c>
-      <c r="AD32" s="1">
+      <c r="AG32" s="1">
         <v>1014568</v>
       </c>
-      <c r="AE32" s="1">
+      <c r="AH32" s="1">
         <v>855521.02399999998</v>
       </c>
-      <c r="AF32" s="1">
+      <c r="AI32" s="1">
         <v>535470.01599999995</v>
       </c>
-      <c r="AG32" s="1">
+      <c r="AJ32" s="1">
         <v>538014.97600000002</v>
       </c>
-      <c r="AH32" s="1">
+      <c r="AK32" s="1">
         <v>274008.99200000003</v>
       </c>
-      <c r="AI32" s="1">
+      <c r="AL32" s="1">
         <v>230576</v>
       </c>
-      <c r="AJ32" s="1">
+      <c r="AM32" s="1">
         <v>105944</v>
       </c>
-      <c r="AK32" s="1">
+      <c r="AN32" s="1">
         <v>73374</v>
       </c>
-      <c r="AL32" s="1">
+      <c r="AO32" s="1">
         <v>116487</v>
       </c>
-      <c r="AM32" s="1">
+      <c r="AP32" s="1">
         <v>87021</v>
       </c>
-      <c r="AN32" s="1">
+      <c r="AQ32" s="1">
         <v>704593.98400000005</v>
-      </c>
-      <c r="AO32" s="1">
-        <v>673737.98400000005</v>
-      </c>
-      <c r="AP32" s="1">
-        <v>704252.03200000001</v>
-      </c>
-      <c r="AQ32" s="1">
-        <v>679091.03200000001</v>
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.2">
@@ -4942,16 +4944,16 @@
         <v>0</v>
       </c>
       <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
         <v>86</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1">
-        <v>0</v>
       </c>
       <c r="O33" s="1">
         <v>0</v>
@@ -5046,101 +5048,101 @@
         <v>29</v>
       </c>
       <c r="B34" s="1">
+        <v>1471192.064</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1255533.0560000001</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2480705.0240000002</v>
+      </c>
+      <c r="E34" s="1">
         <v>991886.97600000002</v>
       </c>
-      <c r="C34" s="1">
+      <c r="F34" s="1">
         <v>76860</v>
       </c>
-      <c r="D34" s="1">
+      <c r="G34" s="1">
         <v>373560</v>
       </c>
-      <c r="E34" s="1">
+      <c r="H34" s="1">
         <v>616350.97600000002</v>
       </c>
-      <c r="F34" s="1">
+      <c r="I34" s="1">
         <v>616355.96799999999</v>
       </c>
-      <c r="G34" s="1">
+      <c r="J34" s="1">
         <v>10051</v>
       </c>
-      <c r="H34" s="1">
+      <c r="K34" s="1">
         <v>10056</v>
       </c>
-      <c r="I34" s="1">
+      <c r="L34" s="1">
         <v>369950.016</v>
       </c>
-      <c r="J34" s="1">
+      <c r="M34" s="1">
         <v>375675.00799999997</v>
       </c>
-      <c r="K34" s="1">
+      <c r="N34" s="1">
         <v>18244</v>
       </c>
-      <c r="L34" s="1">
+      <c r="O34" s="1">
         <v>278742.016</v>
       </c>
-      <c r="M34" s="1">
+      <c r="P34" s="1">
         <v>287015.00799999997</v>
       </c>
-      <c r="N34" s="1">
+      <c r="Q34" s="1">
         <v>288980.99200000003</v>
       </c>
-      <c r="O34" s="1">
+      <c r="R34" s="1">
         <v>313304</v>
       </c>
-      <c r="P34" s="1">
+      <c r="S34" s="1">
         <v>303270.016</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="T34" s="1">
         <v>274548.99200000003</v>
       </c>
-      <c r="R34" s="1">
+      <c r="U34" s="1">
         <v>266831.00799999997</v>
       </c>
-      <c r="S34" s="1">
+      <c r="V34" s="1">
         <v>19133</v>
       </c>
-      <c r="T34" s="1">
+      <c r="W34" s="1">
         <v>24834</v>
       </c>
-      <c r="U34" s="1">
+      <c r="X34" s="1">
         <v>333848</v>
       </c>
-      <c r="V34" s="1">
+      <c r="Y34" s="1">
         <v>346007.00799999997</v>
       </c>
-      <c r="W34" s="1">
+      <c r="Z34" s="1">
         <v>18495</v>
       </c>
-      <c r="X34" s="1">
+      <c r="AA34" s="1">
         <v>23928</v>
       </c>
-      <c r="Y34" s="1">
+      <c r="AB34" s="1">
         <v>41178</v>
       </c>
-      <c r="Z34" s="1">
+      <c r="AC34" s="1">
         <v>19691</v>
       </c>
-      <c r="AA34" s="1">
+      <c r="AD34" s="1">
         <v>4580</v>
       </c>
-      <c r="AB34" s="1">
+      <c r="AE34" s="1">
         <v>4579</v>
       </c>
-      <c r="AC34" s="1">
+      <c r="AF34" s="1">
         <v>15522</v>
       </c>
-      <c r="AD34" s="1">
+      <c r="AG34" s="1">
         <v>18713</v>
       </c>
-      <c r="AE34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="1">
-        <v>0</v>
-      </c>
       <c r="AH34" s="1">
         <v>0</v>
       </c>
@@ -5151,25 +5153,25 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="1">
         <v>135744</v>
       </c>
-      <c r="AL34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM34" s="1">
+      <c r="AO34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="1">
         <v>128129</v>
       </c>
-      <c r="AN34" s="1">
+      <c r="AQ34" s="1">
         <v>65235</v>
-      </c>
-      <c r="AO34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ34" s="1">
-        <v>1645</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.2">
@@ -5177,130 +5179,130 @@
         <v>30</v>
       </c>
       <c r="B35" s="1">
+        <v>1306109.9519999998</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1372683.0079999997</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1138051.0719999997</v>
+      </c>
+      <c r="E35" s="1">
         <v>1159220.0960000001</v>
       </c>
-      <c r="C35" s="1">
+      <c r="F35" s="1">
         <v>1163101.9839999999</v>
       </c>
-      <c r="D35" s="1">
+      <c r="G35" s="1">
         <v>1238863.936</v>
       </c>
-      <c r="E35" s="1">
+      <c r="H35" s="1">
         <v>736628.99200000009</v>
       </c>
-      <c r="F35" s="1">
+      <c r="I35" s="1">
         <v>725918.97599999991</v>
       </c>
-      <c r="G35" s="1">
+      <c r="J35" s="1">
         <v>734897.99199999997</v>
       </c>
-      <c r="H35" s="1">
+      <c r="K35" s="1">
         <v>655377.02399999998</v>
       </c>
-      <c r="I35" s="1">
+      <c r="L35" s="1">
         <v>659312</v>
       </c>
-      <c r="J35" s="1">
+      <c r="M35" s="1">
         <v>668707.00799999991</v>
       </c>
-      <c r="K35" s="1">
+      <c r="N35" s="1">
         <v>636093.02399999998</v>
       </c>
-      <c r="L35" s="1">
+      <c r="O35" s="1">
         <v>689144.96</v>
       </c>
-      <c r="M35" s="1">
+      <c r="P35" s="1">
         <v>737660.96</v>
       </c>
-      <c r="N35" s="1">
+      <c r="Q35" s="1">
         <v>862864</v>
       </c>
-      <c r="O35" s="1">
+      <c r="R35" s="1">
         <v>959392.96</v>
       </c>
-      <c r="P35" s="1">
+      <c r="S35" s="1">
         <v>1008188.9279999998</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="T35" s="1">
         <v>979044.99199999985</v>
       </c>
-      <c r="R35" s="1">
+      <c r="U35" s="1">
         <v>907380.9600000002</v>
       </c>
-      <c r="S35" s="1">
+      <c r="V35" s="1">
         <v>857809.01599999995</v>
       </c>
-      <c r="T35" s="1">
+      <c r="W35" s="1">
         <v>956330.03200000001</v>
       </c>
-      <c r="U35" s="1">
+      <c r="X35" s="1">
         <v>860218.9439999999</v>
       </c>
-      <c r="V35" s="1">
+      <c r="Y35" s="1">
         <v>686156.96</v>
       </c>
-      <c r="W35" s="1">
+      <c r="Z35" s="1">
         <v>788148.00800000003</v>
       </c>
-      <c r="X35" s="1">
+      <c r="AA35" s="1">
         <v>715100.99199999997</v>
       </c>
-      <c r="Y35" s="1">
+      <c r="AB35" s="1">
         <v>669583.02399999998</v>
       </c>
-      <c r="Z35" s="1">
+      <c r="AC35" s="1">
         <v>449552.00799999997</v>
       </c>
-      <c r="AA35" s="1">
+      <c r="AD35" s="1">
         <v>395028</v>
       </c>
-      <c r="AB35" s="1">
+      <c r="AE35" s="1">
         <v>397889.99200000003</v>
       </c>
-      <c r="AC35" s="1">
+      <c r="AF35" s="1">
         <v>422734</v>
       </c>
-      <c r="AD35" s="1">
+      <c r="AG35" s="1">
         <v>384328.984</v>
       </c>
-      <c r="AE35" s="1">
+      <c r="AH35" s="1">
         <v>497177.984</v>
       </c>
-      <c r="AF35" s="1">
+      <c r="AI35" s="1">
         <v>595948.03200000001</v>
       </c>
-      <c r="AG35" s="1">
+      <c r="AJ35" s="1">
         <v>485937.984</v>
       </c>
-      <c r="AH35" s="1">
+      <c r="AK35" s="1">
         <v>592214.97600000002</v>
       </c>
-      <c r="AI35" s="1">
+      <c r="AL35" s="1">
         <v>453992.99200000003</v>
       </c>
-      <c r="AJ35" s="1">
+      <c r="AM35" s="1">
         <v>447256.99200000003</v>
       </c>
-      <c r="AK35" s="1">
+      <c r="AN35" s="1">
         <v>389156</v>
       </c>
-      <c r="AL35" s="1">
+      <c r="AO35" s="1">
         <v>530539.00800000003</v>
       </c>
-      <c r="AM35" s="1">
+      <c r="AP35" s="1">
         <v>368063.99200000003</v>
       </c>
-      <c r="AN35" s="1">
+      <c r="AQ35" s="1">
         <v>370792.00799999997</v>
-      </c>
-      <c r="AO35" s="1">
-        <v>515064</v>
-      </c>
-      <c r="AP35" s="1">
-        <v>512276.99200000003</v>
-      </c>
-      <c r="AQ35" s="1">
-        <v>312939.00799999997</v>
       </c>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.2">
@@ -5335,26 +5337,26 @@
         <v>0</v>
       </c>
       <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
         <v>115166</v>
       </c>
-      <c r="L36" s="1">
+      <c r="O36" s="1">
         <v>113260</v>
       </c>
-      <c r="M36" s="1">
+      <c r="P36" s="1">
         <v>116958</v>
       </c>
-      <c r="N36" s="1">
+      <c r="Q36" s="1">
         <v>112000</v>
       </c>
-      <c r="O36" s="1">
-        <v>0</v>
-      </c>
-      <c r="P36" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>0</v>
-      </c>
       <c r="R36" s="1">
         <v>0</v>
       </c>
@@ -5431,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="AQ36" s="1">
-        <v>179428.992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.2">
@@ -5439,19 +5441,19 @@
         <v>32</v>
       </c>
       <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>783329.02399999998</v>
+      </c>
+      <c r="D37" s="1">
+        <v>786892.03200000001</v>
+      </c>
+      <c r="E37" s="1">
         <v>756404.99199999997</v>
       </c>
-      <c r="C37" s="1">
+      <c r="F37" s="1">
         <v>746732.03200000001</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -5570,130 +5572,130 @@
         <v>33</v>
       </c>
       <c r="B38" s="1">
+        <v>18093156.352000002</v>
+      </c>
+      <c r="C38" s="1">
+        <v>17026878.464000002</v>
+      </c>
+      <c r="D38" s="1">
+        <v>17462067.199999999</v>
+      </c>
+      <c r="E38" s="1">
         <v>16879754.239999998</v>
       </c>
-      <c r="C38" s="1">
+      <c r="F38" s="1">
         <v>17475299.328000002</v>
       </c>
-      <c r="D38" s="1">
+      <c r="G38" s="1">
         <v>18634659.84</v>
       </c>
-      <c r="E38" s="1">
+      <c r="H38" s="1">
         <v>15023360</v>
       </c>
-      <c r="F38" s="1">
+      <c r="I38" s="1">
         <v>15368717.312000001</v>
       </c>
-      <c r="G38" s="1">
+      <c r="J38" s="1">
         <v>14062881.791999999</v>
       </c>
-      <c r="H38" s="1">
+      <c r="K38" s="1">
         <v>13316555.776000001</v>
       </c>
-      <c r="I38" s="1">
+      <c r="L38" s="1">
         <v>12537919.488</v>
       </c>
-      <c r="J38" s="1">
+      <c r="M38" s="1">
         <v>12898771.968</v>
       </c>
-      <c r="K38" s="1">
+      <c r="N38" s="1">
         <v>11130035.199999999</v>
       </c>
-      <c r="L38" s="1">
+      <c r="O38" s="1">
         <v>10574645.248</v>
       </c>
-      <c r="M38" s="1">
+      <c r="P38" s="1">
         <v>11973233.664000001</v>
       </c>
-      <c r="N38" s="1">
+      <c r="Q38" s="1">
         <v>11541959.68</v>
       </c>
-      <c r="O38" s="1">
+      <c r="R38" s="1">
         <v>10172705.791999999</v>
       </c>
-      <c r="P38" s="1">
+      <c r="S38" s="1">
         <v>10048569.344000001</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="T38" s="1">
         <v>9737441.2799999993</v>
       </c>
-      <c r="R38" s="1">
+      <c r="U38" s="1">
         <v>9622726.6559999995</v>
       </c>
-      <c r="S38" s="1">
+      <c r="V38" s="1">
         <v>10256259.072000001</v>
       </c>
-      <c r="T38" s="1">
+      <c r="W38" s="1">
         <v>9630274.5600000005</v>
       </c>
-      <c r="U38" s="1">
+      <c r="X38" s="1">
         <v>9625246.7200000007</v>
       </c>
-      <c r="V38" s="1">
+      <c r="Y38" s="1">
         <v>9574061.0559999999</v>
       </c>
-      <c r="W38" s="1">
+      <c r="Z38" s="1">
         <v>10105646.08</v>
       </c>
-      <c r="X38" s="1">
+      <c r="AA38" s="1">
         <v>9606050.8159999996</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="AB38" s="1">
         <v>8137518.0800000001</v>
       </c>
-      <c r="Z38" s="1">
+      <c r="AC38" s="1">
         <v>7879968.7680000002</v>
       </c>
-      <c r="AA38" s="1">
+      <c r="AD38" s="1">
         <v>7904051.2000000002</v>
       </c>
-      <c r="AB38" s="1">
+      <c r="AE38" s="1">
         <v>8172124.1600000001</v>
       </c>
-      <c r="AC38" s="1">
+      <c r="AF38" s="1">
         <v>7127526.9119999995</v>
       </c>
-      <c r="AD38" s="1">
+      <c r="AG38" s="1">
         <v>6834807.8080000002</v>
       </c>
-      <c r="AE38" s="1">
+      <c r="AH38" s="1">
         <v>5854795.7759999996</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AI38" s="1">
         <v>5780765.1840000004</v>
       </c>
-      <c r="AG38" s="1">
+      <c r="AJ38" s="1">
         <v>5724286.9759999998</v>
       </c>
-      <c r="AH38" s="1">
+      <c r="AK38" s="1">
         <v>5866237.9519999996</v>
       </c>
-      <c r="AI38" s="1">
+      <c r="AL38" s="1">
         <v>4826759.1679999996</v>
       </c>
-      <c r="AJ38" s="1">
+      <c r="AM38" s="1">
         <v>5149731.84</v>
       </c>
-      <c r="AK38" s="1">
+      <c r="AN38" s="1">
         <v>5107654.1440000003</v>
       </c>
-      <c r="AL38" s="1">
+      <c r="AO38" s="1">
         <v>4993313.7920000004</v>
       </c>
-      <c r="AM38" s="1">
+      <c r="AP38" s="1">
         <v>4891870.2079999996</v>
       </c>
-      <c r="AN38" s="1">
+      <c r="AQ38" s="1">
         <v>4235721.9840000002</v>
-      </c>
-      <c r="AO38" s="1">
-        <v>4038789.1200000001</v>
-      </c>
-      <c r="AP38" s="1">
-        <v>4026804.9920000001</v>
-      </c>
-      <c r="AQ38" s="1">
-        <v>3754628.0959999999</v>
       </c>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.2">
@@ -5701,130 +5703,130 @@
         <v>27</v>
       </c>
       <c r="B39" s="1">
+        <v>7814706.176</v>
+      </c>
+      <c r="C39" s="1">
+        <v>7316225.0240000002</v>
+      </c>
+      <c r="D39" s="1">
+        <v>7866214.9119999995</v>
+      </c>
+      <c r="E39" s="1">
         <v>7346924.0319999997</v>
       </c>
-      <c r="C39" s="1">
+      <c r="F39" s="1">
         <v>8259709.9519999996</v>
       </c>
-      <c r="D39" s="1">
+      <c r="G39" s="1">
         <v>9523766.2719999999</v>
       </c>
-      <c r="E39" s="1">
+      <c r="H39" s="1">
         <v>9718004.7359999996</v>
       </c>
-      <c r="F39" s="1">
+      <c r="I39" s="1">
         <v>10152270.847999999</v>
       </c>
-      <c r="G39" s="1">
+      <c r="J39" s="1">
         <v>9276462.0800000001</v>
       </c>
-      <c r="H39" s="1">
+      <c r="K39" s="1">
         <v>8479390.2080000006</v>
       </c>
-      <c r="I39" s="1">
+      <c r="L39" s="1">
         <v>7751293.9519999996</v>
       </c>
-      <c r="J39" s="1">
+      <c r="M39" s="1">
         <v>8267509.7599999998</v>
       </c>
-      <c r="K39" s="1">
+      <c r="N39" s="1">
         <v>6642199.04</v>
       </c>
-      <c r="L39" s="1">
+      <c r="O39" s="1">
         <v>6220702.2079999996</v>
       </c>
-      <c r="M39" s="1">
+      <c r="P39" s="1">
         <v>7822244.8640000001</v>
       </c>
-      <c r="N39" s="1">
+      <c r="Q39" s="1">
         <v>7413754.8799999999</v>
       </c>
-      <c r="O39" s="1">
+      <c r="R39" s="1">
         <v>6249288.1919999998</v>
       </c>
-      <c r="P39" s="1">
+      <c r="S39" s="1">
         <v>6523837.9519999996</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="T39" s="1">
         <v>6169977.8559999997</v>
       </c>
-      <c r="R39" s="1">
+      <c r="U39" s="1">
         <v>6235162.1119999997</v>
       </c>
-      <c r="S39" s="1">
+      <c r="V39" s="1">
         <v>6782981.1200000001</v>
       </c>
-      <c r="T39" s="1">
+      <c r="W39" s="1">
         <v>6031073.7920000004</v>
       </c>
-      <c r="U39" s="1">
+      <c r="X39" s="1">
         <v>6414703.1040000003</v>
       </c>
-      <c r="V39" s="1">
+      <c r="Y39" s="1">
         <v>6528424.96</v>
       </c>
-      <c r="W39" s="1">
+      <c r="Z39" s="1">
         <v>6460310.0159999998</v>
       </c>
-      <c r="X39" s="1">
+      <c r="AA39" s="1">
         <v>6047015.9359999998</v>
       </c>
-      <c r="Y39" s="1">
+      <c r="AB39" s="1">
         <v>4715008</v>
       </c>
-      <c r="Z39" s="1">
+      <c r="AC39" s="1">
         <v>4755280.8959999997</v>
       </c>
-      <c r="AA39" s="1">
+      <c r="AD39" s="1">
         <v>4396426.7520000003</v>
       </c>
-      <c r="AB39" s="1">
+      <c r="AE39" s="1">
         <v>4745432.0640000002</v>
       </c>
-      <c r="AC39" s="1">
+      <c r="AF39" s="1">
         <v>3755458.048</v>
       </c>
-      <c r="AD39" s="1">
+      <c r="AG39" s="1">
         <v>3517160.96</v>
       </c>
-      <c r="AE39" s="1">
+      <c r="AH39" s="1">
         <v>2662531.0720000002</v>
       </c>
-      <c r="AF39" s="1">
+      <c r="AI39" s="1">
         <v>2727227.9040000001</v>
       </c>
-      <c r="AG39" s="1">
+      <c r="AJ39" s="1">
         <v>2728128</v>
       </c>
-      <c r="AH39" s="1">
+      <c r="AK39" s="1">
         <v>2987546.1120000002</v>
       </c>
-      <c r="AI39" s="1">
+      <c r="AL39" s="1">
         <v>1994685.0560000001</v>
       </c>
-      <c r="AJ39" s="1">
+      <c r="AM39" s="1">
         <v>2127412.9920000001</v>
       </c>
-      <c r="AK39" s="1">
+      <c r="AN39" s="1">
         <v>2118846.9759999998</v>
       </c>
-      <c r="AL39" s="1">
+      <c r="AO39" s="1">
         <v>2057985.024</v>
       </c>
-      <c r="AM39" s="1">
+      <c r="AP39" s="1">
         <v>2070924.0319999999</v>
       </c>
-      <c r="AN39" s="1">
+      <c r="AQ39" s="1">
         <v>1461767.04</v>
-      </c>
-      <c r="AO39" s="1">
-        <v>1275554.9439999999</v>
-      </c>
-      <c r="AP39" s="1">
-        <v>1280982.0160000001</v>
-      </c>
-      <c r="AQ39" s="1">
-        <v>1165378.048</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.2">
@@ -5963,130 +5965,130 @@
         <v>30</v>
       </c>
       <c r="B41" s="1">
+        <v>7497250.8159999996</v>
+      </c>
+      <c r="C41" s="1">
+        <v>7567223.8080000002</v>
+      </c>
+      <c r="D41" s="1">
+        <v>7541622.784</v>
+      </c>
+      <c r="E41" s="1">
         <v>7492788.2240000004</v>
       </c>
-      <c r="C41" s="1">
+      <c r="F41" s="1">
         <v>7134423.04</v>
       </c>
-      <c r="D41" s="1">
+      <c r="G41" s="1">
         <v>7161326.0800000001</v>
       </c>
-      <c r="E41" s="1">
+      <c r="H41" s="1">
         <v>3374028.0320000001</v>
       </c>
-      <c r="F41" s="1">
+      <c r="I41" s="1">
         <v>3316067.0720000002</v>
       </c>
-      <c r="G41" s="1">
+      <c r="J41" s="1">
         <v>2979315.9679999999</v>
       </c>
-      <c r="H41" s="1">
+      <c r="K41" s="1">
         <v>2983315.9679999999</v>
       </c>
-      <c r="I41" s="1">
+      <c r="L41" s="1">
         <v>2923462.912</v>
       </c>
-      <c r="J41" s="1">
+      <c r="M41" s="1">
         <v>2809069.0559999999</v>
       </c>
-      <c r="K41" s="1">
+      <c r="N41" s="1">
         <v>2755187.9679999999</v>
       </c>
-      <c r="L41" s="1">
+      <c r="O41" s="1">
         <v>2673441.0240000002</v>
       </c>
-      <c r="M41" s="1">
+      <c r="P41" s="1">
         <v>2577776.8960000002</v>
       </c>
-      <c r="N41" s="1">
+      <c r="Q41" s="1">
         <v>2571511.04</v>
       </c>
-      <c r="O41" s="1">
+      <c r="R41" s="1">
         <v>2482050.048</v>
       </c>
-      <c r="P41" s="1">
+      <c r="S41" s="1">
         <v>2004562.9439999999</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="T41" s="1">
         <v>2071197.952</v>
       </c>
-      <c r="R41" s="1">
+      <c r="U41" s="1">
         <v>1967792</v>
       </c>
-      <c r="S41" s="1">
+      <c r="V41" s="1">
         <v>1896451.9680000001</v>
       </c>
-      <c r="T41" s="1">
+      <c r="W41" s="1">
         <v>1874920.96</v>
       </c>
-      <c r="U41" s="1">
+      <c r="X41" s="1">
         <v>1640528</v>
       </c>
-      <c r="V41" s="1">
+      <c r="Y41" s="1">
         <v>1550486.0160000001</v>
       </c>
-      <c r="W41" s="1">
+      <c r="Z41" s="1">
         <v>1926870.0160000001</v>
       </c>
-      <c r="X41" s="1">
+      <c r="AA41" s="1">
         <v>1860008.96</v>
       </c>
-      <c r="Y41" s="1">
+      <c r="AB41" s="1">
         <v>1798445.952</v>
       </c>
-      <c r="Z41" s="1">
+      <c r="AC41" s="1">
         <v>1562838.0160000001</v>
       </c>
-      <c r="AA41" s="1">
+      <c r="AD41" s="1">
         <v>1748580.9920000001</v>
       </c>
-      <c r="AB41" s="1">
+      <c r="AE41" s="1">
         <v>1712482.9439999999</v>
       </c>
-      <c r="AC41" s="1">
+      <c r="AF41" s="1">
         <v>1676247.04</v>
       </c>
-      <c r="AD41" s="1">
+      <c r="AG41" s="1">
         <v>1631019.0079999999</v>
       </c>
-      <c r="AE41" s="1">
+      <c r="AH41" s="1">
         <v>1490377.9839999999</v>
       </c>
-      <c r="AF41" s="1">
+      <c r="AI41" s="1">
         <v>1308365.0560000001</v>
       </c>
-      <c r="AG41" s="1">
+      <c r="AJ41" s="1">
         <v>1295581.952</v>
       </c>
-      <c r="AH41" s="1">
+      <c r="AK41" s="1">
         <v>1107059.9680000001</v>
       </c>
-      <c r="AI41" s="1">
+      <c r="AL41" s="1">
         <v>1081268.9920000001</v>
       </c>
-      <c r="AJ41" s="1">
+      <c r="AM41" s="1">
         <v>1053278.0160000001</v>
       </c>
-      <c r="AK41" s="1">
+      <c r="AN41" s="1">
         <v>1028302.0159999999</v>
       </c>
-      <c r="AL41" s="1">
+      <c r="AO41" s="1">
         <v>1006595.968</v>
       </c>
-      <c r="AM41" s="1">
+      <c r="AP41" s="1">
         <v>1036657.024</v>
       </c>
-      <c r="AN41" s="1">
+      <c r="AQ41" s="1">
         <v>1009484.992</v>
-      </c>
-      <c r="AO41" s="1">
-        <v>1009792</v>
-      </c>
-      <c r="AP41" s="1">
-        <v>992227.00800000003</v>
-      </c>
-      <c r="AQ41" s="1">
-        <v>1985479.936</v>
       </c>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.2">
@@ -6094,130 +6096,130 @@
         <v>15</v>
       </c>
       <c r="B42" s="1">
+        <v>1220030.976</v>
+      </c>
+      <c r="C42" s="1">
+        <v>649185.02399999998</v>
+      </c>
+      <c r="D42" s="1">
+        <v>514598.016</v>
+      </c>
+      <c r="E42" s="1">
         <v>484337.984</v>
       </c>
-      <c r="C42" s="1">
+      <c r="F42" s="1">
         <v>422912.99200000003</v>
       </c>
-      <c r="D42" s="1">
+      <c r="G42" s="1">
         <v>360031.00799999997</v>
       </c>
-      <c r="E42" s="1">
+      <c r="H42" s="1">
         <v>310500.99200000003</v>
       </c>
-      <c r="F42" s="1">
+      <c r="I42" s="1">
         <v>293665.984</v>
       </c>
-      <c r="G42" s="1">
+      <c r="J42" s="1">
         <v>262698</v>
       </c>
-      <c r="H42" s="1">
+      <c r="K42" s="1">
         <v>178484</v>
       </c>
-      <c r="I42" s="1">
+      <c r="L42" s="1">
         <v>171008</v>
       </c>
-      <c r="J42" s="1">
+      <c r="M42" s="1">
         <v>157420</v>
       </c>
-      <c r="K42" s="1">
+      <c r="N42" s="1">
         <v>118199</v>
       </c>
-      <c r="L42" s="1">
+      <c r="O42" s="1">
         <v>144722</v>
       </c>
-      <c r="M42" s="1">
+      <c r="P42" s="1">
         <v>120249</v>
       </c>
-      <c r="N42" s="1">
+      <c r="Q42" s="1">
         <v>156630</v>
       </c>
-      <c r="O42" s="1">
+      <c r="R42" s="1">
         <v>189795.008</v>
       </c>
-      <c r="P42" s="1">
+      <c r="S42" s="1">
         <v>221098</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="T42" s="1">
         <v>233324.992</v>
       </c>
-      <c r="R42" s="1">
+      <c r="U42" s="1">
         <v>178430</v>
       </c>
-      <c r="S42" s="1">
+      <c r="V42" s="1">
         <v>212171.008</v>
       </c>
-      <c r="T42" s="1">
+      <c r="W42" s="1">
         <v>286031.00799999997</v>
       </c>
-      <c r="U42" s="1">
-        <v>0</v>
-      </c>
-      <c r="V42" s="1">
+      <c r="X42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="1">
         <v>214</v>
       </c>
-      <c r="W42" s="1">
-        <v>0</v>
-      </c>
-      <c r="X42" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="1">
+      <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="1">
         <v>4555</v>
       </c>
-      <c r="Z42" s="1">
+      <c r="AC42" s="1">
         <v>15218</v>
       </c>
-      <c r="AA42" s="1">
+      <c r="AD42" s="1">
         <v>312100.99200000003</v>
       </c>
-      <c r="AB42" s="1">
+      <c r="AE42" s="1">
         <v>343793.984</v>
       </c>
-      <c r="AC42" s="1">
+      <c r="AF42" s="1">
         <v>381888.99200000003</v>
       </c>
-      <c r="AD42" s="1">
+      <c r="AG42" s="1">
         <v>420500.99200000003</v>
       </c>
-      <c r="AE42" s="1">
+      <c r="AH42" s="1">
         <v>458636.99200000003</v>
       </c>
-      <c r="AF42" s="1">
+      <c r="AI42" s="1">
         <v>495208</v>
       </c>
-      <c r="AG42" s="1">
+      <c r="AJ42" s="1">
         <v>544070.01599999995</v>
       </c>
-      <c r="AH42" s="1">
+      <c r="AK42" s="1">
         <v>615923.96799999999</v>
       </c>
-      <c r="AI42" s="1">
+      <c r="AL42" s="1">
         <v>656596.99199999997</v>
       </c>
-      <c r="AJ42" s="1">
+      <c r="AM42" s="1">
         <v>875793.98400000005</v>
       </c>
-      <c r="AK42" s="1">
+      <c r="AN42" s="1">
         <v>913641.02399999998</v>
       </c>
-      <c r="AL42" s="1">
+      <c r="AO42" s="1">
         <v>927910.01599999995</v>
       </c>
-      <c r="AM42" s="1">
+      <c r="AP42" s="1">
         <v>907036.03200000001</v>
       </c>
-      <c r="AN42" s="1">
+      <c r="AQ42" s="1">
         <v>901688</v>
-      </c>
-      <c r="AO42" s="1">
-        <v>901820.03200000001</v>
-      </c>
-      <c r="AP42" s="1">
-        <v>887217.98400000005</v>
-      </c>
-      <c r="AQ42" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.2">
@@ -6356,130 +6358,130 @@
         <v>31</v>
       </c>
       <c r="B44" s="1">
+        <v>1561166.976</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1494243.9680000001</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1539633.024</v>
+      </c>
+      <c r="E44" s="1">
         <v>1555704.064</v>
       </c>
-      <c r="C44" s="1">
+      <c r="F44" s="1">
         <v>1658253.952</v>
       </c>
-      <c r="D44" s="1">
+      <c r="G44" s="1">
         <v>1589538.048</v>
       </c>
-      <c r="E44" s="1">
+      <c r="H44" s="1">
         <v>1620825.9839999999</v>
       </c>
-      <c r="F44" s="1">
+      <c r="I44" s="1">
         <v>1606712.96</v>
       </c>
-      <c r="G44" s="1">
+      <c r="J44" s="1">
         <v>1544406.0160000001</v>
       </c>
-      <c r="H44" s="1">
+      <c r="K44" s="1">
         <v>1675366.0160000001</v>
       </c>
-      <c r="I44" s="1">
+      <c r="L44" s="1">
         <v>1692155.0079999999</v>
       </c>
-      <c r="J44" s="1">
+      <c r="M44" s="1">
         <v>1664772.9920000001</v>
       </c>
-      <c r="K44" s="1">
+      <c r="N44" s="1">
         <v>1614449.024</v>
       </c>
-      <c r="L44" s="1">
+      <c r="O44" s="1">
         <v>1535779.9680000001</v>
       </c>
-      <c r="M44" s="1">
+      <c r="P44" s="1">
         <v>1452962.9439999999</v>
       </c>
-      <c r="N44" s="1">
+      <c r="Q44" s="1">
         <v>1400064</v>
       </c>
-      <c r="O44" s="1">
+      <c r="R44" s="1">
         <v>1251572.9920000001</v>
       </c>
-      <c r="P44" s="1">
+      <c r="S44" s="1">
         <v>1299069.952</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="T44" s="1">
         <v>1262940.0319999999</v>
       </c>
-      <c r="R44" s="1">
+      <c r="U44" s="1">
         <v>1241342.976</v>
       </c>
-      <c r="S44" s="1">
+      <c r="V44" s="1">
         <v>1364654.976</v>
       </c>
-      <c r="T44" s="1">
+      <c r="W44" s="1">
         <v>1438248.96</v>
       </c>
-      <c r="U44" s="1">
+      <c r="X44" s="1">
         <v>1570016</v>
       </c>
-      <c r="V44" s="1">
+      <c r="Y44" s="1">
         <v>1494936.064</v>
       </c>
-      <c r="W44" s="1">
+      <c r="Z44" s="1">
         <v>1718466.048</v>
       </c>
-      <c r="X44" s="1">
+      <c r="AA44" s="1">
         <v>1699026.048</v>
       </c>
-      <c r="Y44" s="1">
+      <c r="AB44" s="1">
         <v>1619508.9920000001</v>
       </c>
-      <c r="Z44" s="1">
+      <c r="AC44" s="1">
         <v>1546631.936</v>
       </c>
-      <c r="AA44" s="1">
+      <c r="AD44" s="1">
         <v>1446941.952</v>
       </c>
-      <c r="AB44" s="1">
+      <c r="AE44" s="1">
         <v>1370414.976</v>
       </c>
-      <c r="AC44" s="1">
+      <c r="AF44" s="1">
         <v>1313933.0560000001</v>
       </c>
-      <c r="AD44" s="1">
+      <c r="AG44" s="1">
         <v>1266126.976</v>
       </c>
-      <c r="AE44" s="1">
+      <c r="AH44" s="1">
         <v>1243250.048</v>
       </c>
-      <c r="AF44" s="1">
+      <c r="AI44" s="1">
         <v>1249964.0319999999</v>
       </c>
-      <c r="AG44" s="1">
+      <c r="AJ44" s="1">
         <v>1156507.0079999999</v>
       </c>
-      <c r="AH44" s="1">
+      <c r="AK44" s="1">
         <v>1155708.0319999999</v>
       </c>
-      <c r="AI44" s="1">
+      <c r="AL44" s="1">
         <v>1094208</v>
       </c>
-      <c r="AJ44" s="1">
+      <c r="AM44" s="1">
         <v>1093246.976</v>
       </c>
-      <c r="AK44" s="1">
+      <c r="AN44" s="1">
         <v>1046864</v>
       </c>
-      <c r="AL44" s="1">
+      <c r="AO44" s="1">
         <v>1000822.976</v>
       </c>
-      <c r="AM44" s="1">
+      <c r="AP44" s="1">
         <v>877252.99199999997</v>
       </c>
-      <c r="AN44" s="1">
+      <c r="AQ44" s="1">
         <v>862782.01599999995</v>
-      </c>
-      <c r="AO44" s="1">
-        <v>851622.01599999995</v>
-      </c>
-      <c r="AP44" s="1">
-        <v>866377.98400000005</v>
-      </c>
-      <c r="AQ44" s="1">
-        <v>603769.98400000005</v>
       </c>
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.2">
@@ -6749,130 +6751,130 @@
         <v>36</v>
       </c>
       <c r="B47" s="1">
+        <v>352983.00799999997</v>
+      </c>
+      <c r="C47" s="1">
+        <v>329486.016</v>
+      </c>
+      <c r="D47" s="1">
+        <v>300736</v>
+      </c>
+      <c r="E47" s="1">
         <v>291407.00799999997</v>
       </c>
-      <c r="C47" s="1">
+      <c r="F47" s="1">
         <v>272036.99200000003</v>
       </c>
-      <c r="D47" s="1">
+      <c r="G47" s="1">
         <v>276984.99200000003</v>
       </c>
-      <c r="E47" s="1">
+      <c r="H47" s="1">
         <v>344444</v>
       </c>
-      <c r="F47" s="1">
+      <c r="I47" s="1">
         <v>345798.016</v>
       </c>
-      <c r="G47" s="1">
+      <c r="J47" s="1">
         <v>341727.00799999997</v>
       </c>
-      <c r="H47" s="1">
+      <c r="K47" s="1">
         <v>301447.00799999997</v>
       </c>
-      <c r="I47" s="1">
+      <c r="L47" s="1">
         <v>307924.99200000003</v>
       </c>
-      <c r="J47" s="1">
+      <c r="M47" s="1">
         <v>303288.99200000003</v>
       </c>
-      <c r="K47" s="1">
+      <c r="N47" s="1">
         <v>307065.984</v>
       </c>
-      <c r="L47" s="1">
+      <c r="O47" s="1">
         <v>309699.00799999997</v>
       </c>
-      <c r="M47" s="1">
+      <c r="P47" s="1">
         <v>309963.00799999997</v>
       </c>
-      <c r="N47" s="1">
+      <c r="Q47" s="1">
         <v>302660.99200000003</v>
       </c>
-      <c r="O47" s="1">
+      <c r="R47" s="1">
         <v>258507.008</v>
       </c>
-      <c r="P47" s="1">
+      <c r="S47" s="1">
         <v>266860</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="T47" s="1">
         <v>255919.008</v>
       </c>
-      <c r="R47" s="1">
+      <c r="U47" s="1">
         <v>291280.99200000003</v>
       </c>
-      <c r="S47" s="1">
+      <c r="V47" s="1">
         <v>324600</v>
       </c>
-      <c r="T47" s="1">
+      <c r="W47" s="1">
         <v>312537.984</v>
       </c>
-      <c r="U47" s="1">
+      <c r="X47" s="1">
         <v>331991.00799999997</v>
       </c>
-      <c r="V47" s="1">
+      <c r="Y47" s="1">
         <v>338750.016</v>
       </c>
-      <c r="W47" s="1">
+      <c r="Z47" s="1">
         <v>361280</v>
       </c>
-      <c r="X47" s="1">
+      <c r="AA47" s="1">
         <v>357456</v>
       </c>
-      <c r="Y47" s="1">
+      <c r="AB47" s="1">
         <v>366313.984</v>
       </c>
-      <c r="Z47" s="1">
+      <c r="AC47" s="1">
         <v>352091.00799999997</v>
       </c>
-      <c r="AA47" s="1">
+      <c r="AD47" s="1">
         <v>372768</v>
       </c>
-      <c r="AB47" s="1">
+      <c r="AE47" s="1">
         <v>358959.00799999997</v>
       </c>
-      <c r="AC47" s="1">
+      <c r="AF47" s="1">
         <v>323345.984</v>
       </c>
-      <c r="AD47" s="1">
+      <c r="AG47" s="1">
         <v>277412.99200000003</v>
       </c>
-      <c r="AE47" s="1">
+      <c r="AH47" s="1">
         <v>288102.016</v>
       </c>
-      <c r="AF47" s="1">
+      <c r="AI47" s="1">
         <v>282316</v>
       </c>
-      <c r="AG47" s="1">
+      <c r="AJ47" s="1">
         <v>271289.984</v>
       </c>
-      <c r="AH47" s="1">
+      <c r="AK47" s="1">
         <v>264506</v>
       </c>
-      <c r="AI47" s="1">
+      <c r="AL47" s="1">
         <v>259288</v>
       </c>
-      <c r="AJ47" s="1">
+      <c r="AM47" s="1">
         <v>255860</v>
       </c>
-      <c r="AK47" s="1">
+      <c r="AN47" s="1">
         <v>248454</v>
       </c>
-      <c r="AL47" s="1">
+      <c r="AO47" s="1">
         <v>242834</v>
       </c>
-      <c r="AM47" s="1">
+      <c r="AP47" s="1">
         <v>240814</v>
       </c>
-      <c r="AN47" s="1">
+      <c r="AQ47" s="1">
         <v>247332</v>
-      </c>
-      <c r="AO47" s="1">
-        <v>262027.008</v>
-      </c>
-      <c r="AP47" s="1">
-        <v>265703.00799999997</v>
-      </c>
-      <c r="AQ47" s="1">
-        <v>303020</v>
       </c>
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.2">
@@ -6880,130 +6882,130 @@
         <v>37</v>
       </c>
       <c r="B48" s="4">
+        <v>21564137.503999997</v>
+      </c>
+      <c r="C48" s="4">
+        <v>20171673.920000002</v>
+      </c>
+      <c r="D48" s="4">
+        <v>19237507.583999999</v>
+      </c>
+      <c r="E48" s="4">
         <v>19959110.495999999</v>
       </c>
-      <c r="C48" s="4">
+      <c r="F48" s="4">
         <v>20057389.952</v>
       </c>
-      <c r="D48" s="4">
+      <c r="G48" s="4">
         <v>19372774.240000002</v>
       </c>
-      <c r="E48" s="4">
+      <c r="H48" s="4">
         <v>17764684.704</v>
       </c>
-      <c r="F48" s="4">
+      <c r="I48" s="4">
         <v>17252414.080000002</v>
       </c>
-      <c r="G48" s="4">
+      <c r="J48" s="4">
         <v>17451907.296</v>
       </c>
-      <c r="H48" s="4">
+      <c r="K48" s="4">
         <v>16880244.895999998</v>
       </c>
-      <c r="I48" s="4">
+      <c r="L48" s="4">
         <v>16530915.328</v>
       </c>
-      <c r="J48" s="4">
+      <c r="M48" s="4">
         <v>16032925.024</v>
       </c>
-      <c r="K48" s="4">
+      <c r="N48" s="4">
         <v>16225940.352</v>
       </c>
-      <c r="L48" s="4">
+      <c r="O48" s="4">
         <v>15871150.656000001</v>
       </c>
-      <c r="M48" s="4">
+      <c r="P48" s="4">
         <v>15523944.192</v>
       </c>
-      <c r="N48" s="4">
+      <c r="Q48" s="4">
         <v>15207842.432</v>
       </c>
-      <c r="O48" s="4">
+      <c r="R48" s="4">
         <v>15459377.92</v>
       </c>
-      <c r="P48" s="4">
+      <c r="S48" s="4">
         <v>15048731.168</v>
       </c>
-      <c r="Q48" s="4">
+      <c r="T48" s="4">
         <v>15134514.272</v>
       </c>
-      <c r="R48" s="4">
+      <c r="U48" s="4">
         <v>14864164.767999999</v>
       </c>
-      <c r="S48" s="4">
+      <c r="V48" s="4">
         <v>15284597.568</v>
       </c>
-      <c r="T48" s="4">
+      <c r="W48" s="4">
         <v>15371450.496000001</v>
       </c>
-      <c r="U48" s="4">
+      <c r="X48" s="4">
         <v>14378163.232000001</v>
       </c>
-      <c r="V48" s="4">
+      <c r="Y48" s="4">
         <v>14245727.68</v>
       </c>
-      <c r="W48" s="4">
+      <c r="Z48" s="4">
         <v>13901028.864</v>
       </c>
-      <c r="X48" s="4">
+      <c r="AA48" s="4">
         <v>13798686.592</v>
       </c>
-      <c r="Y48" s="4">
+      <c r="AB48" s="4">
         <v>13765204.48</v>
       </c>
-      <c r="Z48" s="4">
+      <c r="AC48" s="4">
         <v>13330689.152000001</v>
       </c>
-      <c r="AA48" s="4">
+      <c r="AD48" s="4">
         <v>13380580.096000001</v>
       </c>
-      <c r="AB48" s="4">
+      <c r="AE48" s="4">
         <v>13161134.176000001</v>
       </c>
-      <c r="AC48" s="4">
+      <c r="AF48" s="4">
         <v>13179516.352</v>
       </c>
-      <c r="AD48" s="4">
+      <c r="AG48" s="4">
         <v>12651338.624</v>
       </c>
-      <c r="AE48" s="4">
+      <c r="AH48" s="4">
         <v>12828375.423999999</v>
       </c>
-      <c r="AF48" s="4">
+      <c r="AI48" s="4">
         <v>12659705.631999999</v>
       </c>
-      <c r="AG48" s="4">
+      <c r="AJ48" s="4">
         <v>12486064.512</v>
       </c>
-      <c r="AH48" s="4">
+      <c r="AK48" s="4">
         <v>12232992.112</v>
       </c>
-      <c r="AI48" s="4">
+      <c r="AL48" s="4">
         <v>12540889.152000001</v>
       </c>
-      <c r="AJ48" s="4">
+      <c r="AM48" s="4">
         <v>12227707.616</v>
       </c>
-      <c r="AK48" s="4">
+      <c r="AN48" s="4">
         <v>12136348.816</v>
       </c>
-      <c r="AL48" s="4">
+      <c r="AO48" s="4">
         <v>11826693.551999999</v>
       </c>
-      <c r="AM48" s="4">
+      <c r="AP48" s="4">
         <v>11752763.471999999</v>
       </c>
-      <c r="AN48" s="4">
+      <c r="AQ48" s="4">
         <v>11637034.847999999</v>
-      </c>
-      <c r="AO48" s="4">
-        <v>11407962.368000001</v>
-      </c>
-      <c r="AP48" s="4">
-        <v>11030122.912</v>
-      </c>
-      <c r="AQ48" s="4">
-        <v>11049017.344000001</v>
       </c>
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.2">
@@ -7032,13 +7034,13 @@
         <v>10800000</v>
       </c>
       <c r="I49" s="1">
-        <v>7910000.1279999996</v>
+        <v>10800000</v>
       </c>
       <c r="J49" s="1">
-        <v>7910000.1279999996</v>
+        <v>10800000</v>
       </c>
       <c r="K49" s="1">
-        <v>7910000.1279999996</v>
+        <v>10800000</v>
       </c>
       <c r="L49" s="1">
         <v>7910000.1279999996</v>
@@ -7062,13 +7064,13 @@
         <v>7910000.1279999996</v>
       </c>
       <c r="S49" s="1">
-        <v>6910000.1279999996</v>
+        <v>7910000.1279999996</v>
       </c>
       <c r="T49" s="1">
-        <v>6910000.1279999996</v>
+        <v>7910000.1279999996</v>
       </c>
       <c r="U49" s="1">
-        <v>6910000.1279999996</v>
+        <v>7910000.1279999996</v>
       </c>
       <c r="V49" s="1">
         <v>6910000.1279999996</v>
@@ -7404,130 +7406,130 @@
         <v>41</v>
       </c>
       <c r="B52" s="1">
+        <v>7331517.9519999996</v>
+      </c>
+      <c r="C52" s="1">
+        <v>7298313.216</v>
+      </c>
+      <c r="D52" s="1">
+        <v>7298313.216</v>
+      </c>
+      <c r="E52" s="1">
         <v>8805762.0480000004</v>
-      </c>
-      <c r="C52" s="1">
-        <v>5860487.1679999996</v>
-      </c>
-      <c r="D52" s="1">
-        <v>5860487.1679999996</v>
-      </c>
-      <c r="E52" s="1">
-        <v>5860487.1679999996</v>
       </c>
       <c r="F52" s="1">
         <v>5860487.1679999996</v>
       </c>
       <c r="G52" s="1">
+        <v>5860487.1679999996</v>
+      </c>
+      <c r="H52" s="1">
+        <v>5860487.1679999996</v>
+      </c>
+      <c r="I52" s="1">
+        <v>5860487.1679999996</v>
+      </c>
+      <c r="J52" s="1">
         <v>4447314.9440000001</v>
       </c>
-      <c r="H52" s="1">
+      <c r="K52" s="1">
         <v>4447314.9440000001</v>
       </c>
-      <c r="I52" s="1">
+      <c r="L52" s="1">
         <v>7337314.8159999996</v>
       </c>
-      <c r="J52" s="1">
+      <c r="M52" s="1">
         <v>7337314.8159999996</v>
-      </c>
-      <c r="K52" s="1">
-        <v>6402241.0240000002</v>
-      </c>
-      <c r="L52" s="1">
-        <v>6402241.0240000002</v>
-      </c>
-      <c r="M52" s="1">
-        <v>6402241.0240000002</v>
       </c>
       <c r="N52" s="1">
         <v>6402241.0240000002</v>
       </c>
       <c r="O52" s="1">
+        <v>6402241.0240000002</v>
+      </c>
+      <c r="P52" s="1">
+        <v>6402241.0240000002</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>6402241.0240000002</v>
+      </c>
+      <c r="R52" s="1">
         <v>5586365.9519999996</v>
       </c>
-      <c r="P52" s="1">
+      <c r="S52" s="1">
         <v>5586365.9519999996</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="T52" s="1">
         <v>5809632.2560000001</v>
       </c>
-      <c r="R52" s="1">
+      <c r="U52" s="1">
         <v>5955699.2000000002</v>
-      </c>
-      <c r="S52" s="1">
-        <v>6158355.9680000003</v>
-      </c>
-      <c r="T52" s="1">
-        <v>6158355.9680000003</v>
-      </c>
-      <c r="U52" s="1">
-        <v>6158355.9680000003</v>
       </c>
       <c r="V52" s="1">
         <v>6158355.9680000003</v>
       </c>
       <c r="W52" s="1">
+        <v>6158355.9680000003</v>
+      </c>
+      <c r="X52" s="1">
+        <v>6158355.9680000003</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>6158355.9680000003</v>
+      </c>
+      <c r="Z52" s="1">
         <v>5201972.2240000004</v>
       </c>
-      <c r="X52" s="1">
+      <c r="AA52" s="1">
         <v>5201972.2240000004</v>
       </c>
-      <c r="Y52" s="1">
+      <c r="AB52" s="1">
         <v>5443724.7999999998</v>
       </c>
-      <c r="Z52" s="1">
+      <c r="AC52" s="1">
         <v>5443724.7999999998</v>
       </c>
-      <c r="AA52" s="1">
+      <c r="AD52" s="1">
         <v>4522681.8559999997</v>
       </c>
-      <c r="AB52" s="1">
+      <c r="AE52" s="1">
         <v>4522681.8559999997</v>
       </c>
-      <c r="AC52" s="1">
+      <c r="AF52" s="1">
         <v>4758179.8399999999</v>
       </c>
-      <c r="AD52" s="1">
+      <c r="AG52" s="1">
         <v>4758179.8399999999</v>
       </c>
-      <c r="AE52" s="1">
+      <c r="AH52" s="1">
         <v>3908516.0959999999</v>
       </c>
-      <c r="AF52" s="1">
+      <c r="AI52" s="1">
         <v>3908516.0959999999</v>
       </c>
-      <c r="AG52" s="1">
+      <c r="AJ52" s="1">
         <v>3972989.952</v>
       </c>
-      <c r="AH52" s="1">
+      <c r="AK52" s="1">
         <v>3972989.952</v>
       </c>
-      <c r="AI52" s="1">
+      <c r="AL52" s="1">
         <v>3374737.92</v>
       </c>
-      <c r="AJ52" s="1">
+      <c r="AM52" s="1">
         <v>3374737.92</v>
       </c>
-      <c r="AK52" s="1">
+      <c r="AN52" s="1">
         <v>3459612.9279999998</v>
       </c>
-      <c r="AL52" s="1">
+      <c r="AO52" s="1">
         <v>3459612.9279999998</v>
       </c>
-      <c r="AM52" s="1">
+      <c r="AP52" s="1">
         <v>2534828.0320000001</v>
       </c>
-      <c r="AN52" s="1">
+      <c r="AQ52" s="1">
         <v>2534828.0320000001</v>
-      </c>
-      <c r="AO52" s="1">
-        <v>2560606.9759999998</v>
-      </c>
-      <c r="AP52" s="1">
-        <v>2560606.9759999998</v>
-      </c>
-      <c r="AQ52" s="1">
-        <v>1725363.9680000001</v>
       </c>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.2">
@@ -7535,130 +7537,130 @@
         <v>42</v>
       </c>
       <c r="B53" s="1">
-        <v>0</v>
+        <v>3163762.9440000001</v>
       </c>
       <c r="C53" s="1">
+        <v>1760068.9920000001</v>
+      </c>
+      <c r="D53" s="1">
+        <v>798656</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
         <v>2850224.8960000002</v>
       </c>
-      <c r="D53" s="1">
+      <c r="G53" s="1">
         <v>2151184.8960000002</v>
       </c>
-      <c r="E53" s="1">
+      <c r="H53" s="1">
         <v>528310.01599999995</v>
       </c>
-      <c r="F53" s="1">
-        <v>0</v>
-      </c>
-      <c r="G53" s="1">
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
         <v>1468123.0079999999</v>
       </c>
-      <c r="H53" s="1">
+      <c r="K53" s="1">
         <v>880134.97600000002</v>
       </c>
-      <c r="I53" s="1">
+      <c r="L53" s="1">
         <v>514475.00799999997</v>
       </c>
-      <c r="J53" s="1">
-        <v>0</v>
-      </c>
-      <c r="K53" s="1">
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
         <v>1072344</v>
       </c>
-      <c r="L53" s="1">
+      <c r="O53" s="1">
         <v>700910.97600000002</v>
       </c>
-      <c r="M53" s="1">
+      <c r="P53" s="1">
         <v>337195.00799999997</v>
       </c>
-      <c r="N53" s="1">
-        <v>0</v>
-      </c>
-      <c r="O53" s="1">
+      <c r="Q53" s="1">
+        <v>0</v>
+      </c>
+      <c r="R53" s="1">
         <v>1014001.024</v>
       </c>
-      <c r="P53" s="1">
+      <c r="S53" s="1">
         <v>586894.97600000002</v>
       </c>
-      <c r="Q53" s="1">
+      <c r="T53" s="1">
         <v>428851.00799999997</v>
       </c>
-      <c r="R53" s="1">
-        <v>0</v>
-      </c>
-      <c r="S53" s="1">
+      <c r="U53" s="1">
+        <v>0</v>
+      </c>
+      <c r="V53" s="1">
         <v>1153019.0079999999</v>
       </c>
-      <c r="T53" s="1">
+      <c r="W53" s="1">
         <v>1221475.9680000001</v>
       </c>
-      <c r="U53" s="1">
+      <c r="X53" s="1">
         <v>152943.008</v>
       </c>
-      <c r="V53" s="1">
-        <v>0</v>
-      </c>
-      <c r="W53" s="1">
+      <c r="Y53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="1">
         <v>868227.96799999999</v>
       </c>
-      <c r="X53" s="1">
+      <c r="AA53" s="1">
         <v>761057.98400000005</v>
       </c>
-      <c r="Y53" s="1">
+      <c r="AB53" s="1">
         <v>464649.984</v>
       </c>
-      <c r="Z53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="1">
+      <c r="AC53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="1">
         <v>1043425.9840000001</v>
       </c>
-      <c r="AB53" s="1">
+      <c r="AE53" s="1">
         <v>798993.02399999998</v>
       </c>
-      <c r="AC53" s="1">
+      <c r="AF53" s="1">
         <v>562075.00800000003</v>
       </c>
-      <c r="AD53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE53" s="1">
+      <c r="AG53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="1">
         <v>975934.97600000002</v>
       </c>
-      <c r="AF53" s="1">
+      <c r="AI53" s="1">
         <v>681702.01599999995</v>
       </c>
-      <c r="AG53" s="1">
+      <c r="AJ53" s="1">
         <v>415689.984</v>
       </c>
-      <c r="AH53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI53" s="1">
+      <c r="AK53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="1">
         <v>883443.96799999999</v>
       </c>
-      <c r="AJ53" s="1">
+      <c r="AM53" s="1">
         <v>544691.96799999999</v>
       </c>
-      <c r="AK53" s="1">
+      <c r="AN53" s="1">
         <v>340768.99200000003</v>
       </c>
-      <c r="AL53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM53" s="1">
+      <c r="AO53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP53" s="1">
         <v>812670.01599999995</v>
       </c>
-      <c r="AN53" s="1">
+      <c r="AQ53" s="1">
         <v>676916.99199999997</v>
-      </c>
-      <c r="AO53" s="1">
-        <v>400649.984</v>
-      </c>
-      <c r="AP53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ53" s="1">
-        <v>831105.98400000005</v>
       </c>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.2">
@@ -7666,130 +7668,130 @@
         <v>43</v>
       </c>
       <c r="B54" s="1">
+        <v>268856</v>
+      </c>
+      <c r="C54" s="1">
+        <v>313292</v>
+      </c>
+      <c r="D54" s="1">
+        <v>340537.984</v>
+      </c>
+      <c r="E54" s="1">
         <v>353348.99200000003</v>
       </c>
-      <c r="C54" s="1">
+      <c r="F54" s="1">
         <v>546676.99199999997</v>
       </c>
-      <c r="D54" s="1">
+      <c r="G54" s="1">
         <v>561102.01599999995</v>
       </c>
-      <c r="E54" s="1">
+      <c r="H54" s="1">
         <v>575886.97600000002</v>
       </c>
-      <c r="F54" s="1">
+      <c r="I54" s="1">
         <v>591926.97600000002</v>
       </c>
-      <c r="G54" s="1">
+      <c r="J54" s="1">
         <v>736468.99199999997</v>
       </c>
-      <c r="H54" s="1">
+      <c r="K54" s="1">
         <v>752793.98400000005</v>
       </c>
-      <c r="I54" s="1">
+      <c r="L54" s="1">
         <v>769126.01599999995</v>
       </c>
-      <c r="J54" s="1">
+      <c r="M54" s="1">
         <v>785609.98400000005</v>
       </c>
-      <c r="K54" s="1">
+      <c r="N54" s="1">
         <v>841355.00800000003</v>
       </c>
-      <c r="L54" s="1">
+      <c r="O54" s="1">
         <v>857998.97600000002</v>
       </c>
-      <c r="M54" s="1">
+      <c r="P54" s="1">
         <v>874508.03200000001</v>
       </c>
-      <c r="N54" s="1">
+      <c r="Q54" s="1">
         <v>895601.02399999998</v>
       </c>
-      <c r="O54" s="1">
+      <c r="R54" s="1">
         <v>949011.00800000003</v>
       </c>
-      <c r="P54" s="1">
+      <c r="S54" s="1">
         <v>965470.01599999995</v>
       </c>
-      <c r="Q54" s="1">
+      <c r="T54" s="1">
         <v>986030.97600000002</v>
       </c>
-      <c r="R54" s="1">
+      <c r="U54" s="1">
         <v>998465.98400000005</v>
       </c>
-      <c r="S54" s="1">
+      <c r="V54" s="1">
         <v>1063222.976</v>
       </c>
-      <c r="T54" s="1">
+      <c r="W54" s="1">
         <v>1081618.048</v>
       </c>
-      <c r="U54" s="1">
+      <c r="X54" s="1">
         <v>1156864</v>
       </c>
-      <c r="V54" s="1">
+      <c r="Y54" s="1">
         <v>1177372.0319999999</v>
       </c>
-      <c r="W54" s="1">
+      <c r="Z54" s="1">
         <v>920828.99199999997</v>
       </c>
-      <c r="X54" s="1">
+      <c r="AA54" s="1">
         <v>925657.02399999998</v>
       </c>
-      <c r="Y54" s="1">
+      <c r="AB54" s="1">
         <v>946828.99199999997</v>
       </c>
-      <c r="Z54" s="1">
+      <c r="AC54" s="1">
         <v>976963.96799999999</v>
       </c>
-      <c r="AA54" s="1">
+      <c r="AD54" s="1">
         <v>904472</v>
       </c>
-      <c r="AB54" s="1">
+      <c r="AE54" s="1">
         <v>929459.00800000003</v>
       </c>
-      <c r="AC54" s="1">
+      <c r="AF54" s="1">
         <v>949260.99199999997</v>
       </c>
-      <c r="AD54" s="1">
+      <c r="AG54" s="1">
         <v>983158.97600000002</v>
       </c>
-      <c r="AE54" s="1">
+      <c r="AH54" s="1">
         <v>1033923.968</v>
       </c>
-      <c r="AF54" s="1">
+      <c r="AI54" s="1">
         <v>1159488</v>
       </c>
-      <c r="AG54" s="1">
+      <c r="AJ54" s="1">
         <v>1187384.064</v>
       </c>
-      <c r="AH54" s="1">
+      <c r="AK54" s="1">
         <v>1350002.048</v>
       </c>
-      <c r="AI54" s="1">
+      <c r="AL54" s="1">
         <v>1372706.9439999999</v>
       </c>
-      <c r="AJ54" s="1">
+      <c r="AM54" s="1">
         <v>1398278.0160000001</v>
       </c>
-      <c r="AK54" s="1">
+      <c r="AN54" s="1">
         <v>1425966.976</v>
       </c>
-      <c r="AL54" s="1">
+      <c r="AO54" s="1">
         <v>1457080.96</v>
       </c>
-      <c r="AM54" s="1">
+      <c r="AP54" s="1">
         <v>1495265.024</v>
       </c>
-      <c r="AN54" s="1">
+      <c r="AQ54" s="1">
         <v>1515289.9839999999</v>
-      </c>
-      <c r="AO54" s="1">
-        <v>1536705.024</v>
-      </c>
-      <c r="AP54" s="1">
-        <v>1559516.0319999999</v>
-      </c>
-      <c r="AQ54" s="1">
-        <v>1582546.9439999999</v>
       </c>
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.2">
@@ -8196,7 +8198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8347,147 +8349,141 @@
       <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AQ3" s="1">
-        <v>2706685.952</v>
-      </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AQ4" s="1">
-        <v>-960627.96799999999</v>
-      </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B5" s="1">
+        <v>6977782.784</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5427018.7520000003</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4985793.0240000002</v>
+      </c>
+      <c r="E5" s="1">
         <v>5482152.96</v>
       </c>
-      <c r="C5" s="1">
+      <c r="F5" s="1">
         <v>4329830.9119999995</v>
       </c>
-      <c r="D5" s="1">
+      <c r="G5" s="1">
         <v>4667323.9040000001</v>
       </c>
-      <c r="E5" s="1">
+      <c r="H5" s="1">
         <v>4153940.9920000001</v>
       </c>
-      <c r="F5" s="1">
+      <c r="I5" s="1">
         <v>4428832.2560000001</v>
       </c>
-      <c r="G5" s="1">
+      <c r="J5" s="1">
         <v>4253721.0880000005</v>
       </c>
-      <c r="H5" s="1">
+      <c r="K5" s="1">
         <v>3665714.9440000001</v>
       </c>
-      <c r="I5" s="1">
+      <c r="L5" s="1">
         <v>3896005.8879999998</v>
       </c>
-      <c r="J5" s="1">
+      <c r="M5" s="1">
         <v>3671142.912</v>
       </c>
-      <c r="K5" s="1">
+      <c r="N5" s="1">
         <v>4309126.1440000003</v>
       </c>
-      <c r="L5" s="1">
+      <c r="O5" s="1">
         <v>3605829.8879999998</v>
       </c>
-      <c r="M5" s="1">
+      <c r="P5" s="1">
         <v>3348680.96</v>
       </c>
-      <c r="N5" s="1">
+      <c r="Q5" s="1">
         <v>3910663.9360000002</v>
       </c>
-      <c r="O5" s="1">
+      <c r="R5" s="1">
         <v>3643668.9920000001</v>
       </c>
-      <c r="P5" s="1">
+      <c r="S5" s="1">
         <v>3173229.0559999999</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="T5" s="1">
         <v>3297010.9440000001</v>
       </c>
-      <c r="R5" s="1">
+      <c r="U5" s="1">
         <v>3426363.648</v>
       </c>
-      <c r="S5" s="1">
+      <c r="V5" s="1">
         <v>2907195.9040000001</v>
       </c>
-      <c r="T5" s="1">
+      <c r="W5" s="1">
         <v>3694555.9040000001</v>
       </c>
-      <c r="U5" s="1">
+      <c r="X5" s="1">
         <v>3073637.8879999998</v>
       </c>
-      <c r="V5" s="1">
+      <c r="Y5" s="1">
         <v>3337002.4959999998</v>
       </c>
-      <c r="W5" s="1">
+      <c r="Z5" s="1">
         <v>3245188.0959999999</v>
       </c>
-      <c r="X5" s="1">
+      <c r="AA5" s="1">
         <v>3908837.8879999998</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="AB5" s="1">
         <v>4237102.08</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AC5" s="1">
         <v>4462387.2000000002</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AD5" s="1">
         <v>3286884.0959999999</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AE5" s="1">
         <v>3118173.952</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AF5" s="1">
         <v>3051072</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AG5" s="1">
         <v>2444042.2400000002</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AH5" s="1">
         <v>2254629.8879999998</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AI5" s="1">
         <v>2101132.0320000001</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AJ5" s="1">
         <v>2380410.1120000002</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AK5" s="1">
         <v>2423100.9279999998</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AL5" s="1">
         <v>2053008</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AM5" s="1">
         <v>2031469.952</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AN5" s="1">
         <v>2024637.952</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AO5" s="1">
         <v>2093550.848</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AP5" s="1">
         <v>2014076.0319999999</v>
       </c>
-      <c r="AN5" s="1">
+      <c r="AQ5" s="1">
         <v>1842307.9680000001</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>1826230.0160000001</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>1890187.9040000001</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>1746057.9839999999</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.2">
@@ -8495,130 +8491,130 @@
         <v>93</v>
       </c>
       <c r="B6" s="1">
+        <v>-5854961.1519999998</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-3981751.04</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-3723176.96</v>
+      </c>
+      <c r="E6" s="1">
         <v>-4377285.6320000002</v>
       </c>
-      <c r="C6" s="1">
+      <c r="F6" s="1">
         <v>-3124311.04</v>
       </c>
-      <c r="D6" s="1">
+      <c r="G6" s="1">
         <v>-2848834.048</v>
       </c>
-      <c r="E6" s="1">
+      <c r="H6" s="1">
         <v>-2997391.1039999998</v>
       </c>
-      <c r="F6" s="1">
+      <c r="I6" s="1">
         <v>-3349139.2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="J6" s="1">
         <v>-3014279.9360000002</v>
       </c>
-      <c r="H6" s="1">
+      <c r="K6" s="1">
         <v>-2666021.8879999998</v>
       </c>
-      <c r="I6" s="1">
+      <c r="L6" s="1">
         <v>-2730735.1039999998</v>
       </c>
-      <c r="J6" s="1">
+      <c r="M6" s="1">
         <v>-2859879.68</v>
       </c>
-      <c r="K6" s="1">
+      <c r="N6" s="1">
         <v>-3459740.9279999998</v>
       </c>
-      <c r="L6" s="1">
+      <c r="O6" s="1">
         <v>-2721871.1039999998</v>
       </c>
-      <c r="M6" s="1">
+      <c r="P6" s="1">
         <v>-2460196.0959999999</v>
       </c>
-      <c r="N6" s="1">
+      <c r="Q6" s="1">
         <v>-3131452.9279999998</v>
       </c>
-      <c r="O6" s="1">
+      <c r="R6" s="1">
         <v>-2843575.04</v>
       </c>
-      <c r="P6" s="1">
+      <c r="S6" s="1">
         <v>-2446822.912</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="T6" s="1">
         <v>-2244038.912</v>
       </c>
-      <c r="R6" s="1">
+      <c r="U6" s="1">
         <v>-3128659.2</v>
       </c>
-      <c r="S6" s="1">
+      <c r="V6" s="1">
         <v>-2404052.9920000001</v>
       </c>
-      <c r="T6" s="1">
+      <c r="W6" s="1">
         <v>-2231912.96</v>
       </c>
-      <c r="U6" s="1">
+      <c r="X6" s="1">
         <v>-2469489.92</v>
       </c>
-      <c r="V6" s="1">
+      <c r="Y6" s="1">
         <v>-2569076.736</v>
       </c>
-      <c r="W6" s="1">
+      <c r="Z6" s="1">
         <v>-2836155.9040000001</v>
       </c>
-      <c r="X6" s="1">
+      <c r="AA6" s="1">
         <v>-3244006.912</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AB6" s="1">
         <v>-3150076.9279999998</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AC6" s="1">
         <v>-3799417.6</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AD6" s="1">
         <v>-2670940.9279999998</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AE6" s="1">
         <v>-2534746.88</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AF6" s="1">
         <v>-2159972.0959999999</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AG6" s="1">
         <v>-2095185.152</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AH6" s="1">
         <v>-1717600</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AI6" s="1">
         <v>-1518631.936</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AJ6" s="1">
         <v>-1706580.9920000001</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AK6" s="1">
         <v>-2111033.088</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AL6" s="1">
         <v>-1516702.976</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AM6" s="1">
         <v>-1594017.024</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AN6" s="1">
         <v>-1357218.048</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AO6" s="1">
         <v>-1522213.76</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AP6" s="1">
         <v>-1425874.048</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AQ6" s="1">
         <v>-1279449.9839999999</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>-1229476.9920000001</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>-1384723.7120000001</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>-1263543.04</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.2">
@@ -8626,130 +8622,130 @@
         <v>94</v>
       </c>
       <c r="B7" s="1">
+        <v>1122822.0160000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1445267.9680000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1262616.064</v>
+      </c>
+      <c r="E7" s="1">
         <v>1104867.2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="F7" s="1">
         <v>1205520</v>
       </c>
-      <c r="D7" s="1">
+      <c r="G7" s="1">
         <v>1818489.9839999999</v>
       </c>
-      <c r="E7" s="1">
+      <c r="H7" s="1">
         <v>1156550.0160000001</v>
       </c>
-      <c r="F7" s="1">
+      <c r="I7" s="1">
         <v>1079693.0560000001</v>
       </c>
-      <c r="G7" s="1">
+      <c r="J7" s="1">
         <v>1239441.024</v>
       </c>
-      <c r="H7" s="1">
+      <c r="K7" s="1">
         <v>999692.99199999997</v>
       </c>
-      <c r="I7" s="1">
+      <c r="L7" s="1">
         <v>1165271.04</v>
       </c>
-      <c r="J7" s="1">
+      <c r="M7" s="1">
         <v>811263.10400000005</v>
       </c>
-      <c r="K7" s="1">
+      <c r="N7" s="1">
         <v>849385.02399999998</v>
       </c>
-      <c r="L7" s="1">
+      <c r="O7" s="1">
         <v>883958.97600000002</v>
       </c>
-      <c r="M7" s="1">
+      <c r="P7" s="1">
         <v>888484.99199999997</v>
       </c>
-      <c r="N7" s="1">
+      <c r="Q7" s="1">
         <v>779210.81599999999</v>
       </c>
-      <c r="O7" s="1">
+      <c r="R7" s="1">
         <v>800094.01599999995</v>
       </c>
-      <c r="P7" s="1">
+      <c r="S7" s="1">
         <v>726406.01599999995</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="T7" s="1">
         <v>1052972.0319999999</v>
       </c>
-      <c r="R7" s="1">
+      <c r="U7" s="1">
         <v>297704.09600000002</v>
       </c>
-      <c r="S7" s="1">
+      <c r="V7" s="1">
         <v>503143.00799999997</v>
       </c>
-      <c r="T7" s="1">
+      <c r="W7" s="1">
         <v>1462642.9439999999</v>
       </c>
-      <c r="U7" s="1">
+      <c r="X7" s="1">
         <v>604147.96799999999</v>
       </c>
-      <c r="V7" s="1">
+      <c r="Y7" s="1">
         <v>767927.10400000005</v>
       </c>
-      <c r="W7" s="1">
+      <c r="Z7" s="1">
         <v>409032</v>
       </c>
-      <c r="X7" s="1">
+      <c r="AA7" s="1">
         <v>664830.97600000002</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="AB7" s="1">
         <v>1087025.024</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AC7" s="1">
         <v>662969.98400000005</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AD7" s="1">
         <v>615942.97600000002</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AE7" s="1">
         <v>583427.00800000003</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AF7" s="1">
         <v>891100.03200000001</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AG7" s="1">
         <v>348856.96</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AH7" s="1">
         <v>537030.01599999995</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AI7" s="1">
         <v>582499.96799999999</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AJ7" s="1">
         <v>673828.99199999997</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AK7" s="1">
         <v>312067.93599999999</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AL7" s="1">
         <v>536304.99199999997</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AM7" s="1">
         <v>437452.99200000003</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AN7" s="1">
         <v>667420.03200000001</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AO7" s="1">
         <v>571337.08799999999</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AP7" s="1">
         <v>588201.98400000005</v>
       </c>
-      <c r="AN7" s="1">
+      <c r="AQ7" s="1">
         <v>562857.98400000005</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>596753.02399999998</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>505463.96799999999</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>482515.00799999997</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.2">
@@ -8757,130 +8753,130 @@
         <v>95</v>
       </c>
       <c r="B8" s="1">
+        <v>-48779</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-46052</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-49450</v>
+      </c>
+      <c r="E8" s="1">
         <v>-4568.9920000000002</v>
       </c>
-      <c r="C8" s="1">
+      <c r="F8" s="1">
         <v>-27183</v>
       </c>
-      <c r="D8" s="1">
+      <c r="G8" s="1">
         <v>-73160</v>
       </c>
-      <c r="E8" s="1">
+      <c r="H8" s="1">
         <v>-54913</v>
       </c>
-      <c r="F8" s="1">
+      <c r="I8" s="1">
         <v>-56288.008000000002</v>
       </c>
-      <c r="G8" s="1">
+      <c r="J8" s="1">
         <v>-42608</v>
       </c>
-      <c r="H8" s="1">
+      <c r="K8" s="1">
         <v>-61483</v>
       </c>
-      <c r="I8" s="1">
+      <c r="L8" s="1">
         <v>-46680</v>
       </c>
-      <c r="J8" s="1">
+      <c r="M8" s="1">
         <v>-40619.991999999998</v>
       </c>
-      <c r="K8" s="1">
+      <c r="N8" s="1">
         <v>-30580</v>
       </c>
-      <c r="L8" s="1">
+      <c r="O8" s="1">
         <v>-34668</v>
       </c>
-      <c r="M8" s="1">
+      <c r="P8" s="1">
         <v>-42841</v>
       </c>
-      <c r="N8" s="1">
+      <c r="Q8" s="1">
         <v>-44899</v>
       </c>
-      <c r="O8" s="1">
+      <c r="R8" s="1">
         <v>-40439</v>
       </c>
-      <c r="P8" s="1">
+      <c r="S8" s="1">
         <v>-42805</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="T8" s="1">
         <v>-40907</v>
       </c>
-      <c r="R8" s="1">
+      <c r="U8" s="1">
         <v>-75932</v>
       </c>
-      <c r="S8" s="1">
+      <c r="V8" s="1">
         <v>-52929</v>
       </c>
-      <c r="T8" s="1">
+      <c r="W8" s="1">
         <v>-73894</v>
       </c>
-      <c r="U8" s="1">
+      <c r="X8" s="1">
         <v>-47693</v>
       </c>
-      <c r="V8" s="1">
+      <c r="Y8" s="1">
         <v>-55321.991999999998</v>
       </c>
-      <c r="W8" s="1">
+      <c r="Z8" s="1">
         <v>-42070</v>
       </c>
-      <c r="X8" s="1">
+      <c r="AA8" s="1">
         <v>-82893</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="AB8" s="1">
         <v>-103112</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AC8" s="1">
         <v>-13834</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AD8" s="1">
         <v>-40176</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AE8" s="1">
         <v>-39679</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AF8" s="1">
         <v>-27298</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AG8" s="1">
         <v>-28401</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AH8" s="1">
         <v>-22567</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AI8" s="1">
         <v>-20579</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AJ8" s="1">
         <v>-24068</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AK8" s="1">
         <v>-34193</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AL8" s="1">
         <v>-21866</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AM8" s="1">
         <v>15294</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AN8" s="1">
         <v>-24894</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AO8" s="1">
         <v>-54906</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AP8" s="1">
         <v>-26605</v>
       </c>
-      <c r="AN8" s="1">
+      <c r="AQ8" s="1">
         <v>-18966</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>-13287</v>
-      </c>
-      <c r="AP8" s="1">
-        <v>-19789</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>-15236</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.2">
@@ -8888,130 +8884,130 @@
         <v>96</v>
       </c>
       <c r="B9" s="1">
+        <v>-230024</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-195507.008</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-197990</v>
+      </c>
+      <c r="E9" s="1">
         <v>-258872</v>
       </c>
-      <c r="C9" s="1">
+      <c r="F9" s="1">
         <v>-176404</v>
       </c>
-      <c r="D9" s="1">
+      <c r="G9" s="1">
         <v>-200248.992</v>
       </c>
-      <c r="E9" s="1">
+      <c r="H9" s="1">
         <v>-173883.008</v>
       </c>
-      <c r="F9" s="1">
+      <c r="I9" s="1">
         <v>-223464.016</v>
       </c>
-      <c r="G9" s="1">
+      <c r="J9" s="1">
         <v>-165919.008</v>
       </c>
-      <c r="H9" s="1">
+      <c r="K9" s="1">
         <v>-171635.008</v>
       </c>
-      <c r="I9" s="1">
+      <c r="L9" s="1">
         <v>-173282</v>
       </c>
-      <c r="J9" s="1">
+      <c r="M9" s="1">
         <v>-185757.008</v>
       </c>
-      <c r="K9" s="1">
+      <c r="N9" s="1">
         <v>-167458</v>
       </c>
-      <c r="L9" s="1">
+      <c r="O9" s="1">
         <v>-171951.008</v>
       </c>
-      <c r="M9" s="1">
+      <c r="P9" s="1">
         <v>-198368</v>
       </c>
-      <c r="N9" s="1">
+      <c r="Q9" s="1">
         <v>-155134.016</v>
       </c>
-      <c r="O9" s="1">
+      <c r="R9" s="1">
         <v>-214718</v>
       </c>
-      <c r="P9" s="1">
+      <c r="S9" s="1">
         <v>-164104.992</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="T9" s="1">
         <v>-151718</v>
       </c>
-      <c r="R9" s="1">
+      <c r="U9" s="1">
         <v>-247814.016</v>
       </c>
-      <c r="S9" s="1">
+      <c r="V9" s="1">
         <v>-180735.008</v>
       </c>
-      <c r="T9" s="1">
+      <c r="W9" s="1">
         <v>-161176.992</v>
       </c>
-      <c r="U9" s="1">
+      <c r="X9" s="1">
         <v>-151419.008</v>
       </c>
-      <c r="V9" s="1">
+      <c r="Y9" s="1">
         <v>-225088</v>
       </c>
-      <c r="W9" s="1">
+      <c r="Z9" s="1">
         <v>-161831.008</v>
       </c>
-      <c r="X9" s="1">
+      <c r="AA9" s="1">
         <v>-143867.008</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="AB9" s="1">
         <v>-139820</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AC9" s="1">
         <v>-165935.96799999999</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AD9" s="1">
         <v>-123017</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AE9" s="1">
         <v>-150275.008</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AF9" s="1">
         <v>-112888</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AG9" s="1">
         <v>-172360.992</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AH9" s="1">
         <v>-124714</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AI9" s="1">
         <v>-129672</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AJ9" s="1">
         <v>-103357</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AK9" s="1">
         <v>-193806.03200000001</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AL9" s="1">
         <v>-117443</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AM9" s="1">
         <v>-122076</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AN9" s="1">
         <v>-111503</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AO9" s="1">
         <v>-138682</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AP9" s="1">
         <v>-118741</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AQ9" s="1">
         <v>-108244</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>-95785</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>-117189.984</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>-79960</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.2">
@@ -9138,136 +9134,142 @@
       <c r="AO10" s="1">
         <v>0</v>
       </c>
+      <c r="AP10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B11" s="1">
+        <v>1638363.0079999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>19284</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5658</v>
+      </c>
+      <c r="E11" s="1">
         <v>21740</v>
       </c>
-      <c r="C11" s="1">
+      <c r="F11" s="1">
         <v>1019</v>
       </c>
-      <c r="D11" s="1">
+      <c r="G11" s="1">
         <v>1253</v>
       </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
         <v>11215</v>
       </c>
-      <c r="G11" s="1">
+      <c r="J11" s="1">
         <v>4815</v>
       </c>
-      <c r="H11" s="1">
+      <c r="K11" s="1">
         <v>-9811</v>
       </c>
-      <c r="I11" s="1">
+      <c r="L11" s="1">
         <v>43057</v>
       </c>
-      <c r="J11" s="1">
+      <c r="M11" s="1">
         <v>69823.199999999997</v>
       </c>
-      <c r="K11" s="1">
+      <c r="N11" s="1">
         <v>66608</v>
       </c>
-      <c r="L11" s="1">
+      <c r="O11" s="1">
         <v>75363</v>
       </c>
-      <c r="M11" s="1">
+      <c r="P11" s="1">
         <v>34277</v>
       </c>
-      <c r="N11" s="1">
+      <c r="Q11" s="1">
         <v>38516</v>
       </c>
-      <c r="O11" s="1">
+      <c r="R11" s="1">
         <v>516</v>
       </c>
-      <c r="P11" s="1">
+      <c r="S11" s="1">
         <v>17922</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="T11" s="1">
         <v>285</v>
       </c>
-      <c r="R11" s="1">
+      <c r="U11" s="1">
         <v>75770</v>
       </c>
-      <c r="S11" s="1">
+      <c r="V11" s="1">
         <v>1025</v>
       </c>
-      <c r="T11" s="1">
+      <c r="W11" s="1">
         <v>2382</v>
       </c>
-      <c r="U11" s="1">
+      <c r="X11" s="1">
         <v>2064</v>
       </c>
-      <c r="V11" s="1">
+      <c r="Y11" s="1">
         <v>19862</v>
       </c>
-      <c r="W11" s="1">
+      <c r="Z11" s="1">
         <v>3658</v>
       </c>
-      <c r="X11" s="1">
+      <c r="AA11" s="1">
         <v>3642</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="AB11" s="1">
         <v>2270</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AC11" s="1">
         <v>11975</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AD11" s="1">
         <v>580</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AE11" s="1">
         <v>325</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AF11" s="1">
         <v>174</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AG11" s="1">
         <v>4747</v>
       </c>
-      <c r="AE11" s="1">
+      <c r="AH11" s="1">
         <v>8226</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AI11" s="1">
         <v>3362</v>
       </c>
-      <c r="AG11" s="1">
+      <c r="AJ11" s="1">
         <v>2138</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AK11" s="1">
         <v>715</v>
       </c>
-      <c r="AI11" s="1">
+      <c r="AL11" s="1">
         <v>1556</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AM11" s="1">
         <v>295</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AN11" s="1">
         <v>189</v>
       </c>
-      <c r="AL11" s="1">
+      <c r="AO11" s="1">
         <v>359</v>
       </c>
-      <c r="AM11" s="1">
+      <c r="AP11" s="1">
         <v>-715</v>
       </c>
-      <c r="AN11" s="1">
+      <c r="AQ11" s="1">
         <v>3051</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>175</v>
-      </c>
-      <c r="AP11" s="1">
-        <v>6929</v>
-      </c>
-      <c r="AQ11" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.2">
@@ -9275,130 +9277,130 @@
         <v>99</v>
       </c>
       <c r="B12" s="1">
+        <v>-102451</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-29516</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-61348</v>
+      </c>
+      <c r="E12" s="1">
         <v>10790.984</v>
       </c>
-      <c r="C12" s="1">
+      <c r="F12" s="1">
         <v>-170896.992</v>
       </c>
-      <c r="D12" s="1">
+      <c r="G12" s="1">
         <v>-37540</v>
       </c>
-      <c r="E12" s="1">
+      <c r="H12" s="1">
         <v>-82841</v>
       </c>
-      <c r="F12" s="1">
+      <c r="I12" s="1">
         <v>-188434</v>
       </c>
-      <c r="G12" s="1">
+      <c r="J12" s="1">
         <v>-122602</v>
       </c>
-      <c r="H12" s="1">
+      <c r="K12" s="1">
         <v>-61676</v>
       </c>
-      <c r="I12" s="1">
+      <c r="L12" s="1">
         <v>-135379.008</v>
       </c>
-      <c r="J12" s="1">
+      <c r="M12" s="1">
         <v>-103621.208</v>
       </c>
-      <c r="K12" s="1">
+      <c r="N12" s="1">
         <v>-180910</v>
       </c>
-      <c r="L12" s="1">
+      <c r="O12" s="1">
         <v>-144759.008</v>
       </c>
-      <c r="M12" s="1">
+      <c r="P12" s="1">
         <v>-119471</v>
       </c>
-      <c r="N12" s="1">
+      <c r="Q12" s="1">
         <v>-325154.016</v>
       </c>
-      <c r="O12" s="1">
+      <c r="R12" s="1">
         <v>-61486</v>
       </c>
-      <c r="P12" s="1">
+      <c r="S12" s="1">
         <v>-63573</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="T12" s="1">
         <v>-71342</v>
       </c>
-      <c r="R12" s="1">
+      <c r="U12" s="1">
         <v>-19488.008000000002</v>
       </c>
-      <c r="S12" s="1">
+      <c r="V12" s="1">
         <v>-91373</v>
       </c>
-      <c r="T12" s="1">
+      <c r="W12" s="1">
         <v>81667</v>
       </c>
-      <c r="U12" s="1">
+      <c r="X12" s="1">
         <v>-105685</v>
       </c>
-      <c r="V12" s="1">
+      <c r="Y12" s="1">
         <v>335792.99200000003</v>
       </c>
-      <c r="W12" s="1">
+      <c r="Z12" s="1">
         <v>-146964</v>
       </c>
-      <c r="X12" s="1">
+      <c r="AA12" s="1">
         <v>-159808</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="AB12" s="1">
         <v>-217072</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="AC12" s="1">
         <v>-183864</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AD12" s="1">
         <v>-147280</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AE12" s="1">
         <v>-110520</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AF12" s="1">
         <v>-101768</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AG12" s="1">
         <v>-109676.016</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AH12" s="1">
         <v>-107983</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AI12" s="1">
         <v>-154640.992</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AJ12" s="1">
         <v>-50083</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AK12" s="1">
         <v>-124803.008</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AL12" s="1">
         <v>-56475</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AM12" s="1">
         <v>-87626</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="AN12" s="1">
         <v>-87131</v>
       </c>
-      <c r="AL12" s="1">
+      <c r="AO12" s="1">
         <v>-221652.016</v>
       </c>
-      <c r="AM12" s="1">
+      <c r="AP12" s="1">
         <v>-77061</v>
       </c>
-      <c r="AN12" s="1">
+      <c r="AQ12" s="1">
         <v>-109918</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>-34679</v>
-      </c>
-      <c r="AP12" s="1">
-        <v>-329944</v>
-      </c>
-      <c r="AQ12" s="1">
-        <v>-67846</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.2">
@@ -9406,130 +9408,130 @@
         <v>100</v>
       </c>
       <c r="B13" s="1">
+        <v>126161</v>
+      </c>
+      <c r="C13" s="1">
+        <v>66071</v>
+      </c>
+      <c r="D13" s="1">
+        <v>86734</v>
+      </c>
+      <c r="E13" s="1">
         <v>110148.008</v>
       </c>
-      <c r="C13" s="1">
+      <c r="F13" s="1">
         <v>56022</v>
       </c>
-      <c r="D13" s="1">
+      <c r="G13" s="1">
         <v>4505</v>
       </c>
-      <c r="E13" s="1">
+      <c r="H13" s="1">
         <v>22872</v>
       </c>
-      <c r="F13" s="1">
+      <c r="I13" s="1">
         <v>66525</v>
       </c>
-      <c r="G13" s="1">
+      <c r="J13" s="1">
         <v>32537</v>
       </c>
-      <c r="H13" s="1">
+      <c r="K13" s="1">
         <v>-8690</v>
       </c>
-      <c r="I13" s="1">
+      <c r="L13" s="1">
         <v>16385</v>
       </c>
-      <c r="J13" s="1">
+      <c r="M13" s="1">
         <v>10848</v>
       </c>
-      <c r="K13" s="1">
+      <c r="N13" s="1">
         <v>61156</v>
       </c>
-      <c r="L13" s="1">
+      <c r="O13" s="1">
         <v>35366</v>
       </c>
-      <c r="M13" s="1">
+      <c r="P13" s="1">
         <v>28518</v>
       </c>
-      <c r="N13" s="1">
+      <c r="Q13" s="1">
         <v>46958</v>
       </c>
-      <c r="O13" s="1">
+      <c r="R13" s="1">
         <v>-28217</v>
       </c>
-      <c r="P13" s="1">
+      <c r="S13" s="1">
         <v>49285</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="T13" s="1">
         <v>33713</v>
       </c>
-      <c r="R13" s="1">
+      <c r="U13" s="1">
         <v>47827.008000000002</v>
       </c>
-      <c r="S13" s="1">
+      <c r="V13" s="1">
         <v>69159</v>
       </c>
-      <c r="T13" s="1">
+      <c r="W13" s="1">
         <v>56815</v>
       </c>
-      <c r="U13" s="1">
+      <c r="X13" s="1">
         <v>47894</v>
       </c>
-      <c r="V13" s="1">
+      <c r="Y13" s="1">
         <v>-58356</v>
       </c>
-      <c r="W13" s="1">
+      <c r="Z13" s="1">
         <v>59092</v>
       </c>
-      <c r="X13" s="1">
+      <c r="AA13" s="1">
         <v>45447</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="AB13" s="1">
         <v>46362</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AC13" s="1">
         <v>39904.008000000002</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AD13" s="1">
         <v>35469</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AE13" s="1">
         <v>29313</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AF13" s="1">
         <v>55269</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AG13" s="1">
         <v>56574</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AH13" s="1">
         <v>25062</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AI13" s="1">
         <v>12362</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AJ13" s="1">
         <v>19608</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AK13" s="1">
         <v>-41489</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AL13" s="1">
         <v>16017</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AM13" s="1">
         <v>19665</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AN13" s="1">
         <v>16847</v>
       </c>
-      <c r="AL13" s="1">
+      <c r="AO13" s="1">
         <v>7555</v>
       </c>
-      <c r="AM13" s="1">
+      <c r="AP13" s="1">
         <v>13217</v>
       </c>
-      <c r="AN13" s="1">
+      <c r="AQ13" s="1">
         <v>20282</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>14600</v>
-      </c>
-      <c r="AP13" s="1">
-        <v>35136</v>
-      </c>
-      <c r="AQ13" s="1">
-        <v>9332</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.2">
@@ -9537,130 +9539,130 @@
         <v>101</v>
       </c>
       <c r="B14" s="1">
+        <v>-110473</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9421</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-19132</v>
+      </c>
+      <c r="E14" s="1">
         <v>9666.9760000000006</v>
       </c>
-      <c r="C14" s="1">
+      <c r="F14" s="1">
         <v>46950</v>
       </c>
-      <c r="D14" s="1">
+      <c r="G14" s="1">
         <v>904240</v>
       </c>
-      <c r="E14" s="1">
+      <c r="H14" s="1">
         <v>-94586</v>
       </c>
-      <c r="F14" s="1">
+      <c r="I14" s="1">
         <v>-128183.008</v>
       </c>
-      <c r="G14" s="1">
+      <c r="J14" s="1">
         <v>-134347.008</v>
       </c>
-      <c r="H14" s="1">
+      <c r="K14" s="1">
         <v>-127743</v>
       </c>
-      <c r="I14" s="1">
+      <c r="L14" s="1">
         <v>-98213</v>
       </c>
-      <c r="J14" s="1">
+      <c r="M14" s="1">
         <v>-137585.984</v>
       </c>
-      <c r="K14" s="1">
+      <c r="N14" s="1">
         <v>-125886</v>
       </c>
-      <c r="L14" s="1">
+      <c r="O14" s="1">
         <v>-104911</v>
       </c>
-      <c r="M14" s="1">
+      <c r="P14" s="1">
         <v>-69667</v>
       </c>
-      <c r="N14" s="1">
+      <c r="Q14" s="1">
         <v>-230460.016</v>
       </c>
-      <c r="O14" s="1">
+      <c r="R14" s="1">
         <v>-99718</v>
       </c>
-      <c r="P14" s="1">
+      <c r="S14" s="1">
         <v>-262240.99200000003</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="T14" s="1">
         <v>-156020.992</v>
       </c>
-      <c r="R14" s="1">
+      <c r="U14" s="1">
         <v>-323159.00799999997</v>
       </c>
-      <c r="S14" s="1">
+      <c r="V14" s="1">
         <v>-212472</v>
       </c>
-      <c r="T14" s="1">
+      <c r="W14" s="1">
         <v>127748</v>
       </c>
-      <c r="U14" s="1">
+      <c r="X14" s="1">
         <v>-157860.992</v>
       </c>
-      <c r="V14" s="1">
+      <c r="Y14" s="1">
         <v>-265211.00799999997</v>
       </c>
-      <c r="W14" s="1">
+      <c r="Z14" s="1">
         <v>-7261</v>
       </c>
-      <c r="X14" s="1">
+      <c r="AA14" s="1">
         <v>120629</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="AB14" s="1">
         <v>40885</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AC14" s="1">
         <v>10825.992</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AD14" s="1">
         <v>-16139</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AE14" s="1">
         <v>42063</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AF14" s="1">
         <v>110967</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AG14" s="1">
         <v>47090.008000000002</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AH14" s="1">
         <v>84265</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AI14" s="1">
         <v>75057</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AJ14" s="1">
         <v>73899</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AK14" s="1">
         <v>-113858</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="AL14" s="1">
         <v>110424</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AM14" s="1">
         <v>-39673</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AN14" s="1">
         <v>15286</v>
       </c>
-      <c r="AL14" s="1">
+      <c r="AO14" s="1">
         <v>58925</v>
       </c>
-      <c r="AM14" s="1">
+      <c r="AP14" s="1">
         <v>18704</v>
       </c>
-      <c r="AN14" s="1">
+      <c r="AQ14" s="1">
         <v>36779</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>110360</v>
-      </c>
-      <c r="AP14" s="1">
-        <v>105852.992</v>
-      </c>
-      <c r="AQ14" s="1">
-        <v>59890</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
@@ -9668,130 +9670,130 @@
         <v>102</v>
       </c>
       <c r="B15" s="1">
+        <v>211859.008</v>
+      </c>
+      <c r="C15" s="1">
+        <v>238382</v>
+      </c>
+      <c r="D15" s="1">
+        <v>268328.99200000003</v>
+      </c>
+      <c r="E15" s="1">
         <v>244091.984</v>
       </c>
-      <c r="C15" s="1">
+      <c r="F15" s="1">
         <v>270476</v>
       </c>
-      <c r="D15" s="1">
+      <c r="G15" s="1">
         <v>1109241.9839999999</v>
       </c>
-      <c r="E15" s="1">
+      <c r="H15" s="1">
         <v>215858</v>
       </c>
-      <c r="F15" s="1">
+      <c r="I15" s="1">
         <v>200159.008</v>
       </c>
-      <c r="G15" s="1">
+      <c r="J15" s="1">
         <v>162131.008</v>
       </c>
-      <c r="H15" s="1">
+      <c r="K15" s="1">
         <v>181307.008</v>
       </c>
-      <c r="I15" s="1">
+      <c r="L15" s="1">
         <v>206644</v>
       </c>
-      <c r="J15" s="1">
+      <c r="M15" s="1">
         <v>168972</v>
       </c>
-      <c r="K15" s="1">
+      <c r="N15" s="1">
         <v>184564.992</v>
       </c>
-      <c r="L15" s="1">
+      <c r="O15" s="1">
         <v>254983.008</v>
       </c>
-      <c r="M15" s="1">
+      <c r="P15" s="1">
         <v>205395.008</v>
       </c>
-      <c r="N15" s="1">
+      <c r="Q15" s="1">
         <v>152706.016</v>
       </c>
-      <c r="O15" s="1">
+      <c r="R15" s="1">
         <v>247788</v>
       </c>
-      <c r="P15" s="1">
+      <c r="S15" s="1">
         <v>135228.992</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="T15" s="1">
         <v>163587.008</v>
       </c>
-      <c r="R15" s="1">
+      <c r="U15" s="1">
         <v>72356.032000000007</v>
       </c>
-      <c r="S15" s="1">
+      <c r="V15" s="1">
         <v>164008</v>
       </c>
-      <c r="T15" s="1">
+      <c r="W15" s="1">
         <v>446220</v>
       </c>
-      <c r="U15" s="1">
+      <c r="X15" s="1">
         <v>213968.992</v>
       </c>
-      <c r="V15" s="1">
+      <c r="Y15" s="1">
         <v>238614.016</v>
       </c>
-      <c r="W15" s="1">
+      <c r="Z15" s="1">
         <v>220215.008</v>
       </c>
-      <c r="X15" s="1">
+      <c r="AA15" s="1">
         <v>308635.00799999997</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="AB15" s="1">
         <v>219876</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="AC15" s="1">
         <v>195471.008</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AD15" s="1">
         <v>115596</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AE15" s="1">
         <v>158444.992</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AF15" s="1">
         <v>225011.008</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AG15" s="1">
         <v>175693.008</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AH15" s="1">
         <v>175715.008</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AI15" s="1">
         <v>154922</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AJ15" s="1">
         <v>146032.992</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AK15" s="1">
         <v>124962.992</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AL15" s="1">
         <v>224872</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AM15" s="1">
         <v>170796.992</v>
       </c>
-      <c r="AK15" s="1">
+      <c r="AN15" s="1">
         <v>128306</v>
       </c>
-      <c r="AL15" s="1">
+      <c r="AO15" s="1">
         <v>117330.03200000001</v>
       </c>
-      <c r="AM15" s="1">
+      <c r="AP15" s="1">
         <v>151723.008</v>
       </c>
-      <c r="AN15" s="1">
+      <c r="AQ15" s="1">
         <v>124450</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>184028.992</v>
-      </c>
-      <c r="AP15" s="1">
-        <v>193311.96799999999</v>
-      </c>
-      <c r="AQ15" s="1">
-        <v>159330</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
@@ -9799,285 +9801,276 @@
         <v>103</v>
       </c>
       <c r="B16" s="1">
+        <v>-322332</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-228960.992</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-287460.99200000003</v>
+      </c>
+      <c r="E16" s="1">
         <v>-234424.992</v>
       </c>
-      <c r="C16" s="1">
+      <c r="F16" s="1">
         <v>-223526</v>
       </c>
-      <c r="D16" s="1">
+      <c r="G16" s="1">
         <v>-205002</v>
       </c>
-      <c r="E16" s="1">
+      <c r="H16" s="1">
         <v>-310444</v>
       </c>
-      <c r="F16" s="1">
+      <c r="I16" s="1">
         <v>-328342.04800000001</v>
       </c>
-      <c r="G16" s="1">
+      <c r="J16" s="1">
         <v>-296478.016</v>
       </c>
-      <c r="H16" s="1">
+      <c r="K16" s="1">
         <v>-309049.984</v>
       </c>
-      <c r="I16" s="1">
+      <c r="L16" s="1">
         <v>-304856.99200000003</v>
       </c>
-      <c r="J16" s="1">
+      <c r="M16" s="1">
         <v>-306558.016</v>
       </c>
-      <c r="K16" s="1">
+      <c r="N16" s="1">
         <v>-310451.00799999997</v>
       </c>
-      <c r="L16" s="1">
+      <c r="O16" s="1">
         <v>-359894.016</v>
       </c>
-      <c r="M16" s="1">
+      <c r="P16" s="1">
         <v>-275062.016</v>
       </c>
-      <c r="N16" s="1">
+      <c r="Q16" s="1">
         <v>-383166.016</v>
       </c>
-      <c r="O16" s="1">
+      <c r="R16" s="1">
         <v>-347505.984</v>
       </c>
-      <c r="P16" s="1">
+      <c r="S16" s="1">
         <v>-397470.016</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="T16" s="1">
         <v>-319608</v>
       </c>
-      <c r="R16" s="1">
+      <c r="U16" s="1">
         <v>-395514.94400000002</v>
       </c>
-      <c r="S16" s="1">
+      <c r="V16" s="1">
         <v>-376480</v>
       </c>
-      <c r="T16" s="1">
+      <c r="W16" s="1">
         <v>-318472</v>
       </c>
-      <c r="U16" s="1">
+      <c r="X16" s="1">
         <v>-371830.016</v>
       </c>
-      <c r="V16" s="1">
+      <c r="Y16" s="1">
         <v>-503824.96</v>
       </c>
-      <c r="W16" s="1">
+      <c r="Z16" s="1">
         <v>-227476</v>
       </c>
-      <c r="X16" s="1">
+      <c r="AA16" s="1">
         <v>-188006</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="AB16" s="1">
         <v>-178991.008</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="AC16" s="1">
         <v>-184645.024</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AD16" s="1">
         <v>-131735</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AE16" s="1">
         <v>-116382</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AF16" s="1">
         <v>-114044</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AG16" s="1">
         <v>-128603</v>
       </c>
-      <c r="AE16" s="1">
+      <c r="AH16" s="1">
         <v>-91450</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AI16" s="1">
         <v>-79865</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AJ16" s="1">
         <v>-72134</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AK16" s="1">
         <v>-238820.976</v>
       </c>
-      <c r="AI16" s="1">
+      <c r="AL16" s="1">
         <v>-114448</v>
       </c>
-      <c r="AJ16" s="1">
+      <c r="AM16" s="1">
         <v>-210470</v>
       </c>
-      <c r="AK16" s="1">
+      <c r="AN16" s="1">
         <v>-113020</v>
       </c>
-      <c r="AL16" s="1">
+      <c r="AO16" s="1">
         <v>-58405</v>
       </c>
-      <c r="AM16" s="1">
+      <c r="AP16" s="1">
         <v>-133019</v>
       </c>
-      <c r="AN16" s="1">
+      <c r="AQ16" s="1">
         <v>-87671</v>
-      </c>
-      <c r="AO16" s="1">
-        <v>-73669</v>
-      </c>
-      <c r="AP16" s="1">
-        <v>-87459.016000000003</v>
-      </c>
-      <c r="AQ16" s="1">
-        <v>-99440</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AQ17" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AQ18" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AQ19" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B20" s="1">
+        <v>2395619.0720000002</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1268968.96</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1027088</v>
+      </c>
+      <c r="E20" s="1">
         <v>993772.09600000002</v>
       </c>
-      <c r="C20" s="1">
+      <c r="F20" s="1">
         <v>935027.00800000003</v>
       </c>
-      <c r="D20" s="1">
+      <c r="G20" s="1">
         <v>2417539.0720000002</v>
       </c>
-      <c r="E20" s="1">
+      <c r="H20" s="1">
         <v>773198.97600000002</v>
       </c>
-      <c r="F20" s="1">
+      <c r="I20" s="1">
         <v>561064</v>
       </c>
-      <c r="G20" s="1">
+      <c r="J20" s="1">
         <v>811316.99199999997</v>
       </c>
-      <c r="H20" s="1">
+      <c r="K20" s="1">
         <v>558654.97600000002</v>
       </c>
-      <c r="I20" s="1">
+      <c r="L20" s="1">
         <v>771158.97600000002</v>
       </c>
-      <c r="J20" s="1">
+      <c r="M20" s="1">
         <v>424350.08</v>
       </c>
-      <c r="K20" s="1">
+      <c r="N20" s="1">
         <v>472315.00799999997</v>
       </c>
-      <c r="L20" s="1">
+      <c r="O20" s="1">
         <v>538398.97600000002</v>
       </c>
-      <c r="M20" s="1">
+      <c r="P20" s="1">
         <v>520932.99200000003</v>
       </c>
-      <c r="N20" s="1">
+      <c r="Q20" s="1">
         <v>109038.048</v>
       </c>
-      <c r="O20" s="1">
+      <c r="R20" s="1">
         <v>356032</v>
       </c>
-      <c r="P20" s="1">
+      <c r="S20" s="1">
         <v>260888.992</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="T20" s="1">
         <v>666982.01599999995</v>
       </c>
-      <c r="R20" s="1">
+      <c r="U20" s="1">
         <v>-245092.04800000001</v>
       </c>
-      <c r="S20" s="1">
+      <c r="V20" s="1">
         <v>35818</v>
       </c>
-      <c r="T20" s="1">
+      <c r="W20" s="1">
         <v>1496184.064</v>
       </c>
-      <c r="U20" s="1">
+      <c r="X20" s="1">
         <v>191448</v>
       </c>
-      <c r="V20" s="1">
+      <c r="Y20" s="1">
         <v>519604.99200000003</v>
       </c>
-      <c r="W20" s="1">
+      <c r="Z20" s="1">
         <v>113656</v>
       </c>
-      <c r="X20" s="1">
+      <c r="AA20" s="1">
         <v>447980.99200000003</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="AB20" s="1">
         <v>716537.98400000005</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="AC20" s="1">
         <v>362040.99200000003</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AD20" s="1">
         <v>325380</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AE20" s="1">
         <v>354654.016</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AF20" s="1">
         <v>815555.96799999999</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AG20" s="1">
         <v>146829.92000000001</v>
       </c>
-      <c r="AE20" s="1">
+      <c r="AH20" s="1">
         <v>399319.00799999997</v>
       </c>
-      <c r="AF20" s="1">
+      <c r="AI20" s="1">
         <v>368388.99200000003</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AJ20" s="1">
         <v>591966.01599999995</v>
       </c>
-      <c r="AH20" s="1">
+      <c r="AK20" s="1">
         <v>-195366.04800000001</v>
       </c>
-      <c r="AI20" s="1">
+      <c r="AL20" s="1">
         <v>468518.016</v>
       </c>
-      <c r="AJ20" s="1">
+      <c r="AM20" s="1">
         <v>223332</v>
       </c>
-      <c r="AK20" s="1">
+      <c r="AN20" s="1">
         <v>476214.016</v>
       </c>
-      <c r="AL20" s="1">
+      <c r="AO20" s="1">
         <v>222936.03200000001</v>
       </c>
-      <c r="AM20" s="1">
+      <c r="AP20" s="1">
         <v>397000.99200000003</v>
       </c>
-      <c r="AN20" s="1">
+      <c r="AQ20" s="1">
         <v>385841.984</v>
-      </c>
-      <c r="AO20" s="1">
-        <v>578137.02399999998</v>
-      </c>
-      <c r="AP20" s="1">
-        <v>141888</v>
-      </c>
-      <c r="AQ20" s="1">
-        <v>388695.00799999997</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.2">
@@ -10085,130 +10078,130 @@
         <v>108</v>
       </c>
       <c r="B21" s="1">
+        <v>-98858</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-69511</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-282104.99200000003</v>
+      </c>
+      <c r="E21" s="1">
         <v>-16055.008</v>
       </c>
-      <c r="C21" s="1">
+      <c r="F21" s="1">
         <v>-223735.008</v>
       </c>
-      <c r="D21" s="1">
+      <c r="G21" s="1">
         <v>-753699.96799999999</v>
       </c>
-      <c r="E21" s="1">
+      <c r="H21" s="1">
         <v>-266979.00799999997</v>
       </c>
-      <c r="F21" s="1">
+      <c r="I21" s="1">
         <v>37986</v>
       </c>
-      <c r="G21" s="1">
+      <c r="J21" s="1">
         <v>-21442</v>
       </c>
-      <c r="H21" s="1">
+      <c r="K21" s="1">
         <v>-160283.008</v>
       </c>
-      <c r="I21" s="1">
+      <c r="L21" s="1">
         <v>-289816</v>
       </c>
-      <c r="J21" s="1">
+      <c r="M21" s="1">
         <v>63186.991999999998</v>
       </c>
-      <c r="K21" s="1">
+      <c r="N21" s="1">
         <v>-201875.008</v>
       </c>
-      <c r="L21" s="1">
+      <c r="O21" s="1">
         <v>-195770</v>
       </c>
-      <c r="M21" s="1">
+      <c r="P21" s="1">
         <v>-245607.008</v>
       </c>
-      <c r="N21" s="1">
+      <c r="Q21" s="1">
         <v>89878.991999999998</v>
       </c>
-      <c r="O21" s="1">
+      <c r="R21" s="1">
         <v>-143708</v>
       </c>
-      <c r="P21" s="1">
+      <c r="S21" s="1">
         <v>-133002</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="T21" s="1">
         <v>-193112</v>
       </c>
-      <c r="R21" s="1">
+      <c r="U21" s="1">
         <v>50315.016000000003</v>
       </c>
-      <c r="S21" s="1">
+      <c r="V21" s="1">
         <v>-60509</v>
       </c>
-      <c r="T21" s="1">
+      <c r="W21" s="1">
         <v>-225976.992</v>
       </c>
-      <c r="U21" s="1">
+      <c r="X21" s="1">
         <v>-353151.00799999997</v>
       </c>
-      <c r="V21" s="1">
+      <c r="Y21" s="1">
         <v>-126167.976</v>
       </c>
-      <c r="W21" s="1">
+      <c r="Z21" s="1">
         <v>-101481</v>
       </c>
-      <c r="X21" s="1">
+      <c r="AA21" s="1">
         <v>-161814</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="AB21" s="1">
         <v>-308560</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="AC21" s="1">
         <v>-72942.983999999997</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AD21" s="1">
         <v>-126155</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AE21" s="1">
         <v>-265700</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AF21" s="1">
         <v>-283071.00799999997</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AG21" s="1">
         <v>12536</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AH21" s="1">
         <v>-128316</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AI21" s="1">
         <v>-176072.992</v>
       </c>
-      <c r="AG21" s="1">
+      <c r="AJ21" s="1">
         <v>-262667.00799999997</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AK21" s="1">
         <v>-24458.991999999998</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AL21" s="1">
         <v>-134379.008</v>
       </c>
-      <c r="AJ21" s="1">
+      <c r="AM21" s="1">
         <v>-106144</v>
       </c>
-      <c r="AK21" s="1">
+      <c r="AN21" s="1">
         <v>-193330</v>
       </c>
-      <c r="AL21" s="1">
+      <c r="AO21" s="1">
         <v>-87100</v>
       </c>
-      <c r="AM21" s="1">
+      <c r="AP21" s="1">
         <v>-85340</v>
       </c>
-      <c r="AN21" s="1">
+      <c r="AQ21" s="1">
         <v>-164195.008</v>
-      </c>
-      <c r="AO21" s="1">
-        <v>-274966.016</v>
-      </c>
-      <c r="AP21" s="1">
-        <v>-64573.008000000002</v>
-      </c>
-      <c r="AQ21" s="1">
-        <v>-135948</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.2">
@@ -10216,277 +10209,271 @@
         <v>109</v>
       </c>
       <c r="B22" s="1">
+        <v>-550123.00800000003</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-242460.992</v>
+      </c>
+      <c r="D22" s="1">
+        <v>14256</v>
+      </c>
+      <c r="E22" s="1">
         <v>82553</v>
       </c>
-      <c r="C22" s="1">
+      <c r="F22" s="1">
         <v>-43246</v>
       </c>
-      <c r="D22" s="1">
+      <c r="G22" s="1">
         <v>-68899</v>
       </c>
-      <c r="E22" s="1">
+      <c r="H22" s="1">
         <v>4696</v>
       </c>
-      <c r="F22" s="1">
+      <c r="I22" s="1">
         <v>-2595.0079999999998</v>
       </c>
-      <c r="G22" s="1">
+      <c r="J22" s="1">
         <v>-176364</v>
       </c>
-      <c r="H22" s="1">
+      <c r="K22" s="1">
         <v>-51431</v>
       </c>
-      <c r="I22" s="1">
+      <c r="L22" s="1">
         <v>24619</v>
       </c>
-      <c r="J22" s="1">
+      <c r="M22" s="1">
         <v>-96719</v>
       </c>
-      <c r="K22" s="1">
+      <c r="N22" s="1">
         <v>90563</v>
       </c>
-      <c r="L22" s="1">
+      <c r="O22" s="1">
         <v>9974</v>
       </c>
-      <c r="M22" s="1">
+      <c r="P22" s="1">
         <v>64254</v>
       </c>
-      <c r="N22" s="1">
+      <c r="Q22" s="1">
         <v>-65644.008000000002</v>
       </c>
-      <c r="O22" s="1">
+      <c r="R22" s="1">
         <v>204407.008</v>
       </c>
-      <c r="P22" s="1">
+      <c r="S22" s="1">
         <v>23094</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="T22" s="1">
         <v>-56600</v>
       </c>
-      <c r="R22" s="1">
+      <c r="U22" s="1">
         <v>84953.991999999998</v>
       </c>
-      <c r="S22" s="1">
+      <c r="V22" s="1">
         <v>-50363</v>
       </c>
-      <c r="T22" s="1">
+      <c r="W22" s="1">
         <v>-273628.99200000003</v>
       </c>
-      <c r="U22" s="1">
+      <c r="X22" s="1">
         <v>297792</v>
       </c>
-      <c r="V22" s="1">
+      <c r="Y22" s="1">
         <v>8675</v>
       </c>
-      <c r="W22" s="1">
+      <c r="Z22" s="1">
         <v>79258</v>
       </c>
-      <c r="X22" s="1">
+      <c r="AA22" s="1">
         <v>15848</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="AB22" s="1">
         <v>62013</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="AC22" s="1">
         <v>-18235.008000000002</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AD22" s="1">
         <v>34221</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AE22" s="1">
         <v>159302</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AF22" s="1">
         <v>50565</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AG22" s="1">
         <v>18847.008000000002</v>
       </c>
-      <c r="AE22" s="1">
+      <c r="AH22" s="1">
         <v>1948</v>
       </c>
-      <c r="AF22" s="1">
+      <c r="AI22" s="1">
         <v>59299</v>
       </c>
-      <c r="AG22" s="1">
+      <c r="AJ22" s="1">
         <v>69357</v>
       </c>
-      <c r="AH22" s="1">
+      <c r="AK22" s="1">
         <v>122336</v>
       </c>
-      <c r="AI22" s="1">
+      <c r="AL22" s="1">
         <v>-14816</v>
       </c>
-      <c r="AJ22" s="1">
+      <c r="AM22" s="1">
         <v>67753</v>
       </c>
-      <c r="AK22" s="1">
+      <c r="AN22" s="1">
         <v>36861</v>
       </c>
-      <c r="AL22" s="1">
+      <c r="AO22" s="1">
         <v>52928.008000000002</v>
       </c>
-      <c r="AM22" s="1">
+      <c r="AP22" s="1">
         <v>34117</v>
       </c>
-      <c r="AN22" s="1">
+      <c r="AQ22" s="1">
         <v>35836</v>
-      </c>
-      <c r="AO22" s="1">
-        <v>81658</v>
-      </c>
-      <c r="AP22" s="1">
-        <v>73014</v>
-      </c>
-      <c r="AQ22" s="1">
-        <v>36495</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AQ23" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AQ24" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B25" s="1">
+        <v>-23497</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-54670</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-9329</v>
+      </c>
+      <c r="E25" s="1">
         <v>-25001</v>
       </c>
-      <c r="C25" s="1">
+      <c r="F25" s="1">
         <v>4949</v>
       </c>
-      <c r="D25" s="1">
+      <c r="G25" s="1">
         <v>13150</v>
       </c>
-      <c r="E25" s="1">
+      <c r="H25" s="1">
         <v>1354</v>
       </c>
-      <c r="F25" s="1">
+      <c r="I25" s="1">
         <v>-25491</v>
       </c>
-      <c r="G25" s="1">
+      <c r="J25" s="1">
         <v>-41848</v>
       </c>
-      <c r="H25" s="1">
+      <c r="K25" s="1">
         <v>2387</v>
       </c>
-      <c r="I25" s="1">
+      <c r="L25" s="1">
         <v>-7971</v>
       </c>
-      <c r="J25" s="1">
+      <c r="M25" s="1">
         <v>-18029</v>
       </c>
-      <c r="K25" s="1">
+      <c r="N25" s="1">
         <v>-6214</v>
       </c>
-      <c r="L25" s="1">
+      <c r="O25" s="1">
         <v>-5396</v>
       </c>
-      <c r="M25" s="1">
+      <c r="P25" s="1">
         <v>-7302</v>
       </c>
-      <c r="N25" s="1">
+      <c r="Q25" s="1">
         <v>-59124</v>
       </c>
-      <c r="O25" s="1">
+      <c r="R25" s="1">
         <v>-7636</v>
       </c>
-      <c r="P25" s="1">
+      <c r="S25" s="1">
         <v>-10941</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="T25" s="1">
         <v>-6928</v>
       </c>
-      <c r="R25" s="1">
+      <c r="U25" s="1">
         <v>29124</v>
       </c>
-      <c r="S25" s="1">
+      <c r="V25" s="1">
         <v>-12062</v>
       </c>
-      <c r="T25" s="1">
+      <c r="W25" s="1">
         <v>-3619</v>
       </c>
-      <c r="U25" s="1">
+      <c r="X25" s="1">
         <v>-2583</v>
       </c>
-      <c r="V25" s="1">
+      <c r="Y25" s="1">
         <v>-6290</v>
       </c>
-      <c r="W25" s="1">
+      <c r="Z25" s="1">
         <v>-3824</v>
       </c>
-      <c r="X25" s="1">
+      <c r="AA25" s="1">
         <v>-26676</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="AB25" s="1">
         <v>-36023</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="AC25" s="1">
         <v>-33605</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AD25" s="1">
         <v>-13809</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AE25" s="1">
         <v>-35768</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AF25" s="1">
         <v>-46483</v>
       </c>
-      <c r="AD25" s="1">
+      <c r="AG25" s="1">
         <v>-4151</v>
       </c>
-      <c r="AE25" s="1">
+      <c r="AH25" s="1">
         <v>-6914</v>
       </c>
-      <c r="AF25" s="1">
+      <c r="AI25" s="1">
         <v>-11026</v>
       </c>
-      <c r="AG25" s="1">
+      <c r="AJ25" s="1">
         <v>-6784</v>
       </c>
-      <c r="AH25" s="1">
+      <c r="AK25" s="1">
         <v>-8186</v>
       </c>
-      <c r="AI25" s="1">
+      <c r="AL25" s="1">
         <v>-4620</v>
       </c>
-      <c r="AJ25" s="1">
+      <c r="AM25" s="1">
         <v>-7406</v>
       </c>
-      <c r="AK25" s="1">
+      <c r="AN25" s="1">
         <v>-5620</v>
       </c>
-      <c r="AL25" s="1">
+      <c r="AO25" s="1">
         <v>-6905</v>
       </c>
-      <c r="AM25" s="1">
+      <c r="AP25" s="1">
         <v>-4606</v>
       </c>
-      <c r="AN25" s="1">
+      <c r="AQ25" s="1">
         <v>-2305</v>
-      </c>
-      <c r="AO25" s="1">
-        <v>-5348</v>
-      </c>
-      <c r="AP25" s="1">
-        <v>-541</v>
-      </c>
-      <c r="AQ25" s="1">
-        <v>-9846</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.2">
@@ -10494,130 +10481,130 @@
         <v>113</v>
       </c>
       <c r="B26" s="1">
+        <v>2829102.08</v>
+      </c>
+      <c r="C26" s="1">
+        <v>949987.96799999999</v>
+      </c>
+      <c r="D26" s="1">
+        <v>785844.99199999997</v>
+      </c>
+      <c r="E26" s="1">
         <v>1098446.08</v>
       </c>
-      <c r="C26" s="1">
+      <c r="F26" s="1">
         <v>685395.96799999999</v>
       </c>
-      <c r="D26" s="1">
+      <c r="G26" s="1">
         <v>1608089.9839999999</v>
       </c>
-      <c r="E26" s="1">
+      <c r="H26" s="1">
         <v>512270.016</v>
       </c>
-      <c r="F26" s="1">
+      <c r="I26" s="1">
         <v>570963.96799999999</v>
       </c>
-      <c r="G26" s="1">
+      <c r="J26" s="1">
         <v>571662.97600000002</v>
       </c>
-      <c r="H26" s="1">
+      <c r="K26" s="1">
         <v>349328</v>
       </c>
-      <c r="I26" s="1">
+      <c r="L26" s="1">
         <v>497991.00799999997</v>
       </c>
-      <c r="J26" s="1">
+      <c r="M26" s="1">
         <v>372789.02399999998</v>
       </c>
-      <c r="K26" s="1">
+      <c r="N26" s="1">
         <v>354788.99200000003</v>
       </c>
-      <c r="L26" s="1">
+      <c r="O26" s="1">
         <v>347207.00799999997</v>
       </c>
-      <c r="M26" s="1">
+      <c r="P26" s="1">
         <v>332278.016</v>
       </c>
-      <c r="N26" s="1">
+      <c r="Q26" s="1">
         <v>74148.960000000006</v>
       </c>
-      <c r="O26" s="1">
+      <c r="R26" s="1">
         <v>409095.00799999997</v>
       </c>
-      <c r="P26" s="1">
+      <c r="S26" s="1">
         <v>140040</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="T26" s="1">
         <v>410342.016</v>
       </c>
-      <c r="R26" s="1">
+      <c r="U26" s="1">
         <v>-80698.991999999998</v>
       </c>
-      <c r="S26" s="1">
+      <c r="V26" s="1">
         <v>-87116</v>
       </c>
-      <c r="T26" s="1">
+      <c r="W26" s="1">
         <v>992958.97600000002</v>
       </c>
-      <c r="U26" s="1">
+      <c r="X26" s="1">
         <v>133506</v>
       </c>
-      <c r="V26" s="1">
+      <c r="Y26" s="1">
         <v>395822.04800000001</v>
       </c>
-      <c r="W26" s="1">
+      <c r="Z26" s="1">
         <v>87609</v>
       </c>
-      <c r="X26" s="1">
+      <c r="AA26" s="1">
         <v>275339.00799999997</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="AB26" s="1">
         <v>433968</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="AC26" s="1">
         <v>237257.95199999999</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="AD26" s="1">
         <v>219636.992</v>
       </c>
-      <c r="AB26" s="1">
+      <c r="AE26" s="1">
         <v>212488</v>
       </c>
-      <c r="AC26" s="1">
+      <c r="AF26" s="1">
         <v>536567.00800000003</v>
       </c>
-      <c r="AD26" s="1">
+      <c r="AG26" s="1">
         <v>174062.016</v>
       </c>
-      <c r="AE26" s="1">
+      <c r="AH26" s="1">
         <v>266036.99200000003</v>
       </c>
-      <c r="AF26" s="1">
+      <c r="AI26" s="1">
         <v>240588.992</v>
       </c>
-      <c r="AG26" s="1">
+      <c r="AJ26" s="1">
         <v>391872</v>
       </c>
-      <c r="AH26" s="1">
+      <c r="AK26" s="1">
         <v>-105675.008</v>
       </c>
-      <c r="AI26" s="1">
+      <c r="AL26" s="1">
         <v>314703.00799999997</v>
       </c>
-      <c r="AJ26" s="1">
+      <c r="AM26" s="1">
         <v>177535.008</v>
       </c>
-      <c r="AK26" s="1">
+      <c r="AN26" s="1">
         <v>314124.99200000003</v>
       </c>
-      <c r="AL26" s="1">
+      <c r="AO26" s="1">
         <v>181858.992</v>
       </c>
-      <c r="AM26" s="1">
+      <c r="AP26" s="1">
         <v>341172</v>
       </c>
-      <c r="AN26" s="1">
+      <c r="AQ26" s="1">
         <v>255178</v>
-      </c>
-      <c r="AO26" s="1">
-        <v>379480.99200000003</v>
-      </c>
-      <c r="AP26" s="1">
-        <v>149787.96799999999</v>
-      </c>
-      <c r="AQ26" s="1">
-        <v>279396</v>
       </c>
     </row>
   </sheetData>
